--- a/database/industries/ghaza/ghesalem/product/monthly.xlsx
+++ b/database/industries/ghaza/ghesalem/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693EEE3-897A-4372-B23E-4C2B42903E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>کیک</t>
   </si>
   <si>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,7 +461,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -472,7 +473,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -519,6 +520,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -554,6 +572,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,17 +740,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -770,7 +805,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +862,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -884,7 +919,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -939,7 +974,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1031,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1088,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1108,7 +1143,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1320,7 +1355,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1412,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1386,157 +1421,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>862</v>
+        <v>825</v>
       </c>
       <c r="F11" s="11">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="G11" s="11">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="H11" s="11">
-        <v>875</v>
+        <v>759</v>
       </c>
       <c r="I11" s="11">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="J11" s="11">
-        <v>797</v>
+        <v>501</v>
       </c>
       <c r="K11" s="11">
-        <v>501</v>
+        <v>928</v>
       </c>
       <c r="L11" s="11">
+        <v>683</v>
+      </c>
+      <c r="M11" s="11">
+        <v>922</v>
+      </c>
+      <c r="N11" s="11">
+        <v>943</v>
+      </c>
+      <c r="O11" s="11">
+        <v>899</v>
+      </c>
+      <c r="P11" s="11">
+        <v>949</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>891</v>
+      </c>
+      <c r="R11" s="11">
+        <v>904</v>
+      </c>
+      <c r="S11" s="11">
+        <v>669</v>
+      </c>
+      <c r="T11" s="11">
+        <v>785</v>
+      </c>
+      <c r="U11" s="11">
+        <v>804</v>
+      </c>
+      <c r="V11" s="11">
+        <v>526</v>
+      </c>
+      <c r="W11" s="11">
+        <v>937</v>
+      </c>
+      <c r="X11" s="11">
+        <v>721</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>930</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>877</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>946</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>821</v>
+      </c>
+      <c r="AC11" s="11">
         <v>928</v>
       </c>
-      <c r="M11" s="11">
-        <v>683</v>
-      </c>
-      <c r="N11" s="11">
-        <v>922</v>
-      </c>
-      <c r="O11" s="11">
-        <v>943</v>
-      </c>
-      <c r="P11" s="11">
-        <v>899</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>949</v>
-      </c>
-      <c r="R11" s="11">
-        <v>891</v>
-      </c>
-      <c r="S11" s="11">
+      <c r="AD11" s="11">
+        <v>1001</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>983</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>972</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>857</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>601</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>910</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>898</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>999</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>879</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>1041</v>
+      </c>
+      <c r="AN11" s="11">
         <v>904</v>
       </c>
-      <c r="T11" s="11">
-        <v>669</v>
-      </c>
-      <c r="U11" s="11">
-        <v>785</v>
-      </c>
-      <c r="V11" s="11">
-        <v>804</v>
-      </c>
-      <c r="W11" s="11">
-        <v>526</v>
-      </c>
-      <c r="X11" s="11">
-        <v>937</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>721</v>
-      </c>
-      <c r="Z11" s="11">
+      <c r="AO11" s="11">
+        <v>1088</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>1078</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>1084</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>1051</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>956</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>556</v>
+      </c>
+      <c r="AU11" s="11">
         <v>930</v>
       </c>
-      <c r="AA11" s="11">
-        <v>877</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>946</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>821</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>928</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>1001</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>983</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>972</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>857</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>601</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>910</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>898</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>999</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>879</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>1041</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>904</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>1088</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>1078</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>1084</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>1051</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>956</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>556</v>
-      </c>
       <c r="AV11" s="11">
-        <v>930</v>
+        <v>1113</v>
       </c>
       <c r="AW11" s="11">
-        <v>1113</v>
+        <v>1169</v>
       </c>
       <c r="AX11" s="11">
-        <v>1169</v>
+        <v>1056</v>
       </c>
       <c r="AY11" s="11">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="BA11" s="11">
-        <v>1011</v>
+        <v>1130</v>
       </c>
       <c r="BB11" s="11">
-        <v>1130</v>
+        <v>1096</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1545,107 +1580,107 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="F12" s="13">
-        <v>611</v>
+        <v>866</v>
       </c>
       <c r="G12" s="13">
-        <v>866</v>
+        <v>1421</v>
       </c>
       <c r="H12" s="13">
-        <v>1421</v>
+        <v>892</v>
       </c>
       <c r="I12" s="13">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="J12" s="13">
-        <v>913</v>
+        <v>532</v>
       </c>
       <c r="K12" s="13">
-        <v>532</v>
+        <v>807</v>
       </c>
       <c r="L12" s="13">
-        <v>807</v>
+        <v>622</v>
       </c>
       <c r="M12" s="13">
-        <v>622</v>
+        <v>442</v>
       </c>
       <c r="N12" s="13">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="O12" s="13">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="P12" s="13">
-        <v>617</v>
+        <v>943</v>
       </c>
       <c r="Q12" s="13">
-        <v>943</v>
+        <v>653</v>
       </c>
       <c r="R12" s="13">
-        <v>653</v>
+        <v>762</v>
       </c>
       <c r="S12" s="13">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="T12" s="13">
-        <v>733</v>
+        <v>616</v>
       </c>
       <c r="U12" s="13">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="V12" s="13">
-        <v>689</v>
+        <v>431</v>
       </c>
       <c r="W12" s="13">
-        <v>431</v>
+        <v>881</v>
       </c>
       <c r="X12" s="13">
-        <v>881</v>
+        <v>541</v>
       </c>
       <c r="Y12" s="13">
-        <v>541</v>
+        <v>790</v>
       </c>
       <c r="Z12" s="13">
-        <v>790</v>
+        <v>557</v>
       </c>
       <c r="AA12" s="13">
-        <v>557</v>
+        <v>749</v>
       </c>
       <c r="AB12" s="13">
-        <v>749</v>
+        <v>321</v>
       </c>
       <c r="AC12" s="13">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="AD12" s="13">
-        <v>612</v>
+        <v>839</v>
       </c>
       <c r="AE12" s="13">
-        <v>839</v>
+        <v>1112</v>
       </c>
       <c r="AF12" s="13">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="AG12" s="13">
-        <v>1121</v>
+        <v>814</v>
       </c>
       <c r="AH12" s="13">
-        <v>814</v>
+        <v>467</v>
       </c>
       <c r="AI12" s="13">
-        <v>467</v>
+        <v>823</v>
       </c>
       <c r="AJ12" s="13">
-        <v>823</v>
+        <v>629</v>
       </c>
       <c r="AK12" s="13">
-        <v>629</v>
-      </c>
-      <c r="AL12" s="13">
         <v>662</v>
       </c>
+      <c r="AL12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1695,7 +1730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1704,157 +1739,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F13" s="11">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="G13" s="11">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="H13" s="11">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I13" s="11">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2</v>
+      </c>
+      <c r="W13" s="11">
+        <v>70</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
         <v>7</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <v>2</v>
-      </c>
-      <c r="X13" s="11">
-        <v>70</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>0</v>
-      </c>
       <c r="AE13" s="11">
+        <v>110</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>117</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>109</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>83</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>61</v>
+      </c>
+      <c r="AK13" s="11">
         <v>7</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AL13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>130</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>103</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>46</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>47</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>122</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>73</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>84</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>110</v>
       </c>
-      <c r="AG13" s="11">
-        <v>117</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>109</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>83</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>100</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>61</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>7</v>
-      </c>
-      <c r="AM13" s="11">
+      <c r="BA13" s="11">
+        <v>115</v>
+      </c>
+      <c r="BB13" s="11">
         <v>87</v>
       </c>
-      <c r="AN13" s="11">
-        <v>130</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>103</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>46</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>47</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>74</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>73</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>84</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>110</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>115</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1863,157 +1898,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1659</v>
+        <v>1905</v>
       </c>
       <c r="F14" s="13">
-        <v>1905</v>
+        <v>1610</v>
       </c>
       <c r="G14" s="13">
-        <v>1610</v>
+        <v>1140</v>
       </c>
       <c r="H14" s="13">
-        <v>1140</v>
+        <v>1611</v>
       </c>
       <c r="I14" s="13">
-        <v>1611</v>
+        <v>1673</v>
       </c>
       <c r="J14" s="13">
-        <v>1673</v>
+        <v>1063</v>
       </c>
       <c r="K14" s="13">
-        <v>1063</v>
+        <v>2499</v>
       </c>
       <c r="L14" s="13">
-        <v>2499</v>
+        <v>1881</v>
       </c>
       <c r="M14" s="13">
-        <v>1881</v>
+        <v>2151</v>
       </c>
       <c r="N14" s="13">
-        <v>2151</v>
+        <v>2046</v>
       </c>
       <c r="O14" s="13">
-        <v>2046</v>
+        <v>1955</v>
       </c>
       <c r="P14" s="13">
-        <v>1955</v>
+        <v>2065</v>
       </c>
       <c r="Q14" s="13">
-        <v>2065</v>
+        <v>1703</v>
       </c>
       <c r="R14" s="13">
-        <v>1703</v>
+        <v>1796</v>
       </c>
       <c r="S14" s="13">
-        <v>1796</v>
+        <v>1739</v>
       </c>
       <c r="T14" s="13">
-        <v>1739</v>
+        <v>1866</v>
       </c>
       <c r="U14" s="13">
-        <v>1866</v>
+        <v>1792</v>
       </c>
       <c r="V14" s="13">
-        <v>1792</v>
+        <v>1348</v>
       </c>
       <c r="W14" s="13">
-        <v>1348</v>
+        <v>1898</v>
       </c>
       <c r="X14" s="13">
-        <v>1898</v>
+        <v>1744</v>
       </c>
       <c r="Y14" s="13">
-        <v>1744</v>
+        <v>2150</v>
       </c>
       <c r="Z14" s="13">
-        <v>2150</v>
+        <v>1805</v>
       </c>
       <c r="AA14" s="13">
-        <v>1805</v>
+        <v>1566</v>
       </c>
       <c r="AB14" s="13">
-        <v>1566</v>
+        <v>544</v>
       </c>
       <c r="AC14" s="13">
-        <v>544</v>
+        <v>1210</v>
       </c>
       <c r="AD14" s="13">
-        <v>1210</v>
+        <v>2007</v>
       </c>
       <c r="AE14" s="13">
-        <v>2007</v>
+        <v>1870</v>
       </c>
       <c r="AF14" s="13">
-        <v>1870</v>
+        <v>1694</v>
       </c>
       <c r="AG14" s="13">
-        <v>1694</v>
+        <v>1474</v>
       </c>
       <c r="AH14" s="13">
-        <v>1474</v>
+        <v>1261</v>
       </c>
       <c r="AI14" s="13">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1249</v>
+        <v>1717</v>
       </c>
       <c r="AK14" s="13">
-        <v>1717</v>
+        <v>1804</v>
       </c>
       <c r="AL14" s="13">
-        <v>1804</v>
+        <v>1356</v>
       </c>
       <c r="AM14" s="13">
-        <v>1356</v>
+        <v>1757</v>
       </c>
       <c r="AN14" s="13">
-        <v>1757</v>
+        <v>1308</v>
       </c>
       <c r="AO14" s="13">
-        <v>1308</v>
+        <v>1651</v>
       </c>
       <c r="AP14" s="13">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="AQ14" s="13">
+        <v>2623</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>1931</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>1670</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>636</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>1692</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>1715</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>1742</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AZ14" s="13">
         <v>1656</v>
       </c>
-      <c r="AR14" s="13">
-        <v>2623</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>1931</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>1670</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>636</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>1450</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>1692</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>1715</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>1742</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>1625</v>
-      </c>
       <c r="BA14" s="13">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="BB14" s="13">
-        <v>1652</v>
+        <v>1452</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2120,59 +2155,59 @@
       <c r="AK15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
+      <c r="AL15" s="11">
+        <v>191</v>
       </c>
       <c r="AM15" s="11">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AN15" s="11">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="AO15" s="11">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AP15" s="11">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="AQ15" s="11">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="AR15" s="11">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AS15" s="11">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="AT15" s="11">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="AU15" s="11">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AV15" s="11">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="AW15" s="11">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AX15" s="11">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="AY15" s="11">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AZ15" s="11">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="BA15" s="11">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="BB15" s="11">
-        <v>241</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2181,127 +2216,127 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F16" s="13">
         <v>24</v>
       </c>
       <c r="G16" s="13">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H16" s="13">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I16" s="13">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J16" s="13">
         <v>9</v>
       </c>
       <c r="K16" s="13">
+        <v>13</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>15</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
         <v>9</v>
       </c>
-      <c r="L16" s="13">
-        <v>13</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>15</v>
-      </c>
-      <c r="O16" s="13">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>10</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
       <c r="S16" s="13">
+        <v>5</v>
+      </c>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
         <v>9</v>
       </c>
-      <c r="T16" s="13">
-        <v>5</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
       <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
         <v>9</v>
       </c>
-      <c r="W16" s="13">
-        <v>0</v>
-      </c>
       <c r="X16" s="13">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="13">
         <v>9</v>
       </c>
-      <c r="Y16" s="13">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13">
+      <c r="AB16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13">
         <v>8</v>
       </c>
-      <c r="AB16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>14</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>0</v>
-      </c>
       <c r="AE16" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="13">
         <v>8</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>2</v>
       </c>
       <c r="AG16" s="13">
         <v>8</v>
       </c>
       <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13">
         <v>8</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AO16" s="13">
         <v>8</v>
       </c>
-      <c r="AK16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>13</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="13">
+      <c r="AP16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="13">
         <v>6</v>
       </c>
-      <c r="AO16" s="13">
-        <v>14</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>8</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>0</v>
-      </c>
       <c r="AR16" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AS16" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
         <v>0</v>
@@ -2310,28 +2345,28 @@
         <v>0</v>
       </c>
       <c r="AV16" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AW16" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY16" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BA16" s="13">
         <v>9</v>
       </c>
       <c r="BB16" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2438,59 +2473,59 @@
       <c r="AK17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
+      <c r="AL17" s="11">
+        <v>478</v>
       </c>
       <c r="AM17" s="11">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="AN17" s="11">
-        <v>559</v>
+        <v>696</v>
       </c>
       <c r="AO17" s="11">
-        <v>696</v>
+        <v>813</v>
       </c>
       <c r="AP17" s="11">
-        <v>813</v>
+        <v>1225</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="AS17" s="11">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AT17" s="11">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="AU17" s="11">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="AV17" s="11">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="AW17" s="11">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="AX17" s="11">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="AY17" s="11">
+        <v>470</v>
+      </c>
+      <c r="AZ17" s="11">
+        <v>486</v>
+      </c>
+      <c r="BA17" s="11">
         <v>524</v>
       </c>
-      <c r="AZ17" s="11">
-        <v>470</v>
-      </c>
-      <c r="BA17" s="11">
-        <v>486</v>
-      </c>
       <c r="BB17" s="11">
-        <v>524</v>
+        <v>755</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2597,59 +2632,59 @@
       <c r="AK18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>58</v>
+      <c r="AL18" s="13">
+        <v>0</v>
       </c>
       <c r="AM18" s="13">
         <v>0</v>
       </c>
       <c r="AN18" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO18" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="13">
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AR18" s="13">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AS18" s="13">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AT18" s="13">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AU18" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AW18" s="13">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AX18" s="13">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AY18" s="13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AZ18" s="13">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="BA18" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BB18" s="13">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2756,59 +2791,59 @@
       <c r="AK19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL19" s="11" t="s">
-        <v>58</v>
+      <c r="AL19" s="11">
+        <v>95</v>
       </c>
       <c r="AM19" s="11">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AN19" s="11">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AO19" s="11">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AP19" s="11">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="11">
         <v>0</v>
       </c>
       <c r="AR19" s="11">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AS19" s="11">
+        <v>124</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>57</v>
+      </c>
+      <c r="AU19" s="11">
         <v>161</v>
       </c>
-      <c r="AT19" s="11">
+      <c r="AV19" s="11">
+        <v>136</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>96</v>
+      </c>
+      <c r="AX19" s="11">
         <v>124</v>
       </c>
-      <c r="AU19" s="11">
-        <v>57</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>161</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>136</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>96</v>
-      </c>
       <c r="AY19" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="AZ19" s="11">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="BA19" s="11">
+        <v>235</v>
+      </c>
+      <c r="BB19" s="11">
         <v>146</v>
       </c>
-      <c r="BB19" s="11">
-        <v>235</v>
-      </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
@@ -2865,7 +2900,7 @@
       <c r="BA20" s="15"/>
       <c r="BB20" s="15"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>67</v>
       </c>
@@ -2931,8 +2966,8 @@
       <c r="X21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="17" t="s">
-        <v>58</v>
+      <c r="Y21" s="17">
+        <v>0</v>
       </c>
       <c r="Z21" s="17">
         <v>0</v>
@@ -3022,164 +3057,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>3007</v>
+        <v>3404</v>
       </c>
       <c r="F22" s="19">
-        <v>3404</v>
+        <v>3503</v>
       </c>
       <c r="G22" s="19">
-        <v>3503</v>
+        <v>3536</v>
       </c>
       <c r="H22" s="19">
-        <v>3536</v>
+        <v>3369</v>
       </c>
       <c r="I22" s="19">
-        <v>3369</v>
+        <v>3399</v>
       </c>
       <c r="J22" s="19">
-        <v>3399</v>
+        <v>2105</v>
       </c>
       <c r="K22" s="19">
-        <v>2105</v>
+        <v>4247</v>
       </c>
       <c r="L22" s="19">
-        <v>4247</v>
+        <v>3186</v>
       </c>
       <c r="M22" s="19">
-        <v>3186</v>
+        <v>3530</v>
       </c>
       <c r="N22" s="19">
-        <v>3530</v>
+        <v>3538</v>
       </c>
       <c r="O22" s="19">
-        <v>3538</v>
+        <v>3471</v>
       </c>
       <c r="P22" s="19">
+        <v>3967</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>3247</v>
+      </c>
+      <c r="R22" s="19">
         <v>3471</v>
       </c>
-      <c r="Q22" s="19">
-        <v>3967</v>
-      </c>
-      <c r="R22" s="19">
+      <c r="S22" s="19">
+        <v>3146</v>
+      </c>
+      <c r="T22" s="19">
+        <v>3267</v>
+      </c>
+      <c r="U22" s="19">
+        <v>3294</v>
+      </c>
+      <c r="V22" s="19">
+        <v>2307</v>
+      </c>
+      <c r="W22" s="19">
+        <v>3795</v>
+      </c>
+      <c r="X22" s="19">
+        <v>3017</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>3870</v>
+      </c>
+      <c r="Z22" s="19">
         <v>3247</v>
       </c>
-      <c r="S22" s="19">
-        <v>3471</v>
-      </c>
-      <c r="T22" s="19">
-        <v>3146</v>
-      </c>
-      <c r="U22" s="19">
-        <v>3267</v>
-      </c>
-      <c r="V22" s="19">
-        <v>3294</v>
-      </c>
-      <c r="W22" s="19">
-        <v>2307</v>
-      </c>
-      <c r="X22" s="19">
-        <v>3795</v>
-      </c>
-      <c r="Y22" s="19">
-        <v>3017</v>
-      </c>
-      <c r="Z22" s="19">
-        <v>3870</v>
-      </c>
       <c r="AA22" s="19">
-        <v>3247</v>
+        <v>3270</v>
       </c>
       <c r="AB22" s="19">
-        <v>3270</v>
+        <v>1700</v>
       </c>
       <c r="AC22" s="19">
-        <v>1700</v>
+        <v>2750</v>
       </c>
       <c r="AD22" s="19">
-        <v>2750</v>
+        <v>3862</v>
       </c>
       <c r="AE22" s="19">
-        <v>3862</v>
+        <v>4077</v>
       </c>
       <c r="AF22" s="19">
-        <v>4077</v>
+        <v>3912</v>
       </c>
       <c r="AG22" s="19">
-        <v>3912</v>
+        <v>3262</v>
       </c>
       <c r="AH22" s="19">
-        <v>3262</v>
+        <v>2412</v>
       </c>
       <c r="AI22" s="19">
-        <v>2412</v>
+        <v>3090</v>
       </c>
       <c r="AJ22" s="19">
-        <v>3090</v>
+        <v>3305</v>
       </c>
       <c r="AK22" s="19">
-        <v>3305</v>
+        <v>3485</v>
       </c>
       <c r="AL22" s="19">
-        <v>3485</v>
+        <v>3086</v>
       </c>
       <c r="AM22" s="19">
-        <v>3086</v>
+        <v>3834</v>
       </c>
       <c r="AN22" s="19">
-        <v>3834</v>
+        <v>3361</v>
       </c>
       <c r="AO22" s="19">
-        <v>3361</v>
+        <v>4120</v>
       </c>
       <c r="AP22" s="19">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="AQ22" s="19">
-        <v>4320</v>
+        <v>3971</v>
       </c>
       <c r="AR22" s="19">
-        <v>3971</v>
+        <v>3892</v>
       </c>
       <c r="AS22" s="19">
-        <v>3892</v>
+        <v>3298</v>
       </c>
       <c r="AT22" s="19">
-        <v>3298</v>
+        <v>1444</v>
       </c>
       <c r="AU22" s="19">
-        <v>1444</v>
+        <v>3352</v>
       </c>
       <c r="AV22" s="19">
-        <v>3352</v>
+        <v>4144</v>
       </c>
       <c r="AW22" s="19">
-        <v>4144</v>
+        <v>3754</v>
       </c>
       <c r="AX22" s="19">
-        <v>3754</v>
+        <v>3686</v>
       </c>
       <c r="AY22" s="19">
-        <v>3686</v>
+        <v>3643</v>
       </c>
       <c r="AZ22" s="19">
-        <v>3643</v>
+        <v>3713</v>
       </c>
       <c r="BA22" s="19">
-        <v>3713</v>
+        <v>3968</v>
       </c>
       <c r="BB22" s="19">
-        <v>3968</v>
+        <v>3693</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3234,7 +3269,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3289,7 +3324,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3344,7 +3379,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>69</v>
       </c>
@@ -3501,7 +3536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3556,7 +3591,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
@@ -3613,7 +3648,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
@@ -3622,157 +3657,157 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>911</v>
+        <v>821</v>
       </c>
       <c r="F29" s="11">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="G29" s="11">
-        <v>824</v>
+        <v>689</v>
       </c>
       <c r="H29" s="11">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="I29" s="11">
-        <v>737</v>
+        <v>949</v>
       </c>
       <c r="J29" s="11">
-        <v>949</v>
+        <v>534</v>
       </c>
       <c r="K29" s="11">
-        <v>534</v>
+        <v>910</v>
       </c>
       <c r="L29" s="11">
-        <v>910</v>
+        <v>748</v>
       </c>
       <c r="M29" s="11">
-        <v>748</v>
+        <v>927</v>
       </c>
       <c r="N29" s="11">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="O29" s="11">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="P29" s="11">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="Q29" s="11">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="R29" s="11">
-        <v>903</v>
+        <v>855</v>
       </c>
       <c r="S29" s="11">
-        <v>855</v>
+        <v>669</v>
       </c>
       <c r="T29" s="11">
-        <v>669</v>
+        <v>808</v>
       </c>
       <c r="U29" s="11">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="V29" s="11">
-        <v>793</v>
+        <v>560</v>
       </c>
       <c r="W29" s="11">
-        <v>560</v>
+        <v>946</v>
       </c>
       <c r="X29" s="11">
-        <v>946</v>
+        <v>716</v>
       </c>
       <c r="Y29" s="11">
-        <v>716</v>
+        <v>924</v>
       </c>
       <c r="Z29" s="11">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="AA29" s="11">
-        <v>872</v>
+        <v>951</v>
       </c>
       <c r="AB29" s="11">
-        <v>951</v>
+        <v>805</v>
       </c>
       <c r="AC29" s="11">
-        <v>805</v>
+        <v>944</v>
       </c>
       <c r="AD29" s="11">
-        <v>944</v>
+        <v>991</v>
       </c>
       <c r="AE29" s="11">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="AF29" s="11">
+        <v>981</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>849</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>605</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>931</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>897</v>
+      </c>
+      <c r="AK29" s="11">
         <v>980</v>
       </c>
-      <c r="AG29" s="11">
-        <v>981</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>849</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>605</v>
-      </c>
-      <c r="AJ29" s="11">
-        <v>931</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>897</v>
-      </c>
       <c r="AL29" s="11">
-        <v>980</v>
+        <v>854</v>
       </c>
       <c r="AM29" s="11">
-        <v>854</v>
+        <v>1051</v>
       </c>
       <c r="AN29" s="11">
-        <v>1051</v>
+        <v>893</v>
       </c>
       <c r="AO29" s="11">
-        <v>893</v>
+        <v>1101</v>
       </c>
       <c r="AP29" s="11">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="AR29" s="11">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="AS29" s="11">
-        <v>1056</v>
+        <v>956</v>
       </c>
       <c r="AT29" s="11">
-        <v>956</v>
+        <v>606</v>
       </c>
       <c r="AU29" s="11">
-        <v>606</v>
+        <v>887</v>
       </c>
       <c r="AV29" s="11">
-        <v>887</v>
+        <v>1106</v>
       </c>
       <c r="AW29" s="11">
-        <v>1106</v>
+        <v>1185</v>
       </c>
       <c r="AX29" s="11">
-        <v>1185</v>
+        <v>1060</v>
       </c>
       <c r="AY29" s="11">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="AZ29" s="11">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="BA29" s="11">
-        <v>1023</v>
+        <v>1108</v>
       </c>
       <c r="BB29" s="11">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
@@ -3781,107 +3816,107 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>523</v>
+        <v>655</v>
       </c>
       <c r="F30" s="13">
-        <v>655</v>
+        <v>928</v>
       </c>
       <c r="G30" s="13">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="H30" s="13">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="I30" s="13">
-        <v>908</v>
+        <v>849</v>
       </c>
       <c r="J30" s="13">
-        <v>849</v>
+        <v>628</v>
       </c>
       <c r="K30" s="13">
-        <v>628</v>
+        <v>777</v>
       </c>
       <c r="L30" s="13">
-        <v>777</v>
+        <v>545</v>
       </c>
       <c r="M30" s="13">
-        <v>545</v>
+        <v>426</v>
       </c>
       <c r="N30" s="13">
-        <v>426</v>
+        <v>551</v>
       </c>
       <c r="O30" s="13">
-        <v>551</v>
+        <v>683</v>
       </c>
       <c r="P30" s="13">
-        <v>683</v>
+        <v>889</v>
       </c>
       <c r="Q30" s="13">
-        <v>889</v>
+        <v>676</v>
       </c>
       <c r="R30" s="13">
-        <v>676</v>
+        <v>595</v>
       </c>
       <c r="S30" s="13">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="T30" s="13">
-        <v>619</v>
+        <v>788</v>
       </c>
       <c r="U30" s="13">
-        <v>788</v>
+        <v>716</v>
       </c>
       <c r="V30" s="13">
-        <v>716</v>
+        <v>524</v>
       </c>
       <c r="W30" s="13">
-        <v>524</v>
+        <v>843</v>
       </c>
       <c r="X30" s="13">
-        <v>843</v>
+        <v>535</v>
       </c>
       <c r="Y30" s="13">
-        <v>535</v>
+        <v>775</v>
       </c>
       <c r="Z30" s="13">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="AA30" s="13">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AB30" s="13">
-        <v>670</v>
+        <v>373</v>
       </c>
       <c r="AC30" s="13">
-        <v>373</v>
+        <v>583</v>
       </c>
       <c r="AD30" s="13">
-        <v>583</v>
+        <v>817</v>
       </c>
       <c r="AE30" s="13">
-        <v>817</v>
+        <v>1013</v>
       </c>
       <c r="AF30" s="13">
-        <v>1013</v>
+        <v>1038</v>
       </c>
       <c r="AG30" s="13">
-        <v>1038</v>
+        <v>943</v>
       </c>
       <c r="AH30" s="13">
-        <v>943</v>
+        <v>492</v>
       </c>
       <c r="AI30" s="13">
-        <v>492</v>
+        <v>770</v>
       </c>
       <c r="AJ30" s="13">
-        <v>770</v>
+        <v>658</v>
       </c>
       <c r="AK30" s="13">
-        <v>658</v>
-      </c>
-      <c r="AL30" s="13">
         <v>823</v>
       </c>
+      <c r="AL30" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM30" s="13" t="s">
         <v>58</v>
       </c>
@@ -3931,7 +3966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>59</v>
       </c>
@@ -3940,25 +3975,25 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F31" s="11">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="G31" s="11">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="H31" s="11">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I31" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J31" s="11">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="K31" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L31" s="11">
         <v>0</v>
@@ -3991,106 +4026,106 @@
         <v>0</v>
       </c>
       <c r="V31" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="11">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="X31" s="11">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="11">
         <v>1</v>
       </c>
-      <c r="Z31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="11">
-        <v>0</v>
-      </c>
       <c r="AE31" s="11">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AF31" s="11">
+        <v>98</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>112</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>76</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>97</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>80</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>18</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>74</v>
+      </c>
+      <c r="AM31" s="11">
         <v>110</v>
       </c>
-      <c r="AG31" s="11">
+      <c r="AN31" s="11">
+        <v>77</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>62</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>43</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>39</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>76</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>86</v>
+      </c>
+      <c r="AT31" s="11">
+        <v>53</v>
+      </c>
+      <c r="AU31" s="11">
+        <v>107</v>
+      </c>
+      <c r="AV31" s="11">
+        <v>136</v>
+      </c>
+      <c r="AW31" s="11">
+        <v>78</v>
+      </c>
+      <c r="AX31" s="11">
+        <v>53</v>
+      </c>
+      <c r="AY31" s="11">
+        <v>61</v>
+      </c>
+      <c r="AZ31" s="11">
+        <v>88</v>
+      </c>
+      <c r="BA31" s="11">
+        <v>115</v>
+      </c>
+      <c r="BB31" s="11">
         <v>98</v>
       </c>
-      <c r="AH31" s="11">
-        <v>112</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>76</v>
-      </c>
-      <c r="AJ31" s="11">
-        <v>97</v>
-      </c>
-      <c r="AK31" s="11">
-        <v>80</v>
-      </c>
-      <c r="AL31" s="11">
-        <v>18</v>
-      </c>
-      <c r="AM31" s="11">
-        <v>74</v>
-      </c>
-      <c r="AN31" s="11">
-        <v>110</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>77</v>
-      </c>
-      <c r="AP31" s="11">
-        <v>62</v>
-      </c>
-      <c r="AQ31" s="11">
-        <v>43</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>39</v>
-      </c>
-      <c r="AS31" s="11">
-        <v>76</v>
-      </c>
-      <c r="AT31" s="11">
-        <v>86</v>
-      </c>
-      <c r="AU31" s="11">
-        <v>53</v>
-      </c>
-      <c r="AV31" s="11">
-        <v>107</v>
-      </c>
-      <c r="AW31" s="11">
-        <v>136</v>
-      </c>
-      <c r="AX31" s="11">
-        <v>78</v>
-      </c>
-      <c r="AY31" s="11">
-        <v>53</v>
-      </c>
-      <c r="AZ31" s="11">
-        <v>61</v>
-      </c>
-      <c r="BA31" s="11">
-        <v>88</v>
-      </c>
-      <c r="BB31" s="11">
-        <v>115</v>
-      </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
@@ -4099,157 +4134,157 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>1718</v>
+        <v>1986</v>
       </c>
       <c r="F32" s="13">
-        <v>1986</v>
+        <v>1689</v>
       </c>
       <c r="G32" s="13">
-        <v>1689</v>
+        <v>1564</v>
       </c>
       <c r="H32" s="13">
-        <v>1564</v>
+        <v>1704</v>
       </c>
       <c r="I32" s="13">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J32" s="13">
-        <v>1705</v>
+        <v>996</v>
       </c>
       <c r="K32" s="13">
-        <v>996</v>
+        <v>2424</v>
       </c>
       <c r="L32" s="13">
-        <v>2424</v>
+        <v>1723</v>
       </c>
       <c r="M32" s="13">
-        <v>1723</v>
+        <v>2003</v>
       </c>
       <c r="N32" s="13">
-        <v>2003</v>
+        <v>2089</v>
       </c>
       <c r="O32" s="13">
-        <v>2089</v>
+        <v>2079</v>
       </c>
       <c r="P32" s="13">
-        <v>2079</v>
+        <v>1991</v>
       </c>
       <c r="Q32" s="13">
-        <v>1991</v>
+        <v>1750</v>
       </c>
       <c r="R32" s="13">
-        <v>1750</v>
+        <v>1655</v>
       </c>
       <c r="S32" s="13">
+        <v>1786</v>
+      </c>
+      <c r="T32" s="13">
+        <v>2028</v>
+      </c>
+      <c r="U32" s="13">
+        <v>1712</v>
+      </c>
+      <c r="V32" s="13">
+        <v>1474</v>
+      </c>
+      <c r="W32" s="13">
+        <v>1932</v>
+      </c>
+      <c r="X32" s="13">
+        <v>1583</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>2116</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>1744</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>1886</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>636</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1092</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>2026</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>1798</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>1573</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>1496</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>1263</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>1213</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>1738</v>
+      </c>
+      <c r="AK32" s="13">
         <v>1655</v>
       </c>
-      <c r="T32" s="13">
-        <v>1786</v>
-      </c>
-      <c r="U32" s="13">
-        <v>2028</v>
-      </c>
-      <c r="V32" s="13">
-        <v>1712</v>
-      </c>
-      <c r="W32" s="13">
-        <v>1474</v>
-      </c>
-      <c r="X32" s="13">
-        <v>1932</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>1583</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>2116</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>1744</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>1886</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>636</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>1092</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>2026</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>1798</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>1573</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>1496</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>1263</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>1213</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>1738</v>
-      </c>
       <c r="AL32" s="13">
-        <v>1655</v>
+        <v>1489</v>
       </c>
       <c r="AM32" s="13">
-        <v>1489</v>
+        <v>1927</v>
       </c>
       <c r="AN32" s="13">
-        <v>1927</v>
+        <v>1356</v>
       </c>
       <c r="AO32" s="13">
-        <v>1356</v>
+        <v>1451</v>
       </c>
       <c r="AP32" s="13">
-        <v>1451</v>
+        <v>2175</v>
       </c>
       <c r="AQ32" s="13">
-        <v>2175</v>
+        <v>2131</v>
       </c>
       <c r="AR32" s="13">
-        <v>2131</v>
+        <v>1911</v>
       </c>
       <c r="AS32" s="13">
-        <v>1911</v>
+        <v>1571</v>
       </c>
       <c r="AT32" s="13">
-        <v>1571</v>
+        <v>988</v>
       </c>
       <c r="AU32" s="13">
-        <v>988</v>
+        <v>1155</v>
       </c>
       <c r="AV32" s="13">
-        <v>1155</v>
+        <v>1749</v>
       </c>
       <c r="AW32" s="13">
-        <v>1749</v>
+        <v>1425</v>
       </c>
       <c r="AX32" s="13">
-        <v>1425</v>
+        <v>1692</v>
       </c>
       <c r="AY32" s="13">
-        <v>1692</v>
+        <v>1544</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1544</v>
+        <v>1694</v>
       </c>
       <c r="BA32" s="13">
-        <v>1694</v>
+        <v>1581</v>
       </c>
       <c r="BB32" s="13">
-        <v>1581</v>
+        <v>1664</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
@@ -4356,59 +4391,59 @@
       <c r="AK33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL33" s="11" t="s">
-        <v>58</v>
+      <c r="AL33" s="11">
+        <v>110</v>
       </c>
       <c r="AM33" s="11">
+        <v>217</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>227</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>224</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>299</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>317</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>132</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>170</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>103</v>
+      </c>
+      <c r="AU33" s="11">
         <v>110</v>
       </c>
-      <c r="AN33" s="11">
-        <v>217</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>227</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>224</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>299</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>317</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>132</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>170</v>
-      </c>
-      <c r="AU33" s="11">
-        <v>103</v>
-      </c>
       <c r="AV33" s="11">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="AW33" s="11">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AX33" s="11">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="AY33" s="11">
+        <v>161</v>
+      </c>
+      <c r="AZ33" s="11">
+        <v>208</v>
+      </c>
+      <c r="BA33" s="11">
         <v>216</v>
       </c>
-      <c r="AZ33" s="11">
-        <v>161</v>
-      </c>
-      <c r="BA33" s="11">
-        <v>208</v>
-      </c>
       <c r="BB33" s="11">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
@@ -4417,52 +4452,52 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>18</v>
+      </c>
+      <c r="F34" s="13">
+        <v>27</v>
+      </c>
+      <c r="G34" s="13">
+        <v>21</v>
+      </c>
+      <c r="H34" s="13">
+        <v>20</v>
+      </c>
+      <c r="I34" s="13">
+        <v>18</v>
+      </c>
+      <c r="J34" s="13">
+        <v>6</v>
+      </c>
+      <c r="K34" s="13">
+        <v>12</v>
+      </c>
+      <c r="L34" s="13">
+        <v>5</v>
+      </c>
+      <c r="M34" s="13">
+        <v>8</v>
+      </c>
+      <c r="N34" s="13">
+        <v>5</v>
+      </c>
+      <c r="O34" s="13">
+        <v>4</v>
+      </c>
+      <c r="P34" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="13">
         <v>3</v>
       </c>
-      <c r="F34" s="13">
-        <v>18</v>
-      </c>
-      <c r="G34" s="13">
-        <v>27</v>
-      </c>
-      <c r="H34" s="13">
-        <v>21</v>
-      </c>
-      <c r="I34" s="13">
-        <v>20</v>
-      </c>
-      <c r="J34" s="13">
-        <v>18</v>
-      </c>
-      <c r="K34" s="13">
-        <v>6</v>
-      </c>
-      <c r="L34" s="13">
-        <v>12</v>
-      </c>
-      <c r="M34" s="13">
+      <c r="R34" s="13">
         <v>5</v>
       </c>
-      <c r="N34" s="13">
-        <v>8</v>
-      </c>
-      <c r="O34" s="13">
+      <c r="S34" s="13">
+        <v>3</v>
+      </c>
+      <c r="T34" s="13">
         <v>5</v>
-      </c>
-      <c r="P34" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>6</v>
-      </c>
-      <c r="R34" s="13">
-        <v>3</v>
-      </c>
-      <c r="S34" s="13">
-        <v>5</v>
-      </c>
-      <c r="T34" s="13">
-        <v>3</v>
       </c>
       <c r="U34" s="13">
         <v>5</v>
@@ -4471,40 +4506,40 @@
         <v>5</v>
       </c>
       <c r="W34" s="13">
+        <v>6</v>
+      </c>
+      <c r="X34" s="13">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="13">
         <v>5</v>
       </c>
-      <c r="X34" s="13">
-        <v>6</v>
-      </c>
-      <c r="Y34" s="13">
-        <v>9</v>
-      </c>
       <c r="Z34" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA34" s="13">
         <v>8</v>
       </c>
       <c r="AB34" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC34" s="13">
         <v>7</v>
       </c>
       <c r="AD34" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE34" s="13">
         <v>5</v>
       </c>
       <c r="AF34" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG34" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH34" s="13">
         <v>4</v>
-      </c>
-      <c r="AH34" s="13">
-        <v>7</v>
       </c>
       <c r="AI34" s="13">
         <v>4</v>
@@ -4513,61 +4548,61 @@
         <v>4</v>
       </c>
       <c r="AK34" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>10</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR34" s="13">
         <v>4</v>
       </c>
-      <c r="AL34" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM34" s="13">
+      <c r="AS34" s="13">
         <v>5</v>
       </c>
-      <c r="AN34" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>10</v>
-      </c>
-      <c r="AP34" s="13">
+      <c r="AT34" s="13">
         <v>2</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>14</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>5</v>
-      </c>
-      <c r="AS34" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT34" s="13">
-        <v>5</v>
       </c>
       <c r="AU34" s="13">
         <v>2</v>
       </c>
       <c r="AV34" s="13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW34" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AX34" s="13">
         <v>5</v>
       </c>
       <c r="AY34" s="13">
+        <v>7</v>
+      </c>
+      <c r="AZ34" s="13">
         <v>5</v>
       </c>
-      <c r="AZ34" s="13">
-        <v>7</v>
-      </c>
       <c r="BA34" s="13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB34" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>63</v>
       </c>
@@ -4674,59 +4709,59 @@
       <c r="AK35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL35" s="11" t="s">
-        <v>58</v>
+      <c r="AL35" s="11">
+        <v>425</v>
       </c>
       <c r="AM35" s="11">
-        <v>425</v>
+        <v>585</v>
       </c>
       <c r="AN35" s="11">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="AO35" s="11">
-        <v>626</v>
+        <v>867</v>
       </c>
       <c r="AP35" s="11">
-        <v>867</v>
+        <v>526</v>
       </c>
       <c r="AQ35" s="11">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="AR35" s="11">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="AS35" s="11">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="AT35" s="11">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="AU35" s="11">
-        <v>197</v>
+        <v>490</v>
       </c>
       <c r="AV35" s="11">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="AW35" s="11">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AX35" s="11">
+        <v>524</v>
+      </c>
+      <c r="AY35" s="11">
         <v>547</v>
       </c>
-      <c r="AY35" s="11">
-        <v>524</v>
-      </c>
       <c r="AZ35" s="11">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="BA35" s="11">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="BB35" s="11">
-        <v>514</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>64</v>
       </c>
@@ -4833,59 +4868,59 @@
       <c r="AK36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL36" s="13" t="s">
-        <v>58</v>
+      <c r="AL36" s="13">
+        <v>0</v>
       </c>
       <c r="AM36" s="13">
         <v>0</v>
       </c>
       <c r="AN36" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO36" s="13">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AP36" s="13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AQ36" s="13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR36" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS36" s="13">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AT36" s="13">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AU36" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="13">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AW36" s="13">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AX36" s="13">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AY36" s="13">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AZ36" s="13">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="BA36" s="13">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="BB36" s="13">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>65</v>
       </c>
@@ -4992,59 +5027,59 @@
       <c r="AK37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL37" s="11" t="s">
-        <v>58</v>
+      <c r="AL37" s="11">
+        <v>94</v>
       </c>
       <c r="AM37" s="11">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AN37" s="11">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="AO37" s="11">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="AP37" s="11">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="AQ37" s="11">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="11">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS37" s="11">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="AT37" s="11">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="AU37" s="11">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="AV37" s="11">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="AW37" s="11">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AX37" s="11">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="AY37" s="11">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="AZ37" s="11">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="BA37" s="11">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="BB37" s="11">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>66</v>
       </c>
@@ -5101,7 +5136,7 @@
       <c r="BA38" s="15"/>
       <c r="BB38" s="15"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>67</v>
       </c>
@@ -5167,8 +5202,8 @@
       <c r="X39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>58</v>
+      <c r="Y39" s="17">
+        <v>0</v>
       </c>
       <c r="Z39" s="17">
         <v>0</v>
@@ -5258,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>70</v>
       </c>
@@ -5315,7 +5350,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>71</v>
       </c>
@@ -5381,8 +5416,8 @@
       <c r="X41" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="17" t="s">
-        <v>58</v>
+      <c r="Y41" s="17">
+        <v>0</v>
       </c>
       <c r="Z41" s="17">
         <v>0</v>
@@ -5472,164 +5507,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19">
-        <v>3155</v>
+        <v>3517</v>
       </c>
       <c r="F42" s="19">
-        <v>3517</v>
+        <v>3581</v>
       </c>
       <c r="G42" s="19">
-        <v>3581</v>
+        <v>3238</v>
       </c>
       <c r="H42" s="19">
-        <v>3238</v>
+        <v>3419</v>
       </c>
       <c r="I42" s="19">
-        <v>3419</v>
+        <v>3591</v>
       </c>
       <c r="J42" s="19">
-        <v>3591</v>
+        <v>2170</v>
       </c>
       <c r="K42" s="19">
-        <v>2170</v>
+        <v>4123</v>
       </c>
       <c r="L42" s="19">
-        <v>4123</v>
+        <v>3021</v>
       </c>
       <c r="M42" s="19">
-        <v>3021</v>
+        <v>3364</v>
       </c>
       <c r="N42" s="19">
-        <v>3364</v>
+        <v>3577</v>
       </c>
       <c r="O42" s="19">
-        <v>3577</v>
+        <v>3675</v>
       </c>
       <c r="P42" s="19">
-        <v>3675</v>
+        <v>3819</v>
       </c>
       <c r="Q42" s="19">
-        <v>3819</v>
+        <v>3332</v>
       </c>
       <c r="R42" s="19">
-        <v>3332</v>
+        <v>3110</v>
       </c>
       <c r="S42" s="19">
-        <v>3110</v>
+        <v>3077</v>
       </c>
       <c r="T42" s="19">
-        <v>3077</v>
+        <v>3629</v>
       </c>
       <c r="U42" s="19">
-        <v>3629</v>
+        <v>3226</v>
       </c>
       <c r="V42" s="19">
-        <v>3226</v>
+        <v>2565</v>
       </c>
       <c r="W42" s="19">
-        <v>2565</v>
+        <v>3796</v>
       </c>
       <c r="X42" s="19">
-        <v>3796</v>
+        <v>2844</v>
       </c>
       <c r="Y42" s="19">
-        <v>2844</v>
+        <v>3820</v>
       </c>
       <c r="Z42" s="19">
-        <v>3820</v>
+        <v>3301</v>
       </c>
       <c r="AA42" s="19">
-        <v>3301</v>
+        <v>3515</v>
       </c>
       <c r="AB42" s="19">
-        <v>3515</v>
+        <v>1821</v>
       </c>
       <c r="AC42" s="19">
-        <v>1821</v>
+        <v>2626</v>
       </c>
       <c r="AD42" s="19">
-        <v>2626</v>
+        <v>3840</v>
       </c>
       <c r="AE42" s="19">
-        <v>3840</v>
+        <v>3906</v>
       </c>
       <c r="AF42" s="19">
-        <v>3906</v>
+        <v>3694</v>
       </c>
       <c r="AG42" s="19">
-        <v>3694</v>
+        <v>3407</v>
       </c>
       <c r="AH42" s="19">
-        <v>3407</v>
+        <v>2440</v>
       </c>
       <c r="AI42" s="19">
-        <v>2440</v>
+        <v>3015</v>
       </c>
       <c r="AJ42" s="19">
-        <v>3015</v>
+        <v>3377</v>
       </c>
       <c r="AK42" s="19">
-        <v>3377</v>
+        <v>3484</v>
       </c>
       <c r="AL42" s="19">
-        <v>3484</v>
+        <v>3051</v>
       </c>
       <c r="AM42" s="19">
-        <v>3051</v>
+        <v>4009</v>
       </c>
       <c r="AN42" s="19">
-        <v>4009</v>
+        <v>3306</v>
       </c>
       <c r="AO42" s="19">
-        <v>3306</v>
+        <v>3852</v>
       </c>
       <c r="AP42" s="19">
-        <v>3852</v>
+        <v>4217</v>
       </c>
       <c r="AQ42" s="19">
-        <v>4217</v>
+        <v>4129</v>
       </c>
       <c r="AR42" s="19">
-        <v>4129</v>
+        <v>3850</v>
       </c>
       <c r="AS42" s="19">
-        <v>3850</v>
+        <v>3339</v>
       </c>
       <c r="AT42" s="19">
-        <v>3339</v>
+        <v>2016</v>
       </c>
       <c r="AU42" s="19">
-        <v>2016</v>
+        <v>2906</v>
       </c>
       <c r="AV42" s="19">
-        <v>2906</v>
+        <v>3887</v>
       </c>
       <c r="AW42" s="19">
-        <v>3887</v>
+        <v>3518</v>
       </c>
       <c r="AX42" s="19">
-        <v>3518</v>
+        <v>3751</v>
       </c>
       <c r="AY42" s="19">
-        <v>3751</v>
+        <v>3568</v>
       </c>
       <c r="AZ42" s="19">
-        <v>3568</v>
+        <v>3727</v>
       </c>
       <c r="BA42" s="19">
-        <v>3727</v>
+        <v>3829</v>
       </c>
       <c r="BB42" s="19">
-        <v>3829</v>
+        <v>3858</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5684,7 +5719,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5739,7 +5774,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5794,7 +5829,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>72</v>
       </c>
@@ -5951,7 +5986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6006,7 +6041,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
@@ -6063,7 +6098,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -6072,157 +6107,157 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>85515</v>
+        <v>83522</v>
       </c>
       <c r="F49" s="11">
-        <v>83522</v>
+        <v>85083</v>
       </c>
       <c r="G49" s="11">
-        <v>85083</v>
+        <v>66924</v>
       </c>
       <c r="H49" s="11">
-        <v>66924</v>
+        <v>70338</v>
       </c>
       <c r="I49" s="11">
-        <v>70338</v>
+        <v>92280</v>
       </c>
       <c r="J49" s="11">
-        <v>92280</v>
+        <v>54633</v>
       </c>
       <c r="K49" s="11">
-        <v>54633</v>
+        <v>92541</v>
       </c>
       <c r="L49" s="11">
-        <v>92541</v>
+        <v>83995</v>
       </c>
       <c r="M49" s="11">
-        <v>83995</v>
+        <v>107427</v>
       </c>
       <c r="N49" s="11">
-        <v>107427</v>
+        <v>108089</v>
       </c>
       <c r="O49" s="11">
-        <v>108089</v>
+        <v>105259</v>
       </c>
       <c r="P49" s="11">
-        <v>105259</v>
+        <v>108170</v>
       </c>
       <c r="Q49" s="11">
-        <v>108170</v>
+        <v>104725</v>
       </c>
       <c r="R49" s="11">
-        <v>104725</v>
+        <v>99068</v>
       </c>
       <c r="S49" s="11">
-        <v>99068</v>
+        <v>77468</v>
       </c>
       <c r="T49" s="11">
-        <v>77468</v>
+        <v>93643</v>
       </c>
       <c r="U49" s="11">
-        <v>93643</v>
+        <v>91992</v>
       </c>
       <c r="V49" s="11">
-        <v>91992</v>
+        <v>71504</v>
       </c>
       <c r="W49" s="11">
-        <v>71504</v>
+        <v>127457</v>
       </c>
       <c r="X49" s="11">
-        <v>127457</v>
+        <v>102685</v>
       </c>
       <c r="Y49" s="11">
-        <v>102685</v>
+        <v>138525</v>
       </c>
       <c r="Z49" s="11">
-        <v>138525</v>
+        <v>141900</v>
       </c>
       <c r="AA49" s="11">
-        <v>141900</v>
+        <v>167352</v>
       </c>
       <c r="AB49" s="11">
-        <v>167352</v>
+        <v>156051</v>
       </c>
       <c r="AC49" s="11">
-        <v>156051</v>
+        <v>191849</v>
       </c>
       <c r="AD49" s="11">
-        <v>191849</v>
+        <v>209407</v>
       </c>
       <c r="AE49" s="11">
-        <v>209407</v>
+        <v>200454</v>
       </c>
       <c r="AF49" s="11">
-        <v>200454</v>
+        <v>203139</v>
       </c>
       <c r="AG49" s="11">
-        <v>203139</v>
+        <v>182769</v>
       </c>
       <c r="AH49" s="11">
-        <v>182769</v>
+        <v>130349</v>
       </c>
       <c r="AI49" s="11">
-        <v>130349</v>
+        <v>235296</v>
       </c>
       <c r="AJ49" s="11">
-        <v>235296</v>
+        <v>231762</v>
       </c>
       <c r="AK49" s="11">
-        <v>231762</v>
+        <v>253192</v>
       </c>
       <c r="AL49" s="11">
-        <v>253192</v>
+        <v>220751</v>
       </c>
       <c r="AM49" s="11">
-        <v>220751</v>
+        <v>276478</v>
       </c>
       <c r="AN49" s="11">
-        <v>276478</v>
+        <v>259657</v>
       </c>
       <c r="AO49" s="11">
-        <v>259657</v>
+        <v>319943</v>
       </c>
       <c r="AP49" s="11">
-        <v>319943</v>
+        <v>310834</v>
       </c>
       <c r="AQ49" s="11">
-        <v>310834</v>
+        <v>313195</v>
       </c>
       <c r="AR49" s="11">
-        <v>313195</v>
+        <v>312495</v>
       </c>
       <c r="AS49" s="11">
-        <v>312495</v>
+        <v>298965</v>
       </c>
       <c r="AT49" s="11">
-        <v>298965</v>
+        <v>194747</v>
       </c>
       <c r="AU49" s="11">
-        <v>194747</v>
+        <v>404676</v>
       </c>
       <c r="AV49" s="11">
-        <v>404676</v>
+        <v>574186</v>
       </c>
       <c r="AW49" s="11">
-        <v>574186</v>
+        <v>608420</v>
       </c>
       <c r="AX49" s="11">
-        <v>608420</v>
+        <v>574154</v>
       </c>
       <c r="AY49" s="11">
-        <v>574154</v>
+        <v>560042</v>
       </c>
       <c r="AZ49" s="11">
-        <v>560042</v>
+        <v>554593</v>
       </c>
       <c r="BA49" s="11">
-        <v>554593</v>
+        <v>638636</v>
       </c>
       <c r="BB49" s="11">
-        <v>638636</v>
+        <v>634988</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
@@ -6231,107 +6266,107 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>31594</v>
+        <v>39307</v>
       </c>
       <c r="F50" s="13">
-        <v>39307</v>
+        <v>68712</v>
       </c>
       <c r="G50" s="13">
-        <v>68712</v>
+        <v>73132</v>
       </c>
       <c r="H50" s="13">
-        <v>73132</v>
+        <v>66251</v>
       </c>
       <c r="I50" s="13">
-        <v>66251</v>
+        <v>61399</v>
       </c>
       <c r="J50" s="13">
-        <v>61399</v>
+        <v>48795</v>
       </c>
       <c r="K50" s="13">
-        <v>48795</v>
+        <v>65970</v>
       </c>
       <c r="L50" s="13">
-        <v>65970</v>
+        <v>51143</v>
       </c>
       <c r="M50" s="13">
-        <v>51143</v>
+        <v>37689</v>
       </c>
       <c r="N50" s="13">
-        <v>37689</v>
+        <v>49477</v>
       </c>
       <c r="O50" s="13">
-        <v>49477</v>
+        <v>61616</v>
       </c>
       <c r="P50" s="13">
-        <v>61616</v>
+        <v>76769</v>
       </c>
       <c r="Q50" s="13">
-        <v>76769</v>
+        <v>73452</v>
       </c>
       <c r="R50" s="13">
-        <v>73452</v>
+        <v>56550</v>
       </c>
       <c r="S50" s="13">
-        <v>56550</v>
+        <v>57022</v>
       </c>
       <c r="T50" s="13">
-        <v>57022</v>
+        <v>69978</v>
       </c>
       <c r="U50" s="13">
-        <v>69978</v>
+        <v>65758</v>
       </c>
       <c r="V50" s="13">
-        <v>65758</v>
+        <v>50154</v>
       </c>
       <c r="W50" s="13">
-        <v>50154</v>
+        <v>92886</v>
       </c>
       <c r="X50" s="13">
-        <v>92886</v>
+        <v>60528</v>
       </c>
       <c r="Y50" s="13">
-        <v>60528</v>
+        <v>97081</v>
       </c>
       <c r="Z50" s="13">
-        <v>97081</v>
+        <v>90620</v>
       </c>
       <c r="AA50" s="13">
-        <v>90620</v>
+        <v>89993</v>
       </c>
       <c r="AB50" s="13">
-        <v>89993</v>
+        <v>61560</v>
       </c>
       <c r="AC50" s="13">
-        <v>61560</v>
+        <v>87513</v>
       </c>
       <c r="AD50" s="13">
-        <v>87513</v>
+        <v>117605</v>
       </c>
       <c r="AE50" s="13">
-        <v>117605</v>
+        <v>156675</v>
       </c>
       <c r="AF50" s="13">
-        <v>156675</v>
+        <v>169282</v>
       </c>
       <c r="AG50" s="13">
-        <v>169282</v>
+        <v>162897</v>
       </c>
       <c r="AH50" s="13">
-        <v>162897</v>
+        <v>78322</v>
       </c>
       <c r="AI50" s="13">
-        <v>78322</v>
+        <v>137216</v>
       </c>
       <c r="AJ50" s="13">
-        <v>137216</v>
+        <v>114344</v>
       </c>
       <c r="AK50" s="13">
-        <v>114344</v>
-      </c>
-      <c r="AL50" s="13">
         <v>151115</v>
       </c>
+      <c r="AL50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM50" s="13" t="s">
         <v>58</v>
       </c>
@@ -6381,7 +6416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>59</v>
       </c>
@@ -6390,25 +6425,25 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>3564</v>
       </c>
       <c r="F51" s="11">
-        <v>3564</v>
+        <v>10425</v>
       </c>
       <c r="G51" s="11">
-        <v>10425</v>
+        <v>5754</v>
       </c>
       <c r="H51" s="11">
-        <v>5754</v>
+        <v>4673</v>
       </c>
       <c r="I51" s="11">
-        <v>4673</v>
+        <v>6403</v>
       </c>
       <c r="J51" s="11">
-        <v>6403</v>
+        <v>567</v>
       </c>
       <c r="K51" s="11">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="L51" s="11">
         <v>0</v>
@@ -6441,16 +6476,16 @@
         <v>0</v>
       </c>
       <c r="V51" s="11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W51" s="11">
-        <v>200</v>
+        <v>9576</v>
       </c>
       <c r="X51" s="11">
-        <v>9576</v>
+        <v>71</v>
       </c>
       <c r="Y51" s="11">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="11">
         <v>0</v>
@@ -6465,82 +6500,82 @@
         <v>0</v>
       </c>
       <c r="AD51" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AE51" s="11">
-        <v>139</v>
+        <v>20274</v>
       </c>
       <c r="AF51" s="11">
-        <v>20274</v>
+        <v>18100</v>
       </c>
       <c r="AG51" s="11">
-        <v>18100</v>
+        <v>20666</v>
       </c>
       <c r="AH51" s="11">
-        <v>20666</v>
+        <v>15128</v>
       </c>
       <c r="AI51" s="11">
-        <v>15128</v>
+        <v>22281</v>
       </c>
       <c r="AJ51" s="11">
-        <v>22281</v>
+        <v>18496</v>
       </c>
       <c r="AK51" s="11">
-        <v>18496</v>
+        <v>4051</v>
       </c>
       <c r="AL51" s="11">
-        <v>4051</v>
+        <v>17165</v>
       </c>
       <c r="AM51" s="11">
-        <v>17165</v>
+        <v>26814</v>
       </c>
       <c r="AN51" s="11">
-        <v>26814</v>
+        <v>20510</v>
       </c>
       <c r="AO51" s="11">
-        <v>20510</v>
+        <v>16968</v>
       </c>
       <c r="AP51" s="11">
-        <v>16968</v>
+        <v>11843</v>
       </c>
       <c r="AQ51" s="11">
-        <v>11843</v>
+        <v>10903</v>
       </c>
       <c r="AR51" s="11">
-        <v>10903</v>
+        <v>20924</v>
       </c>
       <c r="AS51" s="11">
-        <v>20924</v>
+        <v>23872</v>
       </c>
       <c r="AT51" s="11">
-        <v>23872</v>
+        <v>14769</v>
       </c>
       <c r="AU51" s="11">
-        <v>14769</v>
+        <v>54069</v>
       </c>
       <c r="AV51" s="11">
-        <v>54069</v>
+        <v>87791</v>
       </c>
       <c r="AW51" s="11">
-        <v>87791</v>
+        <v>47966</v>
       </c>
       <c r="AX51" s="11">
-        <v>47966</v>
+        <v>32088</v>
       </c>
       <c r="AY51" s="11">
-        <v>32088</v>
+        <v>37089</v>
       </c>
       <c r="AZ51" s="11">
-        <v>37089</v>
+        <v>52713</v>
       </c>
       <c r="BA51" s="11">
-        <v>52713</v>
+        <v>69643</v>
       </c>
       <c r="BB51" s="11">
-        <v>69643</v>
+        <v>56822</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>60</v>
       </c>
@@ -6549,157 +6584,157 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>10312</v>
+        <v>11913</v>
       </c>
       <c r="F52" s="13">
-        <v>11913</v>
+        <v>16895</v>
       </c>
       <c r="G52" s="13">
-        <v>16895</v>
+        <v>15646</v>
       </c>
       <c r="H52" s="13">
-        <v>15646</v>
+        <v>17027</v>
       </c>
       <c r="I52" s="13">
-        <v>17027</v>
+        <v>17059</v>
       </c>
       <c r="J52" s="13">
-        <v>17059</v>
+        <v>9958</v>
       </c>
       <c r="K52" s="13">
-        <v>9958</v>
+        <v>36360</v>
       </c>
       <c r="L52" s="13">
-        <v>36360</v>
+        <v>25839</v>
       </c>
       <c r="M52" s="13">
-        <v>25839</v>
+        <v>30041</v>
       </c>
       <c r="N52" s="13">
-        <v>30041</v>
+        <v>31335</v>
       </c>
       <c r="O52" s="13">
-        <v>31335</v>
+        <v>31192</v>
       </c>
       <c r="P52" s="13">
-        <v>31192</v>
+        <v>29731</v>
       </c>
       <c r="Q52" s="13">
-        <v>29731</v>
+        <v>26388</v>
       </c>
       <c r="R52" s="13">
-        <v>26388</v>
+        <v>24823</v>
       </c>
       <c r="S52" s="13">
-        <v>24823</v>
+        <v>26772</v>
       </c>
       <c r="T52" s="13">
-        <v>26772</v>
+        <v>30435</v>
       </c>
       <c r="U52" s="13">
-        <v>30435</v>
+        <v>25941</v>
       </c>
       <c r="V52" s="13">
-        <v>25941</v>
+        <v>26538</v>
       </c>
       <c r="W52" s="13">
-        <v>26538</v>
+        <v>34777</v>
       </c>
       <c r="X52" s="13">
-        <v>34777</v>
+        <v>28488</v>
       </c>
       <c r="Y52" s="13">
-        <v>28488</v>
+        <v>38090</v>
       </c>
       <c r="Z52" s="13">
-        <v>38090</v>
+        <v>31395</v>
       </c>
       <c r="AA52" s="13">
-        <v>31395</v>
+        <v>33942</v>
       </c>
       <c r="AB52" s="13">
-        <v>33942</v>
+        <v>11450</v>
       </c>
       <c r="AC52" s="13">
-        <v>11450</v>
+        <v>19661</v>
       </c>
       <c r="AD52" s="13">
-        <v>19661</v>
+        <v>36458</v>
       </c>
       <c r="AE52" s="13">
-        <v>36458</v>
+        <v>32356</v>
       </c>
       <c r="AF52" s="13">
-        <v>32356</v>
+        <v>28306</v>
       </c>
       <c r="AG52" s="13">
-        <v>28306</v>
+        <v>26955</v>
       </c>
       <c r="AH52" s="13">
-        <v>26955</v>
+        <v>35358</v>
       </c>
       <c r="AI52" s="13">
-        <v>35358</v>
+        <v>33961</v>
       </c>
       <c r="AJ52" s="13">
-        <v>33961</v>
+        <v>48676</v>
       </c>
       <c r="AK52" s="13">
-        <v>48676</v>
+        <v>46343</v>
       </c>
       <c r="AL52" s="13">
-        <v>46343</v>
+        <v>41675</v>
       </c>
       <c r="AM52" s="13">
-        <v>41675</v>
+        <v>53974</v>
       </c>
       <c r="AN52" s="13">
-        <v>53974</v>
+        <v>37956</v>
       </c>
       <c r="AO52" s="13">
-        <v>37956</v>
+        <v>40639</v>
       </c>
       <c r="AP52" s="13">
-        <v>40639</v>
+        <v>60893</v>
       </c>
       <c r="AQ52" s="13">
-        <v>60893</v>
+        <v>59682</v>
       </c>
       <c r="AR52" s="13">
-        <v>59682</v>
+        <v>53504</v>
       </c>
       <c r="AS52" s="13">
-        <v>53504</v>
+        <v>43980</v>
       </c>
       <c r="AT52" s="13">
-        <v>43980</v>
+        <v>40528</v>
       </c>
       <c r="AU52" s="13">
-        <v>40528</v>
+        <v>47349</v>
       </c>
       <c r="AV52" s="13">
-        <v>47349</v>
+        <v>71695</v>
       </c>
       <c r="AW52" s="13">
-        <v>71695</v>
+        <v>58421</v>
       </c>
       <c r="AX52" s="13">
-        <v>58421</v>
+        <v>69390</v>
       </c>
       <c r="AY52" s="13">
-        <v>69390</v>
+        <v>63319</v>
       </c>
       <c r="AZ52" s="13">
-        <v>63319</v>
+        <v>69415</v>
       </c>
       <c r="BA52" s="13">
-        <v>69415</v>
+        <v>64830</v>
       </c>
       <c r="BB52" s="13">
-        <v>64830</v>
+        <v>68275</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>61</v>
       </c>
@@ -6806,59 +6841,59 @@
       <c r="AK53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL53" s="11" t="s">
-        <v>58</v>
+      <c r="AL53" s="11">
+        <v>17883</v>
       </c>
       <c r="AM53" s="11">
-        <v>17883</v>
+        <v>38099</v>
       </c>
       <c r="AN53" s="11">
-        <v>38099</v>
+        <v>41815</v>
       </c>
       <c r="AO53" s="11">
-        <v>41815</v>
+        <v>42108</v>
       </c>
       <c r="AP53" s="11">
-        <v>42108</v>
+        <v>54331</v>
       </c>
       <c r="AQ53" s="11">
-        <v>54331</v>
+        <v>56938</v>
       </c>
       <c r="AR53" s="11">
-        <v>56938</v>
+        <v>25921</v>
       </c>
       <c r="AS53" s="11">
-        <v>25921</v>
+        <v>31686</v>
       </c>
       <c r="AT53" s="11">
-        <v>31686</v>
+        <v>18819</v>
       </c>
       <c r="AU53" s="11">
-        <v>18819</v>
+        <v>38590</v>
       </c>
       <c r="AV53" s="11">
-        <v>38590</v>
+        <v>62732</v>
       </c>
       <c r="AW53" s="11">
-        <v>62732</v>
+        <v>61727</v>
       </c>
       <c r="AX53" s="11">
-        <v>61727</v>
+        <v>78589</v>
       </c>
       <c r="AY53" s="11">
-        <v>78589</v>
+        <v>62814</v>
       </c>
       <c r="AZ53" s="11">
-        <v>62814</v>
+        <v>83834</v>
       </c>
       <c r="BA53" s="11">
-        <v>83834</v>
+        <v>101177</v>
       </c>
       <c r="BB53" s="11">
-        <v>101177</v>
+        <v>67642</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
@@ -6867,157 +6902,157 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>300</v>
+        <v>2706</v>
       </c>
       <c r="F54" s="13">
-        <v>2706</v>
+        <v>4324</v>
       </c>
       <c r="G54" s="13">
-        <v>4324</v>
+        <v>3160</v>
       </c>
       <c r="H54" s="13">
-        <v>3160</v>
+        <v>3201</v>
       </c>
       <c r="I54" s="13">
-        <v>3201</v>
+        <v>2823</v>
       </c>
       <c r="J54" s="13">
-        <v>2823</v>
+        <v>970</v>
       </c>
       <c r="K54" s="13">
-        <v>970</v>
+        <v>1715</v>
       </c>
       <c r="L54" s="13">
-        <v>1715</v>
+        <v>869</v>
       </c>
       <c r="M54" s="13">
-        <v>869</v>
+        <v>1233</v>
       </c>
       <c r="N54" s="13">
-        <v>1233</v>
+        <v>752</v>
       </c>
       <c r="O54" s="13">
-        <v>752</v>
+        <v>519</v>
       </c>
       <c r="P54" s="13">
-        <v>519</v>
+        <v>902</v>
       </c>
       <c r="Q54" s="13">
-        <v>902</v>
+        <v>510</v>
       </c>
       <c r="R54" s="13">
-        <v>510</v>
+        <v>783</v>
       </c>
       <c r="S54" s="13">
-        <v>783</v>
+        <v>418</v>
       </c>
       <c r="T54" s="13">
-        <v>418</v>
+        <v>818</v>
       </c>
       <c r="U54" s="13">
-        <v>818</v>
+        <v>650</v>
       </c>
       <c r="V54" s="13">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="W54" s="13">
-        <v>750</v>
+        <v>1249</v>
       </c>
       <c r="X54" s="13">
-        <v>1249</v>
+        <v>1694</v>
       </c>
       <c r="Y54" s="13">
-        <v>1694</v>
+        <v>1117</v>
       </c>
       <c r="Z54" s="13">
-        <v>1117</v>
+        <v>1635</v>
       </c>
       <c r="AA54" s="13">
-        <v>1635</v>
+        <v>1975</v>
       </c>
       <c r="AB54" s="13">
-        <v>1975</v>
+        <v>2050</v>
       </c>
       <c r="AC54" s="13">
-        <v>2050</v>
+        <v>2293</v>
       </c>
       <c r="AD54" s="13">
-        <v>2293</v>
+        <v>2206</v>
       </c>
       <c r="AE54" s="13">
-        <v>2206</v>
+        <v>1972</v>
       </c>
       <c r="AF54" s="13">
-        <v>1972</v>
+        <v>1597</v>
       </c>
       <c r="AG54" s="13">
-        <v>1597</v>
+        <v>2083</v>
       </c>
       <c r="AH54" s="13">
-        <v>2083</v>
+        <v>1733</v>
       </c>
       <c r="AI54" s="13">
-        <v>1733</v>
+        <v>1483</v>
       </c>
       <c r="AJ54" s="13">
-        <v>1483</v>
+        <v>1923</v>
       </c>
       <c r="AK54" s="13">
-        <v>1923</v>
+        <v>3448</v>
       </c>
       <c r="AL54" s="13">
-        <v>3448</v>
+        <v>2309</v>
       </c>
       <c r="AM54" s="13">
-        <v>2309</v>
+        <v>1393</v>
       </c>
       <c r="AN54" s="13">
-        <v>1393</v>
+        <v>4780</v>
       </c>
       <c r="AO54" s="13">
-        <v>4780</v>
+        <v>896</v>
       </c>
       <c r="AP54" s="13">
-        <v>896</v>
+        <v>6242</v>
       </c>
       <c r="AQ54" s="13">
-        <v>6242</v>
+        <v>2402</v>
       </c>
       <c r="AR54" s="13">
-        <v>2402</v>
+        <v>2103</v>
       </c>
       <c r="AS54" s="13">
-        <v>2103</v>
+        <v>3108</v>
       </c>
       <c r="AT54" s="13">
-        <v>3108</v>
+        <v>925</v>
       </c>
       <c r="AU54" s="13">
-        <v>925</v>
+        <v>1365</v>
       </c>
       <c r="AV54" s="13">
-        <v>1365</v>
+        <v>9521</v>
       </c>
       <c r="AW54" s="13">
-        <v>9521</v>
+        <v>4365</v>
       </c>
       <c r="AX54" s="13">
-        <v>4365</v>
+        <v>3417</v>
       </c>
       <c r="AY54" s="13">
-        <v>3417</v>
+        <v>6162</v>
       </c>
       <c r="AZ54" s="13">
-        <v>6162</v>
+        <v>4307</v>
       </c>
       <c r="BA54" s="13">
-        <v>4307</v>
+        <v>7673</v>
       </c>
       <c r="BB54" s="13">
-        <v>7673</v>
+        <v>5186</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7124,59 +7159,59 @@
       <c r="AK55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL55" s="11" t="s">
-        <v>58</v>
+      <c r="AL55" s="11">
+        <v>68294</v>
       </c>
       <c r="AM55" s="11">
-        <v>68294</v>
+        <v>107180</v>
       </c>
       <c r="AN55" s="11">
-        <v>107180</v>
+        <v>123666</v>
       </c>
       <c r="AO55" s="11">
-        <v>123666</v>
+        <v>176526</v>
       </c>
       <c r="AP55" s="11">
-        <v>176526</v>
+        <v>107499</v>
       </c>
       <c r="AQ55" s="11">
-        <v>107499</v>
+        <v>108387</v>
       </c>
       <c r="AR55" s="11">
-        <v>108387</v>
+        <v>101484</v>
       </c>
       <c r="AS55" s="11">
-        <v>101484</v>
+        <v>82411</v>
       </c>
       <c r="AT55" s="11">
-        <v>82411</v>
+        <v>41540</v>
       </c>
       <c r="AU55" s="11">
-        <v>41540</v>
+        <v>178731</v>
       </c>
       <c r="AV55" s="11">
-        <v>178731</v>
+        <v>249924</v>
       </c>
       <c r="AW55" s="11">
-        <v>249924</v>
+        <v>258443</v>
       </c>
       <c r="AX55" s="11">
-        <v>258443</v>
+        <v>241641</v>
       </c>
       <c r="AY55" s="11">
-        <v>241641</v>
+        <v>249318</v>
       </c>
       <c r="AZ55" s="11">
-        <v>249318</v>
+        <v>237838</v>
       </c>
       <c r="BA55" s="11">
-        <v>237838</v>
+        <v>282067</v>
       </c>
       <c r="BB55" s="11">
-        <v>282067</v>
+        <v>349906</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7283,59 +7318,59 @@
       <c r="AK56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL56" s="13" t="s">
-        <v>58</v>
+      <c r="AL56" s="13">
+        <v>0</v>
       </c>
       <c r="AM56" s="13">
         <v>0</v>
       </c>
       <c r="AN56" s="13">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AO56" s="13">
-        <v>5443</v>
+        <v>2</v>
       </c>
       <c r="AP56" s="13">
-        <v>2</v>
+        <v>4558</v>
       </c>
       <c r="AQ56" s="13">
-        <v>4558</v>
+        <v>3898</v>
       </c>
       <c r="AR56" s="13">
-        <v>3898</v>
+        <v>2074</v>
       </c>
       <c r="AS56" s="13">
-        <v>2074</v>
+        <v>5237</v>
       </c>
       <c r="AT56" s="13">
-        <v>5237</v>
+        <v>852</v>
       </c>
       <c r="AU56" s="13">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="13">
-        <v>0</v>
+        <v>37771</v>
       </c>
       <c r="AW56" s="13">
-        <v>37771</v>
+        <v>15440</v>
       </c>
       <c r="AX56" s="13">
-        <v>15440</v>
+        <v>20116</v>
       </c>
       <c r="AY56" s="13">
-        <v>20116</v>
+        <v>6325</v>
       </c>
       <c r="AZ56" s="13">
-        <v>6325</v>
+        <v>21737</v>
       </c>
       <c r="BA56" s="13">
-        <v>21737</v>
+        <v>19791</v>
       </c>
       <c r="BB56" s="13">
-        <v>19791</v>
+        <v>25144</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7442,59 +7477,59 @@
       <c r="AK57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL57" s="11" t="s">
-        <v>58</v>
+      <c r="AL57" s="11">
+        <v>30428</v>
       </c>
       <c r="AM57" s="11">
-        <v>30428</v>
+        <v>46166</v>
       </c>
       <c r="AN57" s="11">
-        <v>46166</v>
+        <v>34878</v>
       </c>
       <c r="AO57" s="11">
-        <v>34878</v>
+        <v>60236</v>
       </c>
       <c r="AP57" s="11">
-        <v>60236</v>
+        <v>28516</v>
       </c>
       <c r="AQ57" s="11">
-        <v>28516</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="11">
-        <v>0</v>
+        <v>61938</v>
       </c>
       <c r="AS57" s="11">
-        <v>61938</v>
+        <v>49168</v>
       </c>
       <c r="AT57" s="11">
-        <v>49168</v>
+        <v>27433</v>
       </c>
       <c r="AU57" s="11">
-        <v>27433</v>
+        <v>88454</v>
       </c>
       <c r="AV57" s="11">
-        <v>88454</v>
+        <v>74263</v>
       </c>
       <c r="AW57" s="11">
-        <v>74263</v>
+        <v>68176</v>
       </c>
       <c r="AX57" s="11">
-        <v>68176</v>
+        <v>98954</v>
       </c>
       <c r="AY57" s="11">
-        <v>98954</v>
+        <v>128413</v>
       </c>
       <c r="AZ57" s="11">
-        <v>128413</v>
+        <v>90327</v>
       </c>
       <c r="BA57" s="11">
-        <v>90327</v>
+        <v>164530</v>
       </c>
       <c r="BB57" s="11">
-        <v>164530</v>
+        <v>100921</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>74</v>
       </c>
@@ -7551,7 +7586,7 @@
       <c r="BA58" s="15"/>
       <c r="BB58" s="15"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -7619,8 +7654,8 @@
       <c r="X59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="17" t="s">
-        <v>58</v>
+      <c r="Y59" s="17">
+        <v>0</v>
       </c>
       <c r="Z59" s="17">
         <v>0</v>
@@ -7710,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>75</v>
       </c>
@@ -7767,7 +7802,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
         <v>71</v>
       </c>
@@ -7835,8 +7870,8 @@
       <c r="X61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="17" t="s">
-        <v>58</v>
+      <c r="Y61" s="17">
+        <v>0</v>
       </c>
       <c r="Z61" s="17">
         <v>0</v>
@@ -7926,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>76</v>
       </c>
@@ -7983,7 +8018,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>77</v>
       </c>
@@ -8051,8 +8086,8 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>0</v>
@@ -8142,164 +8177,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>127721</v>
+        <v>141012</v>
       </c>
       <c r="F64" s="19">
-        <v>141012</v>
+        <v>185439</v>
       </c>
       <c r="G64" s="19">
-        <v>185439</v>
+        <v>164616</v>
       </c>
       <c r="H64" s="19">
-        <v>164616</v>
+        <v>161490</v>
       </c>
       <c r="I64" s="19">
-        <v>161490</v>
+        <v>179964</v>
       </c>
       <c r="J64" s="19">
-        <v>179964</v>
+        <v>114923</v>
       </c>
       <c r="K64" s="19">
-        <v>114923</v>
+        <v>196586</v>
       </c>
       <c r="L64" s="19">
-        <v>196586</v>
+        <v>161846</v>
       </c>
       <c r="M64" s="19">
-        <v>161846</v>
+        <v>176390</v>
       </c>
       <c r="N64" s="19">
-        <v>176390</v>
+        <v>189653</v>
       </c>
       <c r="O64" s="19">
-        <v>189653</v>
+        <v>198586</v>
       </c>
       <c r="P64" s="19">
-        <v>198586</v>
+        <v>215572</v>
       </c>
       <c r="Q64" s="19">
-        <v>215572</v>
+        <v>205075</v>
       </c>
       <c r="R64" s="19">
-        <v>205075</v>
+        <v>181224</v>
       </c>
       <c r="S64" s="19">
-        <v>181224</v>
+        <v>161680</v>
       </c>
       <c r="T64" s="19">
-        <v>161680</v>
+        <v>194874</v>
       </c>
       <c r="U64" s="19">
-        <v>194874</v>
+        <v>184341</v>
       </c>
       <c r="V64" s="19">
-        <v>184341</v>
+        <v>149146</v>
       </c>
       <c r="W64" s="19">
-        <v>149146</v>
+        <v>265945</v>
       </c>
       <c r="X64" s="19">
-        <v>265945</v>
+        <v>193466</v>
       </c>
       <c r="Y64" s="19">
-        <v>193466</v>
+        <v>274813</v>
       </c>
       <c r="Z64" s="19">
-        <v>274813</v>
+        <v>265550</v>
       </c>
       <c r="AA64" s="19">
-        <v>265550</v>
+        <v>293262</v>
       </c>
       <c r="AB64" s="19">
-        <v>293262</v>
+        <v>231111</v>
       </c>
       <c r="AC64" s="19">
-        <v>231111</v>
+        <v>301316</v>
       </c>
       <c r="AD64" s="19">
-        <v>301316</v>
+        <v>365815</v>
       </c>
       <c r="AE64" s="19">
-        <v>365815</v>
+        <v>411731</v>
       </c>
       <c r="AF64" s="19">
-        <v>411731</v>
+        <v>420424</v>
       </c>
       <c r="AG64" s="19">
-        <v>420424</v>
+        <v>395370</v>
       </c>
       <c r="AH64" s="19">
-        <v>395370</v>
+        <v>260890</v>
       </c>
       <c r="AI64" s="19">
-        <v>260890</v>
+        <v>430237</v>
       </c>
       <c r="AJ64" s="19">
-        <v>430237</v>
+        <v>415201</v>
       </c>
       <c r="AK64" s="19">
-        <v>415201</v>
+        <v>458149</v>
       </c>
       <c r="AL64" s="19">
-        <v>458149</v>
+        <v>398505</v>
       </c>
       <c r="AM64" s="19">
-        <v>398505</v>
+        <v>550104</v>
       </c>
       <c r="AN64" s="19">
-        <v>550104</v>
+        <v>528705</v>
       </c>
       <c r="AO64" s="19">
-        <v>528705</v>
+        <v>657318</v>
       </c>
       <c r="AP64" s="19">
-        <v>657318</v>
+        <v>584716</v>
       </c>
       <c r="AQ64" s="19">
-        <v>584716</v>
+        <v>555405</v>
       </c>
       <c r="AR64" s="19">
-        <v>555405</v>
+        <v>580443</v>
       </c>
       <c r="AS64" s="19">
-        <v>580443</v>
+        <v>538427</v>
       </c>
       <c r="AT64" s="19">
-        <v>538427</v>
+        <v>339613</v>
       </c>
       <c r="AU64" s="19">
-        <v>339613</v>
+        <v>813234</v>
       </c>
       <c r="AV64" s="19">
-        <v>813234</v>
+        <v>1167883</v>
       </c>
       <c r="AW64" s="19">
-        <v>1167883</v>
+        <v>1122958</v>
       </c>
       <c r="AX64" s="19">
-        <v>1122958</v>
+        <v>1118349</v>
       </c>
       <c r="AY64" s="19">
-        <v>1118349</v>
+        <v>1113482</v>
       </c>
       <c r="AZ64" s="19">
-        <v>1113482</v>
+        <v>1114764</v>
       </c>
       <c r="BA64" s="19">
-        <v>1114764</v>
+        <v>1348347</v>
       </c>
       <c r="BB64" s="19">
-        <v>1348347</v>
+        <v>1308884</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8354,7 +8389,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8409,7 +8444,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8464,7 +8499,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>78</v>
       </c>
@@ -8621,7 +8656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8676,7 +8711,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>79</v>
       </c>
@@ -8733,7 +8768,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -8742,157 +8777,157 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>93869374</v>
+        <v>101732034</v>
       </c>
       <c r="F71" s="11">
-        <v>101732034</v>
+        <v>103256068</v>
       </c>
       <c r="G71" s="11">
-        <v>103256068</v>
+        <v>97132075</v>
       </c>
       <c r="H71" s="11">
-        <v>97132075</v>
+        <v>95438263</v>
       </c>
       <c r="I71" s="11">
-        <v>95438263</v>
+        <v>97239199</v>
       </c>
       <c r="J71" s="11">
-        <v>97239199</v>
+        <v>102308989</v>
       </c>
       <c r="K71" s="11">
-        <v>102308989</v>
+        <v>101693407</v>
       </c>
       <c r="L71" s="11">
-        <v>101693407</v>
+        <v>112292781</v>
       </c>
       <c r="M71" s="11">
-        <v>112292781</v>
+        <v>115886731</v>
       </c>
       <c r="N71" s="11">
-        <v>115886731</v>
+        <v>115975322</v>
       </c>
       <c r="O71" s="11">
-        <v>115975322</v>
+        <v>115796480</v>
       </c>
       <c r="P71" s="11">
-        <v>115796480</v>
+        <v>115937835</v>
       </c>
       <c r="Q71" s="11">
-        <v>115937835</v>
+        <v>115974529</v>
       </c>
       <c r="R71" s="11">
-        <v>115974529</v>
+        <v>115869006</v>
       </c>
       <c r="S71" s="11">
-        <v>115869006</v>
+        <v>115796712</v>
       </c>
       <c r="T71" s="11">
-        <v>115796712</v>
+        <v>115894802</v>
       </c>
       <c r="U71" s="11">
-        <v>115894802</v>
+        <v>116005044</v>
       </c>
       <c r="V71" s="11">
-        <v>116005044</v>
+        <v>127685714</v>
       </c>
       <c r="W71" s="11">
-        <v>127685714</v>
+        <v>134732558</v>
       </c>
       <c r="X71" s="11">
-        <v>134732558</v>
+        <v>143414805</v>
       </c>
       <c r="Y71" s="11">
-        <v>143414805</v>
+        <v>149918831</v>
       </c>
       <c r="Z71" s="11">
-        <v>149918831</v>
+        <v>162729358</v>
       </c>
       <c r="AA71" s="11">
-        <v>162729358</v>
+        <v>175974763</v>
       </c>
       <c r="AB71" s="11">
-        <v>175974763</v>
+        <v>193852174</v>
       </c>
       <c r="AC71" s="11">
-        <v>193852174</v>
+        <v>203229873</v>
       </c>
       <c r="AD71" s="11">
-        <v>203229873</v>
+        <v>211308779</v>
       </c>
       <c r="AE71" s="11">
-        <v>211308779</v>
+        <v>204544898</v>
       </c>
       <c r="AF71" s="11">
-        <v>204544898</v>
+        <v>207073395</v>
       </c>
       <c r="AG71" s="11">
-        <v>207073395</v>
+        <v>215275618</v>
       </c>
       <c r="AH71" s="11">
-        <v>215275618</v>
+        <v>215452893</v>
       </c>
       <c r="AI71" s="11">
-        <v>215452893</v>
+        <v>252734694</v>
       </c>
       <c r="AJ71" s="11">
-        <v>252734694</v>
+        <v>258374582</v>
       </c>
       <c r="AK71" s="11">
-        <v>258374582</v>
+        <v>258359184</v>
       </c>
       <c r="AL71" s="11">
-        <v>258359184</v>
+        <v>258490632</v>
       </c>
       <c r="AM71" s="11">
-        <v>258490632</v>
+        <v>263061846</v>
       </c>
       <c r="AN71" s="11">
-        <v>263061846</v>
+        <v>290769317</v>
       </c>
       <c r="AO71" s="11">
-        <v>290769317</v>
+        <v>290593097</v>
       </c>
       <c r="AP71" s="11">
-        <v>290593097</v>
+        <v>290770814</v>
       </c>
       <c r="AQ71" s="11">
-        <v>290770814</v>
+        <v>290533395</v>
       </c>
       <c r="AR71" s="11">
-        <v>290533395</v>
+        <v>295923295</v>
       </c>
       <c r="AS71" s="11">
-        <v>295923295</v>
+        <v>312724895</v>
       </c>
       <c r="AT71" s="11">
-        <v>312724895</v>
+        <v>321364686</v>
       </c>
       <c r="AU71" s="11">
-        <v>321364686</v>
+        <v>456229989</v>
       </c>
       <c r="AV71" s="11">
-        <v>456229989</v>
+        <v>519155515</v>
       </c>
       <c r="AW71" s="11">
-        <v>519155515</v>
+        <v>513434599</v>
       </c>
       <c r="AX71" s="11">
-        <v>513434599</v>
+        <v>541654717</v>
       </c>
       <c r="AY71" s="11">
-        <v>541654717</v>
+        <v>541626692</v>
       </c>
       <c r="AZ71" s="11">
-        <v>541626692</v>
+        <v>542124145</v>
       </c>
       <c r="BA71" s="11">
-        <v>542124145</v>
+        <v>576386282</v>
       </c>
       <c r="BB71" s="11">
-        <v>576386282</v>
+        <v>576214156</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -8901,107 +8936,107 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>60409178</v>
+        <v>60010687</v>
       </c>
       <c r="F72" s="13">
-        <v>60010687</v>
+        <v>74043103</v>
       </c>
       <c r="G72" s="13">
-        <v>74043103</v>
+        <v>81167592</v>
       </c>
       <c r="H72" s="13">
-        <v>81167592</v>
+        <v>72963656</v>
       </c>
       <c r="I72" s="13">
-        <v>72963656</v>
+        <v>72319199</v>
       </c>
       <c r="J72" s="13">
-        <v>72319199</v>
+        <v>77699045</v>
       </c>
       <c r="K72" s="13">
-        <v>77699045</v>
+        <v>84903475</v>
       </c>
       <c r="L72" s="13">
-        <v>84903475</v>
+        <v>93840367</v>
       </c>
       <c r="M72" s="13">
-        <v>93840367</v>
+        <v>88471831</v>
       </c>
       <c r="N72" s="13">
-        <v>88471831</v>
+        <v>89794918</v>
       </c>
       <c r="O72" s="13">
-        <v>89794918</v>
+        <v>90213763</v>
       </c>
       <c r="P72" s="13">
-        <v>90213763</v>
+        <v>86354331</v>
       </c>
       <c r="Q72" s="13">
-        <v>86354331</v>
+        <v>108656805</v>
       </c>
       <c r="R72" s="13">
-        <v>108656805</v>
+        <v>95042017</v>
       </c>
       <c r="S72" s="13">
-        <v>95042017</v>
+        <v>92119548</v>
       </c>
       <c r="T72" s="13">
-        <v>92119548</v>
+        <v>88804569</v>
       </c>
       <c r="U72" s="13">
-        <v>88804569</v>
+        <v>91840782</v>
       </c>
       <c r="V72" s="13">
-        <v>91840782</v>
+        <v>95713741</v>
       </c>
       <c r="W72" s="13">
-        <v>95713741</v>
+        <v>110185053</v>
       </c>
       <c r="X72" s="13">
-        <v>110185053</v>
+        <v>113136449</v>
       </c>
       <c r="Y72" s="13">
-        <v>113136449</v>
+        <v>125265806</v>
       </c>
       <c r="Z72" s="13">
-        <v>125265806</v>
+        <v>133855244</v>
       </c>
       <c r="AA72" s="13">
-        <v>133855244</v>
+        <v>134317910</v>
       </c>
       <c r="AB72" s="13">
-        <v>134317910</v>
+        <v>165040214</v>
       </c>
       <c r="AC72" s="13">
-        <v>165040214</v>
+        <v>150108062</v>
       </c>
       <c r="AD72" s="13">
-        <v>150108062</v>
+        <v>143947368</v>
       </c>
       <c r="AE72" s="13">
-        <v>143947368</v>
+        <v>154664363</v>
       </c>
       <c r="AF72" s="13">
-        <v>154664363</v>
+        <v>163084778</v>
       </c>
       <c r="AG72" s="13">
-        <v>163084778</v>
+        <v>172743372</v>
       </c>
       <c r="AH72" s="13">
-        <v>172743372</v>
+        <v>159191057</v>
       </c>
       <c r="AI72" s="13">
-        <v>159191057</v>
+        <v>178202597</v>
       </c>
       <c r="AJ72" s="13">
-        <v>178202597</v>
+        <v>173775076</v>
       </c>
       <c r="AK72" s="13">
-        <v>173775076</v>
-      </c>
-      <c r="AL72" s="13">
         <v>183614824</v>
       </c>
+      <c r="AL72" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM72" s="13" t="s">
         <v>58</v>
       </c>
@@ -9051,7 +9086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9060,25 +9095,25 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>0</v>
+        <v>96324324</v>
       </c>
       <c r="F73" s="11">
-        <v>96324324</v>
+        <v>92256637</v>
       </c>
       <c r="G73" s="11">
-        <v>92256637</v>
+        <v>91333333</v>
       </c>
       <c r="H73" s="11">
-        <v>91333333</v>
+        <v>93460000</v>
       </c>
       <c r="I73" s="11">
-        <v>93460000</v>
+        <v>91471429</v>
       </c>
       <c r="J73" s="11">
-        <v>91471429</v>
+        <v>94500000</v>
       </c>
       <c r="K73" s="11">
-        <v>94500000</v>
+        <v>0</v>
       </c>
       <c r="L73" s="11">
         <v>0</v>
@@ -9111,17 +9146,17 @@
         <v>0</v>
       </c>
       <c r="V73" s="11">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="W73" s="11">
-        <v>100000000</v>
+        <v>138782609</v>
       </c>
       <c r="X73" s="11">
-        <v>138782609</v>
-      </c>
-      <c r="Y73" s="11">
         <v>71000000</v>
       </c>
+      <c r="Y73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Z73" s="11" t="s">
         <v>58</v>
       </c>
@@ -9134,83 +9169,83 @@
       <c r="AC73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD73" s="11" t="s">
-        <v>58</v>
+      <c r="AD73" s="11">
+        <v>139000000</v>
       </c>
       <c r="AE73" s="11">
-        <v>139000000</v>
+        <v>184309091</v>
       </c>
       <c r="AF73" s="11">
-        <v>184309091</v>
+        <v>184693878</v>
       </c>
       <c r="AG73" s="11">
-        <v>184693878</v>
+        <v>184517857</v>
       </c>
       <c r="AH73" s="11">
-        <v>184517857</v>
+        <v>199052632</v>
       </c>
       <c r="AI73" s="11">
-        <v>199052632</v>
+        <v>229701031</v>
       </c>
       <c r="AJ73" s="11">
-        <v>229701031</v>
+        <v>231200000</v>
       </c>
       <c r="AK73" s="11">
-        <v>231200000</v>
+        <v>225055556</v>
       </c>
       <c r="AL73" s="11">
-        <v>225055556</v>
+        <v>231959459</v>
       </c>
       <c r="AM73" s="11">
-        <v>231959459</v>
+        <v>243763636</v>
       </c>
       <c r="AN73" s="11">
-        <v>243763636</v>
+        <v>266363636</v>
       </c>
       <c r="AO73" s="11">
-        <v>266363636</v>
+        <v>273677419</v>
       </c>
       <c r="AP73" s="11">
-        <v>273677419</v>
+        <v>275418605</v>
       </c>
       <c r="AQ73" s="11">
-        <v>275418605</v>
+        <v>279564103</v>
       </c>
       <c r="AR73" s="11">
-        <v>279564103</v>
+        <v>275315789</v>
       </c>
       <c r="AS73" s="11">
-        <v>275315789</v>
+        <v>277581395</v>
       </c>
       <c r="AT73" s="11">
-        <v>277581395</v>
+        <v>278660377</v>
       </c>
       <c r="AU73" s="11">
-        <v>278660377</v>
+        <v>505317757</v>
       </c>
       <c r="AV73" s="11">
-        <v>505317757</v>
+        <v>645522059</v>
       </c>
       <c r="AW73" s="11">
-        <v>645522059</v>
+        <v>614948718</v>
       </c>
       <c r="AX73" s="11">
-        <v>614948718</v>
+        <v>605433962</v>
       </c>
       <c r="AY73" s="11">
-        <v>605433962</v>
+        <v>608016393</v>
       </c>
       <c r="AZ73" s="11">
-        <v>608016393</v>
+        <v>599011364</v>
       </c>
       <c r="BA73" s="11">
-        <v>599011364</v>
+        <v>605591304</v>
       </c>
       <c r="BB73" s="11">
-        <v>605591304</v>
+        <v>579816327</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>60</v>
       </c>
@@ -9219,157 +9254,157 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>6002328</v>
+        <v>5998489</v>
       </c>
       <c r="F74" s="13">
-        <v>5998489</v>
+        <v>10002960</v>
       </c>
       <c r="G74" s="13">
-        <v>10002960</v>
+        <v>10003836</v>
       </c>
       <c r="H74" s="13">
-        <v>10003836</v>
+        <v>9992371</v>
       </c>
       <c r="I74" s="13">
-        <v>9992371</v>
+        <v>10005279</v>
       </c>
       <c r="J74" s="13">
-        <v>10005279</v>
+        <v>9997992</v>
       </c>
       <c r="K74" s="13">
-        <v>9997992</v>
+        <v>15000000</v>
       </c>
       <c r="L74" s="13">
+        <v>14996518</v>
+      </c>
+      <c r="M74" s="13">
+        <v>14998003</v>
+      </c>
+      <c r="N74" s="13">
         <v>15000000</v>
       </c>
-      <c r="M74" s="13">
-        <v>14996518</v>
-      </c>
-      <c r="N74" s="13">
-        <v>14998003</v>
-      </c>
       <c r="O74" s="13">
-        <v>15000000</v>
+        <v>15003367</v>
       </c>
       <c r="P74" s="13">
-        <v>15003367</v>
+        <v>14932697</v>
       </c>
       <c r="Q74" s="13">
-        <v>14932697</v>
+        <v>15078857</v>
       </c>
       <c r="R74" s="13">
-        <v>15078857</v>
+        <v>14998792</v>
       </c>
       <c r="S74" s="13">
-        <v>14998792</v>
+        <v>14989922</v>
       </c>
       <c r="T74" s="13">
-        <v>14989922</v>
+        <v>15007396</v>
       </c>
       <c r="U74" s="13">
-        <v>15007396</v>
+        <v>15152453</v>
       </c>
       <c r="V74" s="13">
-        <v>15152453</v>
+        <v>18004071</v>
       </c>
       <c r="W74" s="13">
-        <v>18004071</v>
+        <v>18000518</v>
       </c>
       <c r="X74" s="13">
-        <v>18000518</v>
+        <v>17996210</v>
       </c>
       <c r="Y74" s="13">
-        <v>17996210</v>
+        <v>18000945</v>
       </c>
       <c r="Z74" s="13">
-        <v>18000945</v>
+        <v>18001720</v>
       </c>
       <c r="AA74" s="13">
-        <v>18001720</v>
+        <v>17996819</v>
       </c>
       <c r="AB74" s="13">
-        <v>17996819</v>
+        <v>18003145</v>
       </c>
       <c r="AC74" s="13">
-        <v>18003145</v>
+        <v>18004579</v>
       </c>
       <c r="AD74" s="13">
-        <v>18004579</v>
+        <v>17995064</v>
       </c>
       <c r="AE74" s="13">
-        <v>17995064</v>
+        <v>17995551</v>
       </c>
       <c r="AF74" s="13">
-        <v>17995551</v>
+        <v>17994914</v>
       </c>
       <c r="AG74" s="13">
-        <v>17994914</v>
+        <v>18018048</v>
       </c>
       <c r="AH74" s="13">
-        <v>18018048</v>
+        <v>27995249</v>
       </c>
       <c r="AI74" s="13">
-        <v>27995249</v>
+        <v>27997527</v>
       </c>
       <c r="AJ74" s="13">
-        <v>27997527</v>
+        <v>28006904</v>
       </c>
       <c r="AK74" s="13">
-        <v>28006904</v>
+        <v>28001813</v>
       </c>
       <c r="AL74" s="13">
-        <v>28001813</v>
+        <v>27988583</v>
       </c>
       <c r="AM74" s="13">
-        <v>27988583</v>
+        <v>28009341</v>
       </c>
       <c r="AN74" s="13">
-        <v>28009341</v>
+        <v>27991150</v>
       </c>
       <c r="AO74" s="13">
-        <v>27991150</v>
+        <v>28007581</v>
       </c>
       <c r="AP74" s="13">
-        <v>28007581</v>
+        <v>27996782</v>
       </c>
       <c r="AQ74" s="13">
-        <v>27996782</v>
+        <v>28006570</v>
       </c>
       <c r="AR74" s="13">
-        <v>28006570</v>
+        <v>27997907</v>
       </c>
       <c r="AS74" s="13">
-        <v>27997907</v>
+        <v>27994908</v>
       </c>
       <c r="AT74" s="13">
-        <v>27994908</v>
+        <v>41020243</v>
       </c>
       <c r="AU74" s="13">
-        <v>41020243</v>
+        <v>40994805</v>
       </c>
       <c r="AV74" s="13">
-        <v>40994805</v>
+        <v>40991995</v>
       </c>
       <c r="AW74" s="13">
-        <v>40991995</v>
+        <v>40997193</v>
       </c>
       <c r="AX74" s="13">
-        <v>40997193</v>
+        <v>41010638</v>
       </c>
       <c r="AY74" s="13">
-        <v>41010638</v>
+        <v>41009715</v>
       </c>
       <c r="AZ74" s="13">
-        <v>41009715</v>
+        <v>40976978</v>
       </c>
       <c r="BA74" s="13">
-        <v>40976978</v>
+        <v>41005693</v>
       </c>
       <c r="BB74" s="13">
-        <v>41005693</v>
+        <v>41030649</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
@@ -9476,59 +9511,59 @@
       <c r="AK75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL75" s="11" t="s">
-        <v>58</v>
+      <c r="AL75" s="11">
+        <v>162572727</v>
       </c>
       <c r="AM75" s="11">
-        <v>162572727</v>
+        <v>175571429</v>
       </c>
       <c r="AN75" s="11">
-        <v>175571429</v>
+        <v>184207048</v>
       </c>
       <c r="AO75" s="11">
-        <v>184207048</v>
+        <v>187982143</v>
       </c>
       <c r="AP75" s="11">
-        <v>187982143</v>
+        <v>181709030</v>
       </c>
       <c r="AQ75" s="11">
-        <v>181709030</v>
+        <v>179615142</v>
       </c>
       <c r="AR75" s="11">
-        <v>179615142</v>
+        <v>196371212</v>
       </c>
       <c r="AS75" s="11">
-        <v>196371212</v>
+        <v>186388235</v>
       </c>
       <c r="AT75" s="11">
-        <v>186388235</v>
+        <v>182708738</v>
       </c>
       <c r="AU75" s="11">
-        <v>182708738</v>
+        <v>350818182</v>
       </c>
       <c r="AV75" s="11">
-        <v>350818182</v>
+        <v>412710526</v>
       </c>
       <c r="AW75" s="11">
-        <v>412710526</v>
+        <v>444079137</v>
       </c>
       <c r="AX75" s="11">
-        <v>444079137</v>
+        <v>363837963</v>
       </c>
       <c r="AY75" s="11">
-        <v>363837963</v>
+        <v>390149068</v>
       </c>
       <c r="AZ75" s="11">
-        <v>390149068</v>
+        <v>403048077</v>
       </c>
       <c r="BA75" s="11">
-        <v>403048077</v>
+        <v>468412037</v>
       </c>
       <c r="BB75" s="11">
-        <v>468412037</v>
+        <v>469736111</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>62</v>
       </c>
@@ -9537,157 +9572,157 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>100000000</v>
+        <v>150333333</v>
       </c>
       <c r="F76" s="13">
+        <v>160148148</v>
+      </c>
+      <c r="G76" s="13">
+        <v>150476190</v>
+      </c>
+      <c r="H76" s="13">
+        <v>160050000</v>
+      </c>
+      <c r="I76" s="13">
+        <v>156833333</v>
+      </c>
+      <c r="J76" s="13">
+        <v>161666667</v>
+      </c>
+      <c r="K76" s="13">
+        <v>142916667</v>
+      </c>
+      <c r="L76" s="13">
+        <v>173800000</v>
+      </c>
+      <c r="M76" s="13">
+        <v>154125000</v>
+      </c>
+      <c r="N76" s="13">
+        <v>150400000</v>
+      </c>
+      <c r="O76" s="13">
+        <v>129750000</v>
+      </c>
+      <c r="P76" s="13">
         <v>150333333</v>
       </c>
-      <c r="G76" s="13">
-        <v>160148148</v>
-      </c>
-      <c r="H76" s="13">
-        <v>150476190</v>
-      </c>
-      <c r="I76" s="13">
-        <v>160050000</v>
-      </c>
-      <c r="J76" s="13">
-        <v>156833333</v>
-      </c>
-      <c r="K76" s="13">
-        <v>161666667</v>
-      </c>
-      <c r="L76" s="13">
-        <v>142916667</v>
-      </c>
-      <c r="M76" s="13">
-        <v>173800000</v>
-      </c>
-      <c r="N76" s="13">
-        <v>154125000</v>
-      </c>
-      <c r="O76" s="13">
-        <v>150400000</v>
-      </c>
-      <c r="P76" s="13">
-        <v>129750000</v>
-      </c>
       <c r="Q76" s="13">
-        <v>150333333</v>
+        <v>170000000</v>
       </c>
       <c r="R76" s="13">
-        <v>170000000</v>
+        <v>156600000</v>
       </c>
       <c r="S76" s="13">
-        <v>156600000</v>
+        <v>139333333</v>
       </c>
       <c r="T76" s="13">
-        <v>139333333</v>
+        <v>163600000</v>
       </c>
       <c r="U76" s="13">
-        <v>163600000</v>
+        <v>130000000</v>
       </c>
       <c r="V76" s="13">
-        <v>130000000</v>
+        <v>150000000</v>
       </c>
       <c r="W76" s="13">
-        <v>150000000</v>
+        <v>208166667</v>
       </c>
       <c r="X76" s="13">
-        <v>208166667</v>
+        <v>188222222</v>
       </c>
       <c r="Y76" s="13">
-        <v>188222222</v>
+        <v>223400000</v>
       </c>
       <c r="Z76" s="13">
-        <v>223400000</v>
+        <v>204375000</v>
       </c>
       <c r="AA76" s="13">
-        <v>204375000</v>
+        <v>246875000</v>
       </c>
       <c r="AB76" s="13">
-        <v>246875000</v>
+        <v>292857143</v>
       </c>
       <c r="AC76" s="13">
-        <v>292857143</v>
+        <v>327571429</v>
       </c>
       <c r="AD76" s="13">
-        <v>327571429</v>
+        <v>441200000</v>
       </c>
       <c r="AE76" s="13">
-        <v>441200000</v>
+        <v>394400000</v>
       </c>
       <c r="AF76" s="13">
-        <v>394400000</v>
+        <v>399250000</v>
       </c>
       <c r="AG76" s="13">
-        <v>399250000</v>
+        <v>297571429</v>
       </c>
       <c r="AH76" s="13">
-        <v>297571429</v>
+        <v>433250000</v>
       </c>
       <c r="AI76" s="13">
-        <v>433250000</v>
+        <v>370750000</v>
       </c>
       <c r="AJ76" s="13">
-        <v>370750000</v>
+        <v>480750000</v>
       </c>
       <c r="AK76" s="13">
-        <v>480750000</v>
+        <v>431000000</v>
       </c>
       <c r="AL76" s="13">
-        <v>431000000</v>
+        <v>461800000</v>
       </c>
       <c r="AM76" s="13">
-        <v>461800000</v>
+        <v>464333333</v>
       </c>
       <c r="AN76" s="13">
-        <v>464333333</v>
+        <v>478000000</v>
       </c>
       <c r="AO76" s="13">
-        <v>478000000</v>
+        <v>448000000</v>
       </c>
       <c r="AP76" s="13">
-        <v>448000000</v>
+        <v>445857143</v>
       </c>
       <c r="AQ76" s="13">
-        <v>445857143</v>
+        <v>480400000</v>
       </c>
       <c r="AR76" s="13">
-        <v>480400000</v>
+        <v>525750000</v>
       </c>
       <c r="AS76" s="13">
-        <v>525750000</v>
+        <v>621600000</v>
       </c>
       <c r="AT76" s="13">
-        <v>621600000</v>
+        <v>462500000</v>
       </c>
       <c r="AU76" s="13">
-        <v>462500000</v>
+        <v>682500000</v>
       </c>
       <c r="AV76" s="13">
-        <v>682500000</v>
+        <v>793416667</v>
       </c>
       <c r="AW76" s="13">
-        <v>793416667</v>
+        <v>873000000</v>
       </c>
       <c r="AX76" s="13">
-        <v>873000000</v>
+        <v>683400000</v>
       </c>
       <c r="AY76" s="13">
-        <v>683400000</v>
+        <v>880285714</v>
       </c>
       <c r="AZ76" s="13">
-        <v>880285714</v>
+        <v>861400000</v>
       </c>
       <c r="BA76" s="13">
-        <v>861400000</v>
+        <v>852555556</v>
       </c>
       <c r="BB76" s="13">
-        <v>852555556</v>
+        <v>864333333</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
@@ -9794,59 +9829,59 @@
       <c r="AK77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL77" s="11" t="s">
-        <v>58</v>
+      <c r="AL77" s="11">
+        <v>160691765</v>
       </c>
       <c r="AM77" s="11">
-        <v>160691765</v>
+        <v>183213675</v>
       </c>
       <c r="AN77" s="11">
-        <v>183213675</v>
+        <v>197549521</v>
       </c>
       <c r="AO77" s="11">
-        <v>197549521</v>
+        <v>203605536</v>
       </c>
       <c r="AP77" s="11">
-        <v>203605536</v>
+        <v>204370722</v>
       </c>
       <c r="AQ77" s="11">
-        <v>204370722</v>
+        <v>201089054</v>
       </c>
       <c r="AR77" s="11">
-        <v>201089054</v>
+        <v>202562874</v>
       </c>
       <c r="AS77" s="11">
-        <v>202562874</v>
+        <v>203483951</v>
       </c>
       <c r="AT77" s="11">
-        <v>203483951</v>
+        <v>210862944</v>
       </c>
       <c r="AU77" s="11">
-        <v>210862944</v>
+        <v>364757143</v>
       </c>
       <c r="AV77" s="11">
-        <v>364757143</v>
+        <v>469781955</v>
       </c>
       <c r="AW77" s="11">
-        <v>469781955</v>
+        <v>472473492</v>
       </c>
       <c r="AX77" s="11">
-        <v>472473492</v>
+        <v>461146947</v>
       </c>
       <c r="AY77" s="11">
-        <v>461146947</v>
+        <v>455791590</v>
       </c>
       <c r="AZ77" s="11">
-        <v>455791590</v>
+        <v>460926357</v>
       </c>
       <c r="BA77" s="11">
-        <v>460926357</v>
+        <v>548768482</v>
       </c>
       <c r="BB77" s="11">
-        <v>548768482</v>
+        <v>548442006</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
@@ -9959,53 +9994,53 @@
       <c r="AM78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN78" s="13" t="s">
-        <v>58</v>
+      <c r="AN78" s="13">
+        <v>187689655</v>
       </c>
       <c r="AO78" s="13">
-        <v>187689655</v>
+        <v>2000000</v>
       </c>
       <c r="AP78" s="13">
-        <v>2000000</v>
+        <v>207181818</v>
       </c>
       <c r="AQ78" s="13">
-        <v>207181818</v>
+        <v>194900000</v>
       </c>
       <c r="AR78" s="13">
-        <v>194900000</v>
+        <v>207400000</v>
       </c>
       <c r="AS78" s="13">
-        <v>207400000</v>
+        <v>193962963</v>
       </c>
       <c r="AT78" s="13">
-        <v>193962963</v>
-      </c>
-      <c r="AU78" s="13">
         <v>213000000</v>
       </c>
-      <c r="AV78" s="13" t="s">
-        <v>58</v>
+      <c r="AU78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV78" s="13">
+        <v>415065934</v>
       </c>
       <c r="AW78" s="13">
-        <v>415065934</v>
+        <v>406315789</v>
       </c>
       <c r="AX78" s="13">
-        <v>406315789</v>
+        <v>410530612</v>
       </c>
       <c r="AY78" s="13">
-        <v>410530612</v>
+        <v>395312500</v>
       </c>
       <c r="AZ78" s="13">
-        <v>395312500</v>
+        <v>402537037</v>
       </c>
       <c r="BA78" s="13">
-        <v>402537037</v>
+        <v>412312500</v>
       </c>
       <c r="BB78" s="13">
-        <v>412312500</v>
+        <v>419066667</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>65</v>
       </c>
@@ -10112,56 +10147,56 @@
       <c r="AK79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL79" s="11" t="s">
-        <v>58</v>
+      <c r="AL79" s="11">
+        <v>323702128</v>
       </c>
       <c r="AM79" s="11">
-        <v>323702128</v>
+        <v>397982759</v>
       </c>
       <c r="AN79" s="11">
-        <v>397982759</v>
+        <v>396340909</v>
       </c>
       <c r="AO79" s="11">
-        <v>396340909</v>
+        <v>418305556</v>
       </c>
       <c r="AP79" s="11">
-        <v>418305556</v>
-      </c>
-      <c r="AQ79" s="11">
         <v>413275362</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>58</v>
+      <c r="AQ79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79" s="11">
+        <v>387112500</v>
       </c>
       <c r="AS79" s="11">
-        <v>387112500</v>
+        <v>413176471</v>
       </c>
       <c r="AT79" s="11">
-        <v>413176471</v>
+        <v>435444444</v>
       </c>
       <c r="AU79" s="11">
-        <v>435444444</v>
+        <v>570670968</v>
       </c>
       <c r="AV79" s="11">
-        <v>570670968</v>
+        <v>681311927</v>
       </c>
       <c r="AW79" s="11">
-        <v>681311927</v>
+        <v>675009901</v>
       </c>
       <c r="AX79" s="11">
-        <v>675009901</v>
+        <v>651013158</v>
       </c>
       <c r="AY79" s="11">
-        <v>651013158</v>
+        <v>648550505</v>
       </c>
       <c r="AZ79" s="11">
-        <v>648550505</v>
+        <v>649834532</v>
       </c>
       <c r="BA79" s="11">
-        <v>649834532</v>
+        <v>691302521</v>
       </c>
       <c r="BB79" s="11">
-        <v>691302521</v>
+        <v>691239726</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghesalem/product/monthly.xlsx
+++ b/database/industries/ghaza/ghesalem/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693EEE3-897A-4372-B23E-4C2B42903E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86C31A-C90E-47DB-AEDB-40A3B3CE60DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کیک</t>
@@ -745,12 +745,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -805,7 +805,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -974,7 +974,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1421,157 +1421,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="F11" s="11">
-        <v>867</v>
+        <v>759</v>
       </c>
       <c r="G11" s="11">
-        <v>875</v>
+        <v>797</v>
       </c>
       <c r="H11" s="11">
-        <v>759</v>
+        <v>501</v>
       </c>
       <c r="I11" s="11">
-        <v>797</v>
+        <v>928</v>
       </c>
       <c r="J11" s="11">
-        <v>501</v>
+        <v>683</v>
       </c>
       <c r="K11" s="11">
+        <v>922</v>
+      </c>
+      <c r="L11" s="11">
+        <v>943</v>
+      </c>
+      <c r="M11" s="11">
+        <v>899</v>
+      </c>
+      <c r="N11" s="11">
+        <v>949</v>
+      </c>
+      <c r="O11" s="11">
+        <v>891</v>
+      </c>
+      <c r="P11" s="11">
+        <v>904</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>669</v>
+      </c>
+      <c r="R11" s="11">
+        <v>785</v>
+      </c>
+      <c r="S11" s="11">
+        <v>804</v>
+      </c>
+      <c r="T11" s="11">
+        <v>526</v>
+      </c>
+      <c r="U11" s="11">
+        <v>937</v>
+      </c>
+      <c r="V11" s="11">
+        <v>721</v>
+      </c>
+      <c r="W11" s="11">
+        <v>930</v>
+      </c>
+      <c r="X11" s="11">
+        <v>877</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>946</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>821</v>
+      </c>
+      <c r="AA11" s="11">
         <v>928</v>
       </c>
-      <c r="L11" s="11">
-        <v>683</v>
-      </c>
-      <c r="M11" s="11">
-        <v>922</v>
-      </c>
-      <c r="N11" s="11">
-        <v>943</v>
-      </c>
-      <c r="O11" s="11">
-        <v>899</v>
-      </c>
-      <c r="P11" s="11">
-        <v>949</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>891</v>
-      </c>
-      <c r="R11" s="11">
+      <c r="AB11" s="11">
+        <v>1001</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>983</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>972</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>857</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>601</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>910</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>898</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>999</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>879</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>1041</v>
+      </c>
+      <c r="AL11" s="11">
         <v>904</v>
       </c>
-      <c r="S11" s="11">
-        <v>669</v>
-      </c>
-      <c r="T11" s="11">
-        <v>785</v>
-      </c>
-      <c r="U11" s="11">
-        <v>804</v>
-      </c>
-      <c r="V11" s="11">
-        <v>526</v>
-      </c>
-      <c r="W11" s="11">
-        <v>937</v>
-      </c>
-      <c r="X11" s="11">
-        <v>721</v>
-      </c>
-      <c r="Y11" s="11">
+      <c r="AM11" s="11">
+        <v>1088</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>1078</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>1084</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>1051</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>956</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>556</v>
+      </c>
+      <c r="AS11" s="11">
         <v>930</v>
       </c>
-      <c r="Z11" s="11">
-        <v>877</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>946</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>821</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>928</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>1001</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>983</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>972</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>857</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>601</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>910</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>898</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>999</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>879</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>1041</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>904</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>1088</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>1078</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>1084</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>1051</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>956</v>
-      </c>
       <c r="AT11" s="11">
-        <v>556</v>
+        <v>1113</v>
       </c>
       <c r="AU11" s="11">
-        <v>930</v>
+        <v>1169</v>
       </c>
       <c r="AV11" s="11">
-        <v>1113</v>
+        <v>1056</v>
       </c>
       <c r="AW11" s="11">
-        <v>1169</v>
+        <v>1046</v>
       </c>
       <c r="AX11" s="11">
-        <v>1056</v>
+        <v>1011</v>
       </c>
       <c r="AY11" s="11">
-        <v>1046</v>
+        <v>1130</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1011</v>
+        <v>1096</v>
       </c>
       <c r="BA11" s="11">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="BB11" s="11">
-        <v>1096</v>
+        <v>1068</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1580,104 +1580,104 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>611</v>
+        <v>1421</v>
       </c>
       <c r="F12" s="13">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="G12" s="13">
-        <v>1421</v>
+        <v>913</v>
       </c>
       <c r="H12" s="13">
-        <v>892</v>
+        <v>532</v>
       </c>
       <c r="I12" s="13">
-        <v>913</v>
+        <v>807</v>
       </c>
       <c r="J12" s="13">
-        <v>532</v>
+        <v>622</v>
       </c>
       <c r="K12" s="13">
-        <v>807</v>
+        <v>442</v>
       </c>
       <c r="L12" s="13">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="M12" s="13">
-        <v>442</v>
+        <v>617</v>
       </c>
       <c r="N12" s="13">
-        <v>548</v>
+        <v>943</v>
       </c>
       <c r="O12" s="13">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="P12" s="13">
-        <v>943</v>
+        <v>762</v>
       </c>
       <c r="Q12" s="13">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="R12" s="13">
-        <v>762</v>
+        <v>616</v>
       </c>
       <c r="S12" s="13">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="T12" s="13">
-        <v>616</v>
+        <v>431</v>
       </c>
       <c r="U12" s="13">
-        <v>689</v>
+        <v>881</v>
       </c>
       <c r="V12" s="13">
-        <v>431</v>
+        <v>541</v>
       </c>
       <c r="W12" s="13">
-        <v>881</v>
+        <v>790</v>
       </c>
       <c r="X12" s="13">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="Y12" s="13">
-        <v>790</v>
+        <v>749</v>
       </c>
       <c r="Z12" s="13">
-        <v>557</v>
+        <v>321</v>
       </c>
       <c r="AA12" s="13">
-        <v>749</v>
+        <v>612</v>
       </c>
       <c r="AB12" s="13">
-        <v>321</v>
+        <v>839</v>
       </c>
       <c r="AC12" s="13">
-        <v>612</v>
+        <v>1112</v>
       </c>
       <c r="AD12" s="13">
-        <v>839</v>
+        <v>1121</v>
       </c>
       <c r="AE12" s="13">
-        <v>1112</v>
+        <v>814</v>
       </c>
       <c r="AF12" s="13">
-        <v>1121</v>
+        <v>467</v>
       </c>
       <c r="AG12" s="13">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="AH12" s="13">
-        <v>467</v>
+        <v>629</v>
       </c>
       <c r="AI12" s="13">
-        <v>823</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>629</v>
-      </c>
-      <c r="AK12" s="13">
         <v>662</v>
       </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1739,157 +1739,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F13" s="11">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G13" s="11">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="H13" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>2</v>
+      </c>
+      <c r="U13" s="11">
+        <v>70</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11">
         <v>7</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>2</v>
-      </c>
-      <c r="W13" s="11">
-        <v>70</v>
-      </c>
-      <c r="X13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
       <c r="AC13" s="11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AD13" s="11">
+        <v>117</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>109</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>83</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>61</v>
+      </c>
+      <c r="AI13" s="11">
         <v>7</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AJ13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>130</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>103</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>46</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>47</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>74</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>122</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>73</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>84</v>
+      </c>
+      <c r="AX13" s="11">
         <v>110</v>
       </c>
-      <c r="AF13" s="11">
-        <v>117</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>109</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>83</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>100</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>61</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL13" s="11">
+      <c r="AY13" s="11">
+        <v>115</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>87</v>
       </c>
-      <c r="AM13" s="11">
-        <v>130</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>103</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>46</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>47</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>74</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>73</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>84</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>110</v>
-      </c>
       <c r="BA13" s="11">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1898,157 +1898,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1905</v>
+        <v>1140</v>
       </c>
       <c r="F14" s="13">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G14" s="13">
-        <v>1140</v>
+        <v>1673</v>
       </c>
       <c r="H14" s="13">
-        <v>1611</v>
+        <v>1063</v>
       </c>
       <c r="I14" s="13">
-        <v>1673</v>
+        <v>2499</v>
       </c>
       <c r="J14" s="13">
-        <v>1063</v>
+        <v>1881</v>
       </c>
       <c r="K14" s="13">
-        <v>2499</v>
+        <v>2151</v>
       </c>
       <c r="L14" s="13">
-        <v>1881</v>
+        <v>2046</v>
       </c>
       <c r="M14" s="13">
-        <v>2151</v>
+        <v>1955</v>
       </c>
       <c r="N14" s="13">
-        <v>2046</v>
+        <v>2065</v>
       </c>
       <c r="O14" s="13">
-        <v>1955</v>
+        <v>1703</v>
       </c>
       <c r="P14" s="13">
-        <v>2065</v>
+        <v>1796</v>
       </c>
       <c r="Q14" s="13">
-        <v>1703</v>
+        <v>1739</v>
       </c>
       <c r="R14" s="13">
-        <v>1796</v>
+        <v>1866</v>
       </c>
       <c r="S14" s="13">
-        <v>1739</v>
+        <v>1792</v>
       </c>
       <c r="T14" s="13">
-        <v>1866</v>
+        <v>1348</v>
       </c>
       <c r="U14" s="13">
-        <v>1792</v>
+        <v>1898</v>
       </c>
       <c r="V14" s="13">
-        <v>1348</v>
+        <v>1744</v>
       </c>
       <c r="W14" s="13">
-        <v>1898</v>
+        <v>2150</v>
       </c>
       <c r="X14" s="13">
-        <v>1744</v>
+        <v>1805</v>
       </c>
       <c r="Y14" s="13">
-        <v>2150</v>
+        <v>1566</v>
       </c>
       <c r="Z14" s="13">
-        <v>1805</v>
+        <v>544</v>
       </c>
       <c r="AA14" s="13">
-        <v>1566</v>
+        <v>1210</v>
       </c>
       <c r="AB14" s="13">
-        <v>544</v>
+        <v>2007</v>
       </c>
       <c r="AC14" s="13">
-        <v>1210</v>
+        <v>1870</v>
       </c>
       <c r="AD14" s="13">
-        <v>2007</v>
+        <v>1694</v>
       </c>
       <c r="AE14" s="13">
-        <v>1870</v>
+        <v>1474</v>
       </c>
       <c r="AF14" s="13">
-        <v>1694</v>
+        <v>1261</v>
       </c>
       <c r="AG14" s="13">
-        <v>1474</v>
+        <v>1249</v>
       </c>
       <c r="AH14" s="13">
-        <v>1261</v>
+        <v>1717</v>
       </c>
       <c r="AI14" s="13">
-        <v>1249</v>
+        <v>1804</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1717</v>
+        <v>1356</v>
       </c>
       <c r="AK14" s="13">
-        <v>1804</v>
+        <v>1757</v>
       </c>
       <c r="AL14" s="13">
-        <v>1356</v>
+        <v>1308</v>
       </c>
       <c r="AM14" s="13">
-        <v>1757</v>
+        <v>1651</v>
       </c>
       <c r="AN14" s="13">
-        <v>1308</v>
+        <v>1656</v>
       </c>
       <c r="AO14" s="13">
-        <v>1651</v>
+        <v>2623</v>
       </c>
       <c r="AP14" s="13">
+        <v>1931</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>1670</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>636</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>1692</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>1715</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>1742</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AX14" s="13">
         <v>1656</v>
       </c>
-      <c r="AQ14" s="13">
-        <v>2623</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>1931</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>1670</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>636</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>1450</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>1692</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>1715</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>1742</v>
-      </c>
       <c r="AY14" s="13">
-        <v>1625</v>
+        <v>1652</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1656</v>
+        <v>1452</v>
       </c>
       <c r="BA14" s="13">
-        <v>1652</v>
+        <v>1493</v>
       </c>
       <c r="BB14" s="13">
-        <v>1452</v>
+        <v>1483</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2149,65 +2149,65 @@
       <c r="AI15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>58</v>
+      <c r="AJ15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>220</v>
       </c>
       <c r="AL15" s="11">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AM15" s="11">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="AN15" s="11">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="AO15" s="11">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="AP15" s="11">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="AQ15" s="11">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="AR15" s="11">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="AS15" s="11">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AT15" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AU15" s="11">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AV15" s="11">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AW15" s="11">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="AX15" s="11">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AY15" s="11">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="AZ15" s="11">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="BA15" s="11">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="BB15" s="11">
-        <v>97</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2216,49 +2216,49 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G16" s="13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H16" s="13">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I16" s="13">
+        <v>13</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>15</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>10</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
         <v>9</v>
       </c>
-      <c r="J16" s="13">
+      <c r="Q16" s="13">
+        <v>5</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
         <v>9</v>
-      </c>
-      <c r="K16" s="13">
-        <v>13</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <v>15</v>
-      </c>
-      <c r="N16" s="13">
-        <v>1</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13">
-        <v>9</v>
-      </c>
-      <c r="S16" s="13">
-        <v>5</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
@@ -2267,37 +2267,37 @@
         <v>9</v>
       </c>
       <c r="V16" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="13">
         <v>9</v>
       </c>
-      <c r="X16" s="13">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>0</v>
-      </c>
       <c r="Z16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
         <v>8</v>
       </c>
-      <c r="AA16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>14</v>
-      </c>
       <c r="AC16" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="13">
         <v>8</v>
       </c>
       <c r="AE16" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF16" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="13">
         <v>8</v>
@@ -2306,67 +2306,67 @@
         <v>0</v>
       </c>
       <c r="AI16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>14</v>
+      </c>
+      <c r="AM16" s="13">
         <v>8</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>13</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="13">
+      <c r="AN16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="13">
         <v>6</v>
       </c>
-      <c r="AN16" s="13">
-        <v>14</v>
-      </c>
-      <c r="AO16" s="13">
+      <c r="AP16" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>18</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>20</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AZ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="13">
         <v>8</v>
       </c>
-      <c r="AP16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>6</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>12</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>18</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>20</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>9</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>9</v>
-      </c>
       <c r="BB16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2467,65 +2467,65 @@
       <c r="AI17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
+      <c r="AJ17" s="11">
+        <v>478</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>559</v>
       </c>
       <c r="AL17" s="11">
-        <v>478</v>
+        <v>696</v>
       </c>
       <c r="AM17" s="11">
-        <v>559</v>
+        <v>813</v>
       </c>
       <c r="AN17" s="11">
-        <v>696</v>
+        <v>1225</v>
       </c>
       <c r="AO17" s="11">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="11">
-        <v>1225</v>
+        <v>374</v>
       </c>
       <c r="AQ17" s="11">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AR17" s="11">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="AS17" s="11">
-        <v>362</v>
+        <v>587</v>
       </c>
       <c r="AT17" s="11">
-        <v>129</v>
+        <v>693</v>
       </c>
       <c r="AU17" s="11">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="AV17" s="11">
-        <v>693</v>
+        <v>524</v>
       </c>
       <c r="AW17" s="11">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="AX17" s="11">
+        <v>486</v>
+      </c>
+      <c r="AY17" s="11">
         <v>524</v>
       </c>
-      <c r="AY17" s="11">
-        <v>470</v>
-      </c>
       <c r="AZ17" s="11">
-        <v>486</v>
+        <v>755</v>
       </c>
       <c r="BA17" s="11">
-        <v>524</v>
+        <v>438</v>
       </c>
       <c r="BB17" s="11">
-        <v>755</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2626,65 +2626,65 @@
       <c r="AI18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
       </c>
       <c r="AL18" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM18" s="13">
         <v>0</v>
       </c>
       <c r="AN18" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AP18" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ18" s="13">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AR18" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AS18" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="AU18" s="13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AV18" s="13">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AW18" s="13">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AX18" s="13">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="AY18" s="13">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="AZ18" s="13">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BA18" s="13">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="BB18" s="13">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2785,65 +2785,65 @@
       <c r="AI19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>58</v>
+      <c r="AJ19" s="11">
+        <v>95</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>121</v>
       </c>
       <c r="AL19" s="11">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AM19" s="11">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="AN19" s="11">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="11">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="11">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AQ19" s="11">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AR19" s="11">
+        <v>57</v>
+      </c>
+      <c r="AS19" s="11">
         <v>161</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AT19" s="11">
+        <v>136</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>96</v>
+      </c>
+      <c r="AV19" s="11">
         <v>124</v>
       </c>
-      <c r="AT19" s="11">
-        <v>57</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>161</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>136</v>
-      </c>
       <c r="AW19" s="11">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="AX19" s="11">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AY19" s="11">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="AZ19" s="11">
         <v>146</v>
       </c>
       <c r="BA19" s="11">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="BB19" s="11">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="BA20" s="15"/>
       <c r="BB20" s="15"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>67</v>
       </c>
@@ -2960,11 +2960,11 @@
       <c r="V21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>58</v>
+      <c r="W21" s="17">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <v>0</v>
       </c>
       <c r="Y21" s="17">
         <v>0</v>
@@ -3057,164 +3057,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>3404</v>
+        <v>3536</v>
       </c>
       <c r="F22" s="19">
+        <v>3369</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3399</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2105</v>
+      </c>
+      <c r="I22" s="19">
+        <v>4247</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3186</v>
+      </c>
+      <c r="K22" s="19">
+        <v>3530</v>
+      </c>
+      <c r="L22" s="19">
+        <v>3538</v>
+      </c>
+      <c r="M22" s="19">
+        <v>3471</v>
+      </c>
+      <c r="N22" s="19">
+        <v>3967</v>
+      </c>
+      <c r="O22" s="19">
+        <v>3247</v>
+      </c>
+      <c r="P22" s="19">
+        <v>3471</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>3146</v>
+      </c>
+      <c r="R22" s="19">
+        <v>3267</v>
+      </c>
+      <c r="S22" s="19">
+        <v>3294</v>
+      </c>
+      <c r="T22" s="19">
+        <v>2307</v>
+      </c>
+      <c r="U22" s="19">
+        <v>3795</v>
+      </c>
+      <c r="V22" s="19">
+        <v>3017</v>
+      </c>
+      <c r="W22" s="19">
+        <v>3870</v>
+      </c>
+      <c r="X22" s="19">
+        <v>3247</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>3270</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>1700</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>2750</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>3862</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>4077</v>
+      </c>
+      <c r="AD22" s="19">
+        <v>3912</v>
+      </c>
+      <c r="AE22" s="19">
+        <v>3262</v>
+      </c>
+      <c r="AF22" s="19">
+        <v>2412</v>
+      </c>
+      <c r="AG22" s="19">
+        <v>3090</v>
+      </c>
+      <c r="AH22" s="19">
+        <v>3305</v>
+      </c>
+      <c r="AI22" s="19">
+        <v>3485</v>
+      </c>
+      <c r="AJ22" s="19">
+        <v>3086</v>
+      </c>
+      <c r="AK22" s="19">
+        <v>3834</v>
+      </c>
+      <c r="AL22" s="19">
+        <v>3361</v>
+      </c>
+      <c r="AM22" s="19">
+        <v>4120</v>
+      </c>
+      <c r="AN22" s="19">
+        <v>4320</v>
+      </c>
+      <c r="AO22" s="19">
+        <v>3971</v>
+      </c>
+      <c r="AP22" s="19">
+        <v>3892</v>
+      </c>
+      <c r="AQ22" s="19">
+        <v>3298</v>
+      </c>
+      <c r="AR22" s="19">
+        <v>1444</v>
+      </c>
+      <c r="AS22" s="19">
+        <v>3352</v>
+      </c>
+      <c r="AT22" s="19">
+        <v>4144</v>
+      </c>
+      <c r="AU22" s="19">
+        <v>3754</v>
+      </c>
+      <c r="AV22" s="19">
+        <v>3686</v>
+      </c>
+      <c r="AW22" s="19">
+        <v>3643</v>
+      </c>
+      <c r="AX22" s="19">
+        <v>3713</v>
+      </c>
+      <c r="AY22" s="19">
+        <v>3968</v>
+      </c>
+      <c r="AZ22" s="19">
+        <v>3693</v>
+      </c>
+      <c r="BA22" s="19">
         <v>3503</v>
       </c>
-      <c r="G22" s="19">
-        <v>3536</v>
-      </c>
-      <c r="H22" s="19">
-        <v>3369</v>
-      </c>
-      <c r="I22" s="19">
-        <v>3399</v>
-      </c>
-      <c r="J22" s="19">
-        <v>2105</v>
-      </c>
-      <c r="K22" s="19">
-        <v>4247</v>
-      </c>
-      <c r="L22" s="19">
-        <v>3186</v>
-      </c>
-      <c r="M22" s="19">
-        <v>3530</v>
-      </c>
-      <c r="N22" s="19">
-        <v>3538</v>
-      </c>
-      <c r="O22" s="19">
-        <v>3471</v>
-      </c>
-      <c r="P22" s="19">
-        <v>3967</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>3247</v>
-      </c>
-      <c r="R22" s="19">
-        <v>3471</v>
-      </c>
-      <c r="S22" s="19">
-        <v>3146</v>
-      </c>
-      <c r="T22" s="19">
-        <v>3267</v>
-      </c>
-      <c r="U22" s="19">
-        <v>3294</v>
-      </c>
-      <c r="V22" s="19">
-        <v>2307</v>
-      </c>
-      <c r="W22" s="19">
-        <v>3795</v>
-      </c>
-      <c r="X22" s="19">
-        <v>3017</v>
-      </c>
-      <c r="Y22" s="19">
-        <v>3870</v>
-      </c>
-      <c r="Z22" s="19">
-        <v>3247</v>
-      </c>
-      <c r="AA22" s="19">
-        <v>3270</v>
-      </c>
-      <c r="AB22" s="19">
-        <v>1700</v>
-      </c>
-      <c r="AC22" s="19">
-        <v>2750</v>
-      </c>
-      <c r="AD22" s="19">
-        <v>3862</v>
-      </c>
-      <c r="AE22" s="19">
-        <v>4077</v>
-      </c>
-      <c r="AF22" s="19">
-        <v>3912</v>
-      </c>
-      <c r="AG22" s="19">
-        <v>3262</v>
-      </c>
-      <c r="AH22" s="19">
-        <v>2412</v>
-      </c>
-      <c r="AI22" s="19">
-        <v>3090</v>
-      </c>
-      <c r="AJ22" s="19">
-        <v>3305</v>
-      </c>
-      <c r="AK22" s="19">
-        <v>3485</v>
-      </c>
-      <c r="AL22" s="19">
-        <v>3086</v>
-      </c>
-      <c r="AM22" s="19">
-        <v>3834</v>
-      </c>
-      <c r="AN22" s="19">
-        <v>3361</v>
-      </c>
-      <c r="AO22" s="19">
-        <v>4120</v>
-      </c>
-      <c r="AP22" s="19">
-        <v>4320</v>
-      </c>
-      <c r="AQ22" s="19">
-        <v>3971</v>
-      </c>
-      <c r="AR22" s="19">
-        <v>3892</v>
-      </c>
-      <c r="AS22" s="19">
-        <v>3298</v>
-      </c>
-      <c r="AT22" s="19">
-        <v>1444</v>
-      </c>
-      <c r="AU22" s="19">
-        <v>3352</v>
-      </c>
-      <c r="AV22" s="19">
-        <v>4144</v>
-      </c>
-      <c r="AW22" s="19">
-        <v>3754</v>
-      </c>
-      <c r="AX22" s="19">
-        <v>3686</v>
-      </c>
-      <c r="AY22" s="19">
-        <v>3643</v>
-      </c>
-      <c r="AZ22" s="19">
-        <v>3713</v>
-      </c>
-      <c r="BA22" s="19">
-        <v>3968</v>
-      </c>
       <c r="BB22" s="19">
-        <v>3693</v>
+        <v>3236</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3269,7 +3269,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3324,7 +3324,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>69</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
@@ -3657,157 +3657,157 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>821</v>
+        <v>689</v>
       </c>
       <c r="F29" s="11">
-        <v>824</v>
+        <v>737</v>
       </c>
       <c r="G29" s="11">
-        <v>689</v>
+        <v>949</v>
       </c>
       <c r="H29" s="11">
-        <v>737</v>
+        <v>534</v>
       </c>
       <c r="I29" s="11">
-        <v>949</v>
+        <v>910</v>
       </c>
       <c r="J29" s="11">
-        <v>534</v>
+        <v>748</v>
       </c>
       <c r="K29" s="11">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="L29" s="11">
-        <v>748</v>
+        <v>932</v>
       </c>
       <c r="M29" s="11">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="N29" s="11">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O29" s="11">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="P29" s="11">
-        <v>933</v>
+        <v>855</v>
       </c>
       <c r="Q29" s="11">
-        <v>903</v>
+        <v>669</v>
       </c>
       <c r="R29" s="11">
-        <v>855</v>
+        <v>808</v>
       </c>
       <c r="S29" s="11">
-        <v>669</v>
+        <v>793</v>
       </c>
       <c r="T29" s="11">
-        <v>808</v>
+        <v>560</v>
       </c>
       <c r="U29" s="11">
-        <v>793</v>
+        <v>946</v>
       </c>
       <c r="V29" s="11">
-        <v>560</v>
+        <v>716</v>
       </c>
       <c r="W29" s="11">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="X29" s="11">
-        <v>716</v>
+        <v>872</v>
       </c>
       <c r="Y29" s="11">
-        <v>924</v>
+        <v>951</v>
       </c>
       <c r="Z29" s="11">
-        <v>872</v>
+        <v>805</v>
       </c>
       <c r="AA29" s="11">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="AB29" s="11">
-        <v>805</v>
+        <v>991</v>
       </c>
       <c r="AC29" s="11">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="AD29" s="11">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="AE29" s="11">
+        <v>849</v>
+      </c>
+      <c r="AF29" s="11">
+        <v>605</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>931</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>897</v>
+      </c>
+      <c r="AI29" s="11">
         <v>980</v>
       </c>
-      <c r="AF29" s="11">
-        <v>981</v>
-      </c>
-      <c r="AG29" s="11">
-        <v>849</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>605</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>931</v>
-      </c>
       <c r="AJ29" s="11">
-        <v>897</v>
+        <v>854</v>
       </c>
       <c r="AK29" s="11">
-        <v>980</v>
+        <v>1051</v>
       </c>
       <c r="AL29" s="11">
-        <v>854</v>
+        <v>893</v>
       </c>
       <c r="AM29" s="11">
-        <v>1051</v>
+        <v>1101</v>
       </c>
       <c r="AN29" s="11">
-        <v>893</v>
+        <v>1069</v>
       </c>
       <c r="AO29" s="11">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="AP29" s="11">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1078</v>
+        <v>956</v>
       </c>
       <c r="AR29" s="11">
-        <v>1056</v>
+        <v>606</v>
       </c>
       <c r="AS29" s="11">
-        <v>956</v>
+        <v>887</v>
       </c>
       <c r="AT29" s="11">
-        <v>606</v>
+        <v>1106</v>
       </c>
       <c r="AU29" s="11">
-        <v>887</v>
+        <v>1185</v>
       </c>
       <c r="AV29" s="11">
-        <v>1106</v>
+        <v>1060</v>
       </c>
       <c r="AW29" s="11">
-        <v>1185</v>
+        <v>1034</v>
       </c>
       <c r="AX29" s="11">
-        <v>1060</v>
+        <v>1023</v>
       </c>
       <c r="AY29" s="11">
-        <v>1034</v>
+        <v>1108</v>
       </c>
       <c r="AZ29" s="11">
-        <v>1023</v>
+        <v>1102</v>
       </c>
       <c r="BA29" s="11">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="BB29" s="11">
-        <v>1102</v>
+        <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
@@ -3816,104 +3816,104 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>655</v>
+        <v>901</v>
       </c>
       <c r="F30" s="13">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="G30" s="13">
-        <v>901</v>
+        <v>849</v>
       </c>
       <c r="H30" s="13">
-        <v>908</v>
+        <v>628</v>
       </c>
       <c r="I30" s="13">
-        <v>849</v>
+        <v>777</v>
       </c>
       <c r="J30" s="13">
-        <v>628</v>
+        <v>545</v>
       </c>
       <c r="K30" s="13">
-        <v>777</v>
+        <v>426</v>
       </c>
       <c r="L30" s="13">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="M30" s="13">
-        <v>426</v>
+        <v>683</v>
       </c>
       <c r="N30" s="13">
-        <v>551</v>
+        <v>889</v>
       </c>
       <c r="O30" s="13">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="P30" s="13">
-        <v>889</v>
+        <v>595</v>
       </c>
       <c r="Q30" s="13">
-        <v>676</v>
+        <v>619</v>
       </c>
       <c r="R30" s="13">
-        <v>595</v>
+        <v>788</v>
       </c>
       <c r="S30" s="13">
-        <v>619</v>
+        <v>716</v>
       </c>
       <c r="T30" s="13">
-        <v>788</v>
+        <v>524</v>
       </c>
       <c r="U30" s="13">
-        <v>716</v>
+        <v>843</v>
       </c>
       <c r="V30" s="13">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="W30" s="13">
-        <v>843</v>
+        <v>775</v>
       </c>
       <c r="X30" s="13">
-        <v>535</v>
+        <v>677</v>
       </c>
       <c r="Y30" s="13">
-        <v>775</v>
+        <v>670</v>
       </c>
       <c r="Z30" s="13">
-        <v>677</v>
+        <v>373</v>
       </c>
       <c r="AA30" s="13">
-        <v>670</v>
+        <v>583</v>
       </c>
       <c r="AB30" s="13">
-        <v>373</v>
+        <v>817</v>
       </c>
       <c r="AC30" s="13">
-        <v>583</v>
+        <v>1013</v>
       </c>
       <c r="AD30" s="13">
-        <v>817</v>
+        <v>1038</v>
       </c>
       <c r="AE30" s="13">
-        <v>1013</v>
+        <v>943</v>
       </c>
       <c r="AF30" s="13">
-        <v>1038</v>
+        <v>492</v>
       </c>
       <c r="AG30" s="13">
-        <v>943</v>
+        <v>770</v>
       </c>
       <c r="AH30" s="13">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="AI30" s="13">
-        <v>770</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>658</v>
-      </c>
-      <c r="AK30" s="13">
         <v>823</v>
       </c>
+      <c r="AJ30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK30" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL30" s="13" t="s">
         <v>58</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>59</v>
       </c>
@@ -3975,22 +3975,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F31" s="11">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="G31" s="11">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H31" s="11">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I31" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11">
         <v>0</v>
@@ -4020,112 +4020,112 @@
         <v>0</v>
       </c>
       <c r="T31" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" s="11">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="V31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="11">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="X31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="11">
         <v>1</v>
       </c>
-      <c r="Y31" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>0</v>
-      </c>
       <c r="AC31" s="11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AD31" s="11">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="AE31" s="11">
+        <v>112</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>76</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>97</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>80</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>18</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK31" s="11">
         <v>110</v>
       </c>
-      <c r="AF31" s="11">
+      <c r="AL31" s="11">
+        <v>77</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>62</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>43</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>39</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>76</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>86</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>53</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>107</v>
+      </c>
+      <c r="AT31" s="11">
+        <v>136</v>
+      </c>
+      <c r="AU31" s="11">
+        <v>78</v>
+      </c>
+      <c r="AV31" s="11">
+        <v>53</v>
+      </c>
+      <c r="AW31" s="11">
+        <v>61</v>
+      </c>
+      <c r="AX31" s="11">
+        <v>88</v>
+      </c>
+      <c r="AY31" s="11">
+        <v>115</v>
+      </c>
+      <c r="AZ31" s="11">
         <v>98</v>
       </c>
-      <c r="AG31" s="11">
-        <v>112</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>76</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>97</v>
-      </c>
-      <c r="AJ31" s="11">
-        <v>80</v>
-      </c>
-      <c r="AK31" s="11">
-        <v>18</v>
-      </c>
-      <c r="AL31" s="11">
-        <v>74</v>
-      </c>
-      <c r="AM31" s="11">
-        <v>110</v>
-      </c>
-      <c r="AN31" s="11">
-        <v>77</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>62</v>
-      </c>
-      <c r="AP31" s="11">
-        <v>43</v>
-      </c>
-      <c r="AQ31" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>76</v>
-      </c>
-      <c r="AS31" s="11">
-        <v>86</v>
-      </c>
-      <c r="AT31" s="11">
+      <c r="BA31" s="11">
         <v>53</v>
       </c>
-      <c r="AU31" s="11">
-        <v>107</v>
-      </c>
-      <c r="AV31" s="11">
-        <v>136</v>
-      </c>
-      <c r="AW31" s="11">
-        <v>78</v>
-      </c>
-      <c r="AX31" s="11">
-        <v>53</v>
-      </c>
-      <c r="AY31" s="11">
-        <v>61</v>
-      </c>
-      <c r="AZ31" s="11">
-        <v>88</v>
-      </c>
-      <c r="BA31" s="11">
-        <v>115</v>
-      </c>
       <c r="BB31" s="11">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
@@ -4134,157 +4134,157 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>1986</v>
+        <v>1564</v>
       </c>
       <c r="F32" s="13">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="G32" s="13">
-        <v>1564</v>
+        <v>1705</v>
       </c>
       <c r="H32" s="13">
-        <v>1704</v>
+        <v>996</v>
       </c>
       <c r="I32" s="13">
-        <v>1705</v>
+        <v>2424</v>
       </c>
       <c r="J32" s="13">
-        <v>996</v>
+        <v>1723</v>
       </c>
       <c r="K32" s="13">
-        <v>2424</v>
+        <v>2003</v>
       </c>
       <c r="L32" s="13">
-        <v>1723</v>
+        <v>2089</v>
       </c>
       <c r="M32" s="13">
-        <v>2003</v>
+        <v>2079</v>
       </c>
       <c r="N32" s="13">
-        <v>2089</v>
+        <v>1991</v>
       </c>
       <c r="O32" s="13">
-        <v>2079</v>
+        <v>1750</v>
       </c>
       <c r="P32" s="13">
-        <v>1991</v>
+        <v>1655</v>
       </c>
       <c r="Q32" s="13">
-        <v>1750</v>
+        <v>1786</v>
       </c>
       <c r="R32" s="13">
+        <v>2028</v>
+      </c>
+      <c r="S32" s="13">
+        <v>1712</v>
+      </c>
+      <c r="T32" s="13">
+        <v>1474</v>
+      </c>
+      <c r="U32" s="13">
+        <v>1932</v>
+      </c>
+      <c r="V32" s="13">
+        <v>1583</v>
+      </c>
+      <c r="W32" s="13">
+        <v>2116</v>
+      </c>
+      <c r="X32" s="13">
+        <v>1744</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>1886</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>636</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>1092</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>2026</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1798</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>1573</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>1496</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>1263</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>1213</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>1738</v>
+      </c>
+      <c r="AI32" s="13">
         <v>1655</v>
       </c>
-      <c r="S32" s="13">
-        <v>1786</v>
-      </c>
-      <c r="T32" s="13">
-        <v>2028</v>
-      </c>
-      <c r="U32" s="13">
-        <v>1712</v>
-      </c>
-      <c r="V32" s="13">
-        <v>1474</v>
-      </c>
-      <c r="W32" s="13">
-        <v>1932</v>
-      </c>
-      <c r="X32" s="13">
-        <v>1583</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>2116</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>1744</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>1886</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>636</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>1092</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>2026</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>1798</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>1573</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>1496</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>1263</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>1213</v>
-      </c>
       <c r="AJ32" s="13">
-        <v>1738</v>
+        <v>1489</v>
       </c>
       <c r="AK32" s="13">
-        <v>1655</v>
+        <v>1927</v>
       </c>
       <c r="AL32" s="13">
-        <v>1489</v>
+        <v>1356</v>
       </c>
       <c r="AM32" s="13">
-        <v>1927</v>
+        <v>1451</v>
       </c>
       <c r="AN32" s="13">
-        <v>1356</v>
+        <v>2175</v>
       </c>
       <c r="AO32" s="13">
-        <v>1451</v>
+        <v>2131</v>
       </c>
       <c r="AP32" s="13">
-        <v>2175</v>
+        <v>1911</v>
       </c>
       <c r="AQ32" s="13">
-        <v>2131</v>
+        <v>1571</v>
       </c>
       <c r="AR32" s="13">
-        <v>1911</v>
+        <v>988</v>
       </c>
       <c r="AS32" s="13">
-        <v>1571</v>
+        <v>1155</v>
       </c>
       <c r="AT32" s="13">
-        <v>988</v>
+        <v>1749</v>
       </c>
       <c r="AU32" s="13">
-        <v>1155</v>
+        <v>1425</v>
       </c>
       <c r="AV32" s="13">
-        <v>1749</v>
+        <v>1692</v>
       </c>
       <c r="AW32" s="13">
-        <v>1425</v>
+        <v>1544</v>
       </c>
       <c r="AX32" s="13">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AY32" s="13">
-        <v>1544</v>
+        <v>1581</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1694</v>
+        <v>1664</v>
       </c>
       <c r="BA32" s="13">
-        <v>1581</v>
+        <v>1603</v>
       </c>
       <c r="BB32" s="13">
-        <v>1664</v>
+        <v>1222</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
@@ -4385,65 +4385,65 @@
       <c r="AI33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
+      <c r="AJ33" s="11">
+        <v>110</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>217</v>
       </c>
       <c r="AL33" s="11">
+        <v>227</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>224</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>299</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>317</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>132</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>170</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>103</v>
+      </c>
+      <c r="AS33" s="11">
         <v>110</v>
       </c>
-      <c r="AM33" s="11">
-        <v>217</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>227</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>224</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>299</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>317</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>132</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>170</v>
-      </c>
       <c r="AT33" s="11">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="AU33" s="11">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="AV33" s="11">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="AW33" s="11">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AX33" s="11">
+        <v>208</v>
+      </c>
+      <c r="AY33" s="11">
         <v>216</v>
       </c>
-      <c r="AY33" s="11">
-        <v>161</v>
-      </c>
       <c r="AZ33" s="11">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="BA33" s="11">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="BB33" s="11">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
@@ -4452,40 +4452,40 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>21</v>
+      </c>
+      <c r="F34" s="13">
+        <v>20</v>
+      </c>
+      <c r="G34" s="13">
         <v>18</v>
       </c>
-      <c r="F34" s="13">
-        <v>27</v>
-      </c>
-      <c r="G34" s="13">
-        <v>21</v>
-      </c>
       <c r="H34" s="13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I34" s="13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J34" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L34" s="13">
         <v>5</v>
       </c>
       <c r="M34" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N34" s="13">
+        <v>6</v>
+      </c>
+      <c r="O34" s="13">
+        <v>3</v>
+      </c>
+      <c r="P34" s="13">
         <v>5</v>
-      </c>
-      <c r="O34" s="13">
-        <v>4</v>
-      </c>
-      <c r="P34" s="13">
-        <v>6</v>
       </c>
       <c r="Q34" s="13">
         <v>3</v>
@@ -4494,115 +4494,115 @@
         <v>5</v>
       </c>
       <c r="S34" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" s="13">
         <v>5</v>
       </c>
       <c r="U34" s="13">
+        <v>6</v>
+      </c>
+      <c r="V34" s="13">
+        <v>9</v>
+      </c>
+      <c r="W34" s="13">
         <v>5</v>
       </c>
-      <c r="V34" s="13">
+      <c r="X34" s="13">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="13">
         <v>5</v>
       </c>
-      <c r="W34" s="13">
-        <v>6</v>
-      </c>
-      <c r="X34" s="13">
-        <v>9</v>
-      </c>
-      <c r="Y34" s="13">
+      <c r="AC34" s="13">
         <v>5</v>
       </c>
-      <c r="Z34" s="13">
-        <v>8</v>
-      </c>
-      <c r="AA34" s="13">
-        <v>8</v>
-      </c>
-      <c r="AB34" s="13">
+      <c r="AD34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE34" s="13">
         <v>7</v>
-      </c>
-      <c r="AC34" s="13">
-        <v>7</v>
-      </c>
-      <c r="AD34" s="13">
-        <v>5</v>
-      </c>
-      <c r="AE34" s="13">
-        <v>5</v>
       </c>
       <c r="AF34" s="13">
         <v>4</v>
       </c>
       <c r="AG34" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH34" s="13">
         <v>4</v>
       </c>
       <c r="AI34" s="13">
+        <v>8</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>14</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP34" s="13">
         <v>4</v>
-      </c>
-      <c r="AJ34" s="13">
-        <v>4</v>
-      </c>
-      <c r="AK34" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL34" s="13">
-        <v>5</v>
-      </c>
-      <c r="AM34" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>10</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>14</v>
       </c>
       <c r="AQ34" s="13">
         <v>5</v>
       </c>
       <c r="AR34" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>12</v>
+      </c>
+      <c r="AU34" s="13">
         <v>5</v>
       </c>
-      <c r="AT34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AU34" s="13">
-        <v>2</v>
-      </c>
       <c r="AV34" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AW34" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX34" s="13">
         <v>5</v>
       </c>
       <c r="AY34" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ34" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA34" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB34" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>63</v>
       </c>
@@ -4703,65 +4703,65 @@
       <c r="AI35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK35" s="11" t="s">
-        <v>58</v>
+      <c r="AJ35" s="11">
+        <v>425</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>585</v>
       </c>
       <c r="AL35" s="11">
-        <v>425</v>
+        <v>626</v>
       </c>
       <c r="AM35" s="11">
-        <v>585</v>
+        <v>867</v>
       </c>
       <c r="AN35" s="11">
-        <v>626</v>
+        <v>526</v>
       </c>
       <c r="AO35" s="11">
-        <v>867</v>
+        <v>539</v>
       </c>
       <c r="AP35" s="11">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="AQ35" s="11">
-        <v>539</v>
+        <v>405</v>
       </c>
       <c r="AR35" s="11">
-        <v>501</v>
+        <v>197</v>
       </c>
       <c r="AS35" s="11">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="AT35" s="11">
-        <v>197</v>
+        <v>532</v>
       </c>
       <c r="AU35" s="11">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="AV35" s="11">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AW35" s="11">
         <v>547</v>
       </c>
       <c r="AX35" s="11">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AY35" s="11">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="AZ35" s="11">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="BA35" s="11">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="BB35" s="11">
-        <v>638</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>64</v>
       </c>
@@ -4862,65 +4862,65 @@
       <c r="AI36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK36" s="13" t="s">
-        <v>58</v>
+      <c r="AJ36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>0</v>
       </c>
       <c r="AL36" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM36" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AO36" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AP36" s="13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AQ36" s="13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AR36" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AS36" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="13">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="AU36" s="13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AV36" s="13">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AW36" s="13">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AX36" s="13">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AY36" s="13">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AZ36" s="13">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BA36" s="13">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="BB36" s="13">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>65</v>
       </c>
@@ -5021,65 +5021,65 @@
       <c r="AI37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK37" s="11" t="s">
-        <v>58</v>
+      <c r="AJ37" s="11">
+        <v>94</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>116</v>
       </c>
       <c r="AL37" s="11">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AM37" s="11">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="AN37" s="11">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AO37" s="11">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="11">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="AQ37" s="11">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AR37" s="11">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="AS37" s="11">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="AT37" s="11">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AU37" s="11">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AV37" s="11">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AW37" s="11">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="AX37" s="11">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AY37" s="11">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="AZ37" s="11">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BA37" s="11">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="BB37" s="11">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>66</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="BA38" s="15"/>
       <c r="BB38" s="15"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>67</v>
       </c>
@@ -5196,11 +5196,11 @@
       <c r="V39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>58</v>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
       </c>
       <c r="Y39" s="17">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>70</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>71</v>
       </c>
@@ -5410,11 +5410,11 @@
       <c r="V41" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="17" t="s">
-        <v>58</v>
+      <c r="W41" s="17">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
+        <v>0</v>
       </c>
       <c r="Y41" s="17">
         <v>0</v>
@@ -5507,164 +5507,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19">
-        <v>3517</v>
+        <v>3238</v>
       </c>
       <c r="F42" s="19">
-        <v>3581</v>
+        <v>3419</v>
       </c>
       <c r="G42" s="19">
-        <v>3238</v>
+        <v>3591</v>
       </c>
       <c r="H42" s="19">
-        <v>3419</v>
+        <v>2170</v>
       </c>
       <c r="I42" s="19">
-        <v>3591</v>
+        <v>4123</v>
       </c>
       <c r="J42" s="19">
-        <v>2170</v>
+        <v>3021</v>
       </c>
       <c r="K42" s="19">
-        <v>4123</v>
+        <v>3364</v>
       </c>
       <c r="L42" s="19">
-        <v>3021</v>
+        <v>3577</v>
       </c>
       <c r="M42" s="19">
-        <v>3364</v>
+        <v>3675</v>
       </c>
       <c r="N42" s="19">
-        <v>3577</v>
+        <v>3819</v>
       </c>
       <c r="O42" s="19">
-        <v>3675</v>
+        <v>3332</v>
       </c>
       <c r="P42" s="19">
-        <v>3819</v>
+        <v>3110</v>
       </c>
       <c r="Q42" s="19">
-        <v>3332</v>
+        <v>3077</v>
       </c>
       <c r="R42" s="19">
-        <v>3110</v>
+        <v>3629</v>
       </c>
       <c r="S42" s="19">
-        <v>3077</v>
+        <v>3226</v>
       </c>
       <c r="T42" s="19">
-        <v>3629</v>
+        <v>2565</v>
       </c>
       <c r="U42" s="19">
-        <v>3226</v>
+        <v>3796</v>
       </c>
       <c r="V42" s="19">
-        <v>2565</v>
+        <v>2844</v>
       </c>
       <c r="W42" s="19">
-        <v>3796</v>
+        <v>3820</v>
       </c>
       <c r="X42" s="19">
-        <v>2844</v>
+        <v>3301</v>
       </c>
       <c r="Y42" s="19">
-        <v>3820</v>
+        <v>3515</v>
       </c>
       <c r="Z42" s="19">
-        <v>3301</v>
+        <v>1821</v>
       </c>
       <c r="AA42" s="19">
-        <v>3515</v>
+        <v>2626</v>
       </c>
       <c r="AB42" s="19">
-        <v>1821</v>
+        <v>3840</v>
       </c>
       <c r="AC42" s="19">
-        <v>2626</v>
+        <v>3906</v>
       </c>
       <c r="AD42" s="19">
-        <v>3840</v>
+        <v>3694</v>
       </c>
       <c r="AE42" s="19">
-        <v>3906</v>
+        <v>3407</v>
       </c>
       <c r="AF42" s="19">
-        <v>3694</v>
+        <v>2440</v>
       </c>
       <c r="AG42" s="19">
-        <v>3407</v>
+        <v>3015</v>
       </c>
       <c r="AH42" s="19">
-        <v>2440</v>
+        <v>3377</v>
       </c>
       <c r="AI42" s="19">
-        <v>3015</v>
+        <v>3484</v>
       </c>
       <c r="AJ42" s="19">
-        <v>3377</v>
+        <v>3051</v>
       </c>
       <c r="AK42" s="19">
-        <v>3484</v>
+        <v>4009</v>
       </c>
       <c r="AL42" s="19">
-        <v>3051</v>
+        <v>3306</v>
       </c>
       <c r="AM42" s="19">
-        <v>4009</v>
+        <v>3852</v>
       </c>
       <c r="AN42" s="19">
-        <v>3306</v>
+        <v>4217</v>
       </c>
       <c r="AO42" s="19">
-        <v>3852</v>
+        <v>4129</v>
       </c>
       <c r="AP42" s="19">
-        <v>4217</v>
+        <v>3850</v>
       </c>
       <c r="AQ42" s="19">
-        <v>4129</v>
+        <v>3339</v>
       </c>
       <c r="AR42" s="19">
-        <v>3850</v>
+        <v>2016</v>
       </c>
       <c r="AS42" s="19">
-        <v>3339</v>
+        <v>2906</v>
       </c>
       <c r="AT42" s="19">
-        <v>2016</v>
+        <v>3887</v>
       </c>
       <c r="AU42" s="19">
-        <v>2906</v>
+        <v>3518</v>
       </c>
       <c r="AV42" s="19">
-        <v>3887</v>
+        <v>3751</v>
       </c>
       <c r="AW42" s="19">
-        <v>3518</v>
+        <v>3568</v>
       </c>
       <c r="AX42" s="19">
-        <v>3751</v>
+        <v>3727</v>
       </c>
       <c r="AY42" s="19">
-        <v>3568</v>
+        <v>3829</v>
       </c>
       <c r="AZ42" s="19">
-        <v>3727</v>
+        <v>3858</v>
       </c>
       <c r="BA42" s="19">
-        <v>3829</v>
+        <v>3810</v>
       </c>
       <c r="BB42" s="19">
-        <v>3858</v>
+        <v>2874</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5719,7 +5719,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5774,7 +5774,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5829,7 +5829,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>72</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6041,7 +6041,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -6107,157 +6107,157 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>83522</v>
+        <v>66924</v>
       </c>
       <c r="F49" s="11">
-        <v>85083</v>
+        <v>70338</v>
       </c>
       <c r="G49" s="11">
-        <v>66924</v>
+        <v>92280</v>
       </c>
       <c r="H49" s="11">
-        <v>70338</v>
+        <v>54633</v>
       </c>
       <c r="I49" s="11">
-        <v>92280</v>
+        <v>92541</v>
       </c>
       <c r="J49" s="11">
-        <v>54633</v>
+        <v>83995</v>
       </c>
       <c r="K49" s="11">
-        <v>92541</v>
+        <v>107427</v>
       </c>
       <c r="L49" s="11">
-        <v>83995</v>
+        <v>108089</v>
       </c>
       <c r="M49" s="11">
-        <v>107427</v>
+        <v>105259</v>
       </c>
       <c r="N49" s="11">
-        <v>108089</v>
+        <v>108170</v>
       </c>
       <c r="O49" s="11">
-        <v>105259</v>
+        <v>104725</v>
       </c>
       <c r="P49" s="11">
-        <v>108170</v>
+        <v>99068</v>
       </c>
       <c r="Q49" s="11">
-        <v>104725</v>
+        <v>77468</v>
       </c>
       <c r="R49" s="11">
-        <v>99068</v>
+        <v>93643</v>
       </c>
       <c r="S49" s="11">
-        <v>77468</v>
+        <v>91992</v>
       </c>
       <c r="T49" s="11">
-        <v>93643</v>
+        <v>71504</v>
       </c>
       <c r="U49" s="11">
-        <v>91992</v>
+        <v>127457</v>
       </c>
       <c r="V49" s="11">
-        <v>71504</v>
+        <v>102685</v>
       </c>
       <c r="W49" s="11">
-        <v>127457</v>
+        <v>138525</v>
       </c>
       <c r="X49" s="11">
-        <v>102685</v>
+        <v>141900</v>
       </c>
       <c r="Y49" s="11">
-        <v>138525</v>
+        <v>167352</v>
       </c>
       <c r="Z49" s="11">
-        <v>141900</v>
+        <v>156051</v>
       </c>
       <c r="AA49" s="11">
-        <v>167352</v>
+        <v>191849</v>
       </c>
       <c r="AB49" s="11">
-        <v>156051</v>
+        <v>209407</v>
       </c>
       <c r="AC49" s="11">
-        <v>191849</v>
+        <v>200454</v>
       </c>
       <c r="AD49" s="11">
-        <v>209407</v>
+        <v>203139</v>
       </c>
       <c r="AE49" s="11">
-        <v>200454</v>
+        <v>182769</v>
       </c>
       <c r="AF49" s="11">
-        <v>203139</v>
+        <v>130349</v>
       </c>
       <c r="AG49" s="11">
-        <v>182769</v>
+        <v>235296</v>
       </c>
       <c r="AH49" s="11">
-        <v>130349</v>
+        <v>231762</v>
       </c>
       <c r="AI49" s="11">
-        <v>235296</v>
+        <v>253192</v>
       </c>
       <c r="AJ49" s="11">
-        <v>231762</v>
+        <v>220751</v>
       </c>
       <c r="AK49" s="11">
-        <v>253192</v>
+        <v>276478</v>
       </c>
       <c r="AL49" s="11">
-        <v>220751</v>
+        <v>259657</v>
       </c>
       <c r="AM49" s="11">
-        <v>276478</v>
+        <v>319943</v>
       </c>
       <c r="AN49" s="11">
-        <v>259657</v>
+        <v>310834</v>
       </c>
       <c r="AO49" s="11">
-        <v>319943</v>
+        <v>313195</v>
       </c>
       <c r="AP49" s="11">
-        <v>310834</v>
+        <v>312495</v>
       </c>
       <c r="AQ49" s="11">
-        <v>313195</v>
+        <v>298965</v>
       </c>
       <c r="AR49" s="11">
-        <v>312495</v>
+        <v>194747</v>
       </c>
       <c r="AS49" s="11">
-        <v>298965</v>
+        <v>404676</v>
       </c>
       <c r="AT49" s="11">
-        <v>194747</v>
+        <v>574186</v>
       </c>
       <c r="AU49" s="11">
-        <v>404676</v>
+        <v>608420</v>
       </c>
       <c r="AV49" s="11">
-        <v>574186</v>
+        <v>574154</v>
       </c>
       <c r="AW49" s="11">
-        <v>608420</v>
+        <v>560042</v>
       </c>
       <c r="AX49" s="11">
-        <v>574154</v>
+        <v>554593</v>
       </c>
       <c r="AY49" s="11">
-        <v>560042</v>
+        <v>638636</v>
       </c>
       <c r="AZ49" s="11">
-        <v>554593</v>
+        <v>634988</v>
       </c>
       <c r="BA49" s="11">
-        <v>638636</v>
+        <v>644506</v>
       </c>
       <c r="BB49" s="11">
-        <v>634988</v>
+        <v>610105</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
@@ -6266,104 +6266,104 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>39307</v>
+        <v>73132</v>
       </c>
       <c r="F50" s="13">
-        <v>68712</v>
+        <v>66251</v>
       </c>
       <c r="G50" s="13">
-        <v>73132</v>
+        <v>61399</v>
       </c>
       <c r="H50" s="13">
-        <v>66251</v>
+        <v>48795</v>
       </c>
       <c r="I50" s="13">
-        <v>61399</v>
+        <v>65970</v>
       </c>
       <c r="J50" s="13">
-        <v>48795</v>
+        <v>51143</v>
       </c>
       <c r="K50" s="13">
-        <v>65970</v>
+        <v>37689</v>
       </c>
       <c r="L50" s="13">
-        <v>51143</v>
+        <v>49477</v>
       </c>
       <c r="M50" s="13">
-        <v>37689</v>
+        <v>61616</v>
       </c>
       <c r="N50" s="13">
-        <v>49477</v>
+        <v>76769</v>
       </c>
       <c r="O50" s="13">
-        <v>61616</v>
+        <v>73452</v>
       </c>
       <c r="P50" s="13">
-        <v>76769</v>
+        <v>56550</v>
       </c>
       <c r="Q50" s="13">
-        <v>73452</v>
+        <v>57022</v>
       </c>
       <c r="R50" s="13">
-        <v>56550</v>
+        <v>69978</v>
       </c>
       <c r="S50" s="13">
-        <v>57022</v>
+        <v>65758</v>
       </c>
       <c r="T50" s="13">
-        <v>69978</v>
+        <v>50154</v>
       </c>
       <c r="U50" s="13">
-        <v>65758</v>
+        <v>92886</v>
       </c>
       <c r="V50" s="13">
-        <v>50154</v>
+        <v>60528</v>
       </c>
       <c r="W50" s="13">
-        <v>92886</v>
+        <v>97081</v>
       </c>
       <c r="X50" s="13">
-        <v>60528</v>
+        <v>90620</v>
       </c>
       <c r="Y50" s="13">
-        <v>97081</v>
+        <v>89993</v>
       </c>
       <c r="Z50" s="13">
-        <v>90620</v>
+        <v>61560</v>
       </c>
       <c r="AA50" s="13">
-        <v>89993</v>
+        <v>87513</v>
       </c>
       <c r="AB50" s="13">
-        <v>61560</v>
+        <v>117605</v>
       </c>
       <c r="AC50" s="13">
-        <v>87513</v>
+        <v>156675</v>
       </c>
       <c r="AD50" s="13">
-        <v>117605</v>
+        <v>169282</v>
       </c>
       <c r="AE50" s="13">
-        <v>156675</v>
+        <v>162897</v>
       </c>
       <c r="AF50" s="13">
-        <v>169282</v>
+        <v>78322</v>
       </c>
       <c r="AG50" s="13">
-        <v>162897</v>
+        <v>137216</v>
       </c>
       <c r="AH50" s="13">
-        <v>78322</v>
+        <v>114344</v>
       </c>
       <c r="AI50" s="13">
-        <v>137216</v>
-      </c>
-      <c r="AJ50" s="13">
-        <v>114344</v>
-      </c>
-      <c r="AK50" s="13">
         <v>151115</v>
       </c>
+      <c r="AJ50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL50" s="13" t="s">
         <v>58</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>59</v>
       </c>
@@ -6425,22 +6425,22 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>3564</v>
+        <v>5754</v>
       </c>
       <c r="F51" s="11">
-        <v>10425</v>
+        <v>4673</v>
       </c>
       <c r="G51" s="11">
-        <v>5754</v>
+        <v>6403</v>
       </c>
       <c r="H51" s="11">
-        <v>4673</v>
+        <v>567</v>
       </c>
       <c r="I51" s="11">
-        <v>6403</v>
+        <v>0</v>
       </c>
       <c r="J51" s="11">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="K51" s="11">
         <v>0</v>
@@ -6470,19 +6470,19 @@
         <v>0</v>
       </c>
       <c r="T51" s="11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U51" s="11">
-        <v>0</v>
+        <v>9576</v>
       </c>
       <c r="V51" s="11">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="W51" s="11">
-        <v>9576</v>
+        <v>0</v>
       </c>
       <c r="X51" s="11">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
@@ -6494,88 +6494,88 @@
         <v>0</v>
       </c>
       <c r="AB51" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AC51" s="11">
-        <v>0</v>
+        <v>20274</v>
       </c>
       <c r="AD51" s="11">
-        <v>139</v>
+        <v>18100</v>
       </c>
       <c r="AE51" s="11">
-        <v>20274</v>
+        <v>20666</v>
       </c>
       <c r="AF51" s="11">
-        <v>18100</v>
+        <v>15128</v>
       </c>
       <c r="AG51" s="11">
-        <v>20666</v>
+        <v>22281</v>
       </c>
       <c r="AH51" s="11">
-        <v>15128</v>
+        <v>18496</v>
       </c>
       <c r="AI51" s="11">
-        <v>22281</v>
+        <v>4051</v>
       </c>
       <c r="AJ51" s="11">
-        <v>18496</v>
+        <v>17165</v>
       </c>
       <c r="AK51" s="11">
-        <v>4051</v>
+        <v>26814</v>
       </c>
       <c r="AL51" s="11">
-        <v>17165</v>
+        <v>20510</v>
       </c>
       <c r="AM51" s="11">
-        <v>26814</v>
+        <v>16968</v>
       </c>
       <c r="AN51" s="11">
-        <v>20510</v>
+        <v>11843</v>
       </c>
       <c r="AO51" s="11">
-        <v>16968</v>
+        <v>10903</v>
       </c>
       <c r="AP51" s="11">
-        <v>11843</v>
+        <v>20924</v>
       </c>
       <c r="AQ51" s="11">
-        <v>10903</v>
+        <v>23872</v>
       </c>
       <c r="AR51" s="11">
-        <v>20924</v>
+        <v>14769</v>
       </c>
       <c r="AS51" s="11">
-        <v>23872</v>
+        <v>54069</v>
       </c>
       <c r="AT51" s="11">
-        <v>14769</v>
+        <v>87791</v>
       </c>
       <c r="AU51" s="11">
-        <v>54069</v>
+        <v>47966</v>
       </c>
       <c r="AV51" s="11">
-        <v>87791</v>
+        <v>32088</v>
       </c>
       <c r="AW51" s="11">
-        <v>47966</v>
+        <v>37089</v>
       </c>
       <c r="AX51" s="11">
-        <v>32088</v>
+        <v>52713</v>
       </c>
       <c r="AY51" s="11">
-        <v>37089</v>
+        <v>69643</v>
       </c>
       <c r="AZ51" s="11">
-        <v>52713</v>
+        <v>56822</v>
       </c>
       <c r="BA51" s="11">
-        <v>69643</v>
+        <v>30733</v>
       </c>
       <c r="BB51" s="11">
-        <v>56822</v>
+        <v>31303</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>60</v>
       </c>
@@ -6584,157 +6584,157 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>11913</v>
+        <v>15646</v>
       </c>
       <c r="F52" s="13">
-        <v>16895</v>
+        <v>17027</v>
       </c>
       <c r="G52" s="13">
-        <v>15646</v>
+        <v>17059</v>
       </c>
       <c r="H52" s="13">
-        <v>17027</v>
+        <v>9958</v>
       </c>
       <c r="I52" s="13">
-        <v>17059</v>
+        <v>36360</v>
       </c>
       <c r="J52" s="13">
-        <v>9958</v>
+        <v>25839</v>
       </c>
       <c r="K52" s="13">
-        <v>36360</v>
+        <v>30041</v>
       </c>
       <c r="L52" s="13">
-        <v>25839</v>
+        <v>31335</v>
       </c>
       <c r="M52" s="13">
-        <v>30041</v>
+        <v>31192</v>
       </c>
       <c r="N52" s="13">
-        <v>31335</v>
+        <v>29731</v>
       </c>
       <c r="O52" s="13">
-        <v>31192</v>
+        <v>26388</v>
       </c>
       <c r="P52" s="13">
-        <v>29731</v>
+        <v>24823</v>
       </c>
       <c r="Q52" s="13">
-        <v>26388</v>
+        <v>26772</v>
       </c>
       <c r="R52" s="13">
-        <v>24823</v>
+        <v>30435</v>
       </c>
       <c r="S52" s="13">
-        <v>26772</v>
+        <v>25941</v>
       </c>
       <c r="T52" s="13">
-        <v>30435</v>
+        <v>26538</v>
       </c>
       <c r="U52" s="13">
-        <v>25941</v>
+        <v>34777</v>
       </c>
       <c r="V52" s="13">
-        <v>26538</v>
+        <v>28488</v>
       </c>
       <c r="W52" s="13">
-        <v>34777</v>
+        <v>38090</v>
       </c>
       <c r="X52" s="13">
-        <v>28488</v>
+        <v>31395</v>
       </c>
       <c r="Y52" s="13">
-        <v>38090</v>
+        <v>33942</v>
       </c>
       <c r="Z52" s="13">
-        <v>31395</v>
+        <v>11450</v>
       </c>
       <c r="AA52" s="13">
-        <v>33942</v>
+        <v>19661</v>
       </c>
       <c r="AB52" s="13">
-        <v>11450</v>
+        <v>36458</v>
       </c>
       <c r="AC52" s="13">
-        <v>19661</v>
+        <v>32356</v>
       </c>
       <c r="AD52" s="13">
-        <v>36458</v>
+        <v>28306</v>
       </c>
       <c r="AE52" s="13">
-        <v>32356</v>
+        <v>26955</v>
       </c>
       <c r="AF52" s="13">
-        <v>28306</v>
+        <v>35358</v>
       </c>
       <c r="AG52" s="13">
-        <v>26955</v>
+        <v>33961</v>
       </c>
       <c r="AH52" s="13">
-        <v>35358</v>
+        <v>48676</v>
       </c>
       <c r="AI52" s="13">
-        <v>33961</v>
+        <v>46343</v>
       </c>
       <c r="AJ52" s="13">
-        <v>48676</v>
+        <v>41675</v>
       </c>
       <c r="AK52" s="13">
-        <v>46343</v>
+        <v>53974</v>
       </c>
       <c r="AL52" s="13">
-        <v>41675</v>
+        <v>37956</v>
       </c>
       <c r="AM52" s="13">
-        <v>53974</v>
+        <v>40639</v>
       </c>
       <c r="AN52" s="13">
-        <v>37956</v>
+        <v>60893</v>
       </c>
       <c r="AO52" s="13">
-        <v>40639</v>
+        <v>59682</v>
       </c>
       <c r="AP52" s="13">
-        <v>60893</v>
+        <v>53504</v>
       </c>
       <c r="AQ52" s="13">
-        <v>59682</v>
+        <v>43980</v>
       </c>
       <c r="AR52" s="13">
-        <v>53504</v>
+        <v>40528</v>
       </c>
       <c r="AS52" s="13">
-        <v>43980</v>
+        <v>47349</v>
       </c>
       <c r="AT52" s="13">
-        <v>40528</v>
+        <v>71695</v>
       </c>
       <c r="AU52" s="13">
-        <v>47349</v>
+        <v>58421</v>
       </c>
       <c r="AV52" s="13">
-        <v>71695</v>
+        <v>69390</v>
       </c>
       <c r="AW52" s="13">
-        <v>58421</v>
+        <v>63319</v>
       </c>
       <c r="AX52" s="13">
-        <v>69390</v>
+        <v>69415</v>
       </c>
       <c r="AY52" s="13">
-        <v>63319</v>
+        <v>64830</v>
       </c>
       <c r="AZ52" s="13">
-        <v>69415</v>
+        <v>68275</v>
       </c>
       <c r="BA52" s="13">
-        <v>64830</v>
+        <v>65698</v>
       </c>
       <c r="BB52" s="13">
-        <v>68275</v>
+        <v>50097</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>61</v>
       </c>
@@ -6835,65 +6835,65 @@
       <c r="AI53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK53" s="11" t="s">
-        <v>58</v>
+      <c r="AJ53" s="11">
+        <v>17883</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>38099</v>
       </c>
       <c r="AL53" s="11">
-        <v>17883</v>
+        <v>41815</v>
       </c>
       <c r="AM53" s="11">
-        <v>38099</v>
+        <v>42108</v>
       </c>
       <c r="AN53" s="11">
-        <v>41815</v>
+        <v>54331</v>
       </c>
       <c r="AO53" s="11">
-        <v>42108</v>
+        <v>56938</v>
       </c>
       <c r="AP53" s="11">
-        <v>54331</v>
+        <v>25921</v>
       </c>
       <c r="AQ53" s="11">
-        <v>56938</v>
+        <v>31686</v>
       </c>
       <c r="AR53" s="11">
-        <v>25921</v>
+        <v>18819</v>
       </c>
       <c r="AS53" s="11">
-        <v>31686</v>
+        <v>38590</v>
       </c>
       <c r="AT53" s="11">
-        <v>18819</v>
+        <v>62732</v>
       </c>
       <c r="AU53" s="11">
-        <v>38590</v>
+        <v>61727</v>
       </c>
       <c r="AV53" s="11">
-        <v>62732</v>
+        <v>78589</v>
       </c>
       <c r="AW53" s="11">
-        <v>61727</v>
+        <v>62814</v>
       </c>
       <c r="AX53" s="11">
-        <v>78589</v>
+        <v>83834</v>
       </c>
       <c r="AY53" s="11">
-        <v>62814</v>
+        <v>101177</v>
       </c>
       <c r="AZ53" s="11">
-        <v>83834</v>
+        <v>67642</v>
       </c>
       <c r="BA53" s="11">
-        <v>101177</v>
+        <v>76052</v>
       </c>
       <c r="BB53" s="11">
-        <v>67642</v>
+        <v>82419</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
@@ -6902,157 +6902,157 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>2706</v>
+        <v>3160</v>
       </c>
       <c r="F54" s="13">
-        <v>4324</v>
+        <v>3201</v>
       </c>
       <c r="G54" s="13">
-        <v>3160</v>
+        <v>2823</v>
       </c>
       <c r="H54" s="13">
-        <v>3201</v>
+        <v>970</v>
       </c>
       <c r="I54" s="13">
-        <v>2823</v>
+        <v>1715</v>
       </c>
       <c r="J54" s="13">
-        <v>970</v>
+        <v>869</v>
       </c>
       <c r="K54" s="13">
-        <v>1715</v>
+        <v>1233</v>
       </c>
       <c r="L54" s="13">
-        <v>869</v>
+        <v>752</v>
       </c>
       <c r="M54" s="13">
-        <v>1233</v>
+        <v>519</v>
       </c>
       <c r="N54" s="13">
-        <v>752</v>
+        <v>902</v>
       </c>
       <c r="O54" s="13">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P54" s="13">
-        <v>902</v>
+        <v>783</v>
       </c>
       <c r="Q54" s="13">
-        <v>510</v>
+        <v>418</v>
       </c>
       <c r="R54" s="13">
-        <v>783</v>
+        <v>818</v>
       </c>
       <c r="S54" s="13">
-        <v>418</v>
+        <v>650</v>
       </c>
       <c r="T54" s="13">
-        <v>818</v>
+        <v>750</v>
       </c>
       <c r="U54" s="13">
-        <v>650</v>
+        <v>1249</v>
       </c>
       <c r="V54" s="13">
-        <v>750</v>
+        <v>1694</v>
       </c>
       <c r="W54" s="13">
-        <v>1249</v>
+        <v>1117</v>
       </c>
       <c r="X54" s="13">
-        <v>1694</v>
+        <v>1635</v>
       </c>
       <c r="Y54" s="13">
-        <v>1117</v>
+        <v>1975</v>
       </c>
       <c r="Z54" s="13">
-        <v>1635</v>
+        <v>2050</v>
       </c>
       <c r="AA54" s="13">
-        <v>1975</v>
+        <v>2293</v>
       </c>
       <c r="AB54" s="13">
-        <v>2050</v>
+        <v>2206</v>
       </c>
       <c r="AC54" s="13">
-        <v>2293</v>
+        <v>1972</v>
       </c>
       <c r="AD54" s="13">
-        <v>2206</v>
+        <v>1597</v>
       </c>
       <c r="AE54" s="13">
-        <v>1972</v>
+        <v>2083</v>
       </c>
       <c r="AF54" s="13">
-        <v>1597</v>
+        <v>1733</v>
       </c>
       <c r="AG54" s="13">
-        <v>2083</v>
+        <v>1483</v>
       </c>
       <c r="AH54" s="13">
-        <v>1733</v>
+        <v>1923</v>
       </c>
       <c r="AI54" s="13">
-        <v>1483</v>
+        <v>3448</v>
       </c>
       <c r="AJ54" s="13">
-        <v>1923</v>
+        <v>2309</v>
       </c>
       <c r="AK54" s="13">
-        <v>3448</v>
+        <v>1393</v>
       </c>
       <c r="AL54" s="13">
-        <v>2309</v>
+        <v>4780</v>
       </c>
       <c r="AM54" s="13">
-        <v>1393</v>
+        <v>896</v>
       </c>
       <c r="AN54" s="13">
-        <v>4780</v>
+        <v>6242</v>
       </c>
       <c r="AO54" s="13">
-        <v>896</v>
+        <v>2402</v>
       </c>
       <c r="AP54" s="13">
-        <v>6242</v>
+        <v>2103</v>
       </c>
       <c r="AQ54" s="13">
-        <v>2402</v>
+        <v>3108</v>
       </c>
       <c r="AR54" s="13">
-        <v>2103</v>
+        <v>925</v>
       </c>
       <c r="AS54" s="13">
-        <v>3108</v>
+        <v>1365</v>
       </c>
       <c r="AT54" s="13">
-        <v>925</v>
+        <v>9521</v>
       </c>
       <c r="AU54" s="13">
-        <v>1365</v>
+        <v>4365</v>
       </c>
       <c r="AV54" s="13">
-        <v>9521</v>
+        <v>3417</v>
       </c>
       <c r="AW54" s="13">
-        <v>4365</v>
+        <v>6162</v>
       </c>
       <c r="AX54" s="13">
-        <v>3417</v>
+        <v>4307</v>
       </c>
       <c r="AY54" s="13">
-        <v>6162</v>
+        <v>7673</v>
       </c>
       <c r="AZ54" s="13">
-        <v>4307</v>
+        <v>5186</v>
       </c>
       <c r="BA54" s="13">
-        <v>7673</v>
+        <v>8550</v>
       </c>
       <c r="BB54" s="13">
-        <v>5186</v>
+        <v>3366</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7153,65 +7153,65 @@
       <c r="AI55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK55" s="11" t="s">
-        <v>58</v>
+      <c r="AJ55" s="11">
+        <v>68294</v>
+      </c>
+      <c r="AK55" s="11">
+        <v>107180</v>
       </c>
       <c r="AL55" s="11">
-        <v>68294</v>
+        <v>123666</v>
       </c>
       <c r="AM55" s="11">
-        <v>107180</v>
+        <v>176526</v>
       </c>
       <c r="AN55" s="11">
-        <v>123666</v>
+        <v>107499</v>
       </c>
       <c r="AO55" s="11">
-        <v>176526</v>
+        <v>108387</v>
       </c>
       <c r="AP55" s="11">
-        <v>107499</v>
+        <v>101484</v>
       </c>
       <c r="AQ55" s="11">
-        <v>108387</v>
+        <v>82411</v>
       </c>
       <c r="AR55" s="11">
-        <v>101484</v>
+        <v>41540</v>
       </c>
       <c r="AS55" s="11">
-        <v>82411</v>
+        <v>178731</v>
       </c>
       <c r="AT55" s="11">
-        <v>41540</v>
+        <v>249924</v>
       </c>
       <c r="AU55" s="11">
-        <v>178731</v>
+        <v>258443</v>
       </c>
       <c r="AV55" s="11">
-        <v>249924</v>
+        <v>241641</v>
       </c>
       <c r="AW55" s="11">
-        <v>258443</v>
+        <v>249318</v>
       </c>
       <c r="AX55" s="11">
-        <v>241641</v>
+        <v>237838</v>
       </c>
       <c r="AY55" s="11">
-        <v>249318</v>
+        <v>282067</v>
       </c>
       <c r="AZ55" s="11">
-        <v>237838</v>
+        <v>349906</v>
       </c>
       <c r="BA55" s="11">
-        <v>282067</v>
+        <v>312494</v>
       </c>
       <c r="BB55" s="11">
-        <v>349906</v>
+        <v>89202</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7312,65 +7312,65 @@
       <c r="AI56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK56" s="13" t="s">
-        <v>58</v>
+      <c r="AJ56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="13">
+        <v>0</v>
       </c>
       <c r="AL56" s="13">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AM56" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN56" s="13">
-        <v>5443</v>
+        <v>4558</v>
       </c>
       <c r="AO56" s="13">
-        <v>2</v>
+        <v>3898</v>
       </c>
       <c r="AP56" s="13">
-        <v>4558</v>
+        <v>2074</v>
       </c>
       <c r="AQ56" s="13">
-        <v>3898</v>
+        <v>5237</v>
       </c>
       <c r="AR56" s="13">
-        <v>2074</v>
+        <v>852</v>
       </c>
       <c r="AS56" s="13">
-        <v>5237</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="13">
-        <v>852</v>
+        <v>37771</v>
       </c>
       <c r="AU56" s="13">
-        <v>0</v>
+        <v>15440</v>
       </c>
       <c r="AV56" s="13">
-        <v>37771</v>
+        <v>20116</v>
       </c>
       <c r="AW56" s="13">
-        <v>15440</v>
+        <v>6325</v>
       </c>
       <c r="AX56" s="13">
-        <v>20116</v>
+        <v>21737</v>
       </c>
       <c r="AY56" s="13">
-        <v>6325</v>
+        <v>19791</v>
       </c>
       <c r="AZ56" s="13">
-        <v>21737</v>
+        <v>25144</v>
       </c>
       <c r="BA56" s="13">
-        <v>19791</v>
+        <v>29009</v>
       </c>
       <c r="BB56" s="13">
-        <v>25144</v>
+        <v>12877</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7471,65 +7471,65 @@
       <c r="AI57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK57" s="11" t="s">
-        <v>58</v>
+      <c r="AJ57" s="11">
+        <v>30428</v>
+      </c>
+      <c r="AK57" s="11">
+        <v>46166</v>
       </c>
       <c r="AL57" s="11">
-        <v>30428</v>
+        <v>34878</v>
       </c>
       <c r="AM57" s="11">
-        <v>46166</v>
+        <v>60236</v>
       </c>
       <c r="AN57" s="11">
-        <v>34878</v>
+        <v>28516</v>
       </c>
       <c r="AO57" s="11">
-        <v>60236</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="11">
-        <v>28516</v>
+        <v>61938</v>
       </c>
       <c r="AQ57" s="11">
-        <v>0</v>
+        <v>49168</v>
       </c>
       <c r="AR57" s="11">
-        <v>61938</v>
+        <v>27433</v>
       </c>
       <c r="AS57" s="11">
-        <v>49168</v>
+        <v>88454</v>
       </c>
       <c r="AT57" s="11">
-        <v>27433</v>
+        <v>74263</v>
       </c>
       <c r="AU57" s="11">
-        <v>88454</v>
+        <v>68176</v>
       </c>
       <c r="AV57" s="11">
-        <v>74263</v>
+        <v>98954</v>
       </c>
       <c r="AW57" s="11">
-        <v>68176</v>
+        <v>128413</v>
       </c>
       <c r="AX57" s="11">
-        <v>98954</v>
+        <v>90327</v>
       </c>
       <c r="AY57" s="11">
-        <v>128413</v>
+        <v>164530</v>
       </c>
       <c r="AZ57" s="11">
-        <v>90327</v>
+        <v>100921</v>
       </c>
       <c r="BA57" s="11">
-        <v>164530</v>
+        <v>152963</v>
       </c>
       <c r="BB57" s="11">
-        <v>100921</v>
+        <v>114120</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>74</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="BA58" s="15"/>
       <c r="BB58" s="15"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -7648,11 +7648,11 @@
       <c r="V59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="17" t="s">
-        <v>58</v>
+      <c r="W59" s="17">
+        <v>0</v>
+      </c>
+      <c r="X59" s="17">
+        <v>0</v>
       </c>
       <c r="Y59" s="17">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>75</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>71</v>
       </c>
@@ -7864,11 +7864,11 @@
       <c r="V61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>58</v>
+      <c r="W61" s="17">
+        <v>0</v>
+      </c>
+      <c r="X61" s="17">
+        <v>0</v>
       </c>
       <c r="Y61" s="17">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>76</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>77</v>
       </c>
@@ -8080,11 +8080,11 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
         <v>0</v>
@@ -8177,164 +8177,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>141012</v>
+        <v>164616</v>
       </c>
       <c r="F64" s="19">
-        <v>185439</v>
+        <v>161490</v>
       </c>
       <c r="G64" s="19">
-        <v>164616</v>
+        <v>179964</v>
       </c>
       <c r="H64" s="19">
-        <v>161490</v>
+        <v>114923</v>
       </c>
       <c r="I64" s="19">
-        <v>179964</v>
+        <v>196586</v>
       </c>
       <c r="J64" s="19">
-        <v>114923</v>
+        <v>161846</v>
       </c>
       <c r="K64" s="19">
-        <v>196586</v>
+        <v>176390</v>
       </c>
       <c r="L64" s="19">
-        <v>161846</v>
+        <v>189653</v>
       </c>
       <c r="M64" s="19">
-        <v>176390</v>
+        <v>198586</v>
       </c>
       <c r="N64" s="19">
-        <v>189653</v>
+        <v>215572</v>
       </c>
       <c r="O64" s="19">
-        <v>198586</v>
+        <v>205075</v>
       </c>
       <c r="P64" s="19">
-        <v>215572</v>
+        <v>181224</v>
       </c>
       <c r="Q64" s="19">
-        <v>205075</v>
+        <v>161680</v>
       </c>
       <c r="R64" s="19">
-        <v>181224</v>
+        <v>194874</v>
       </c>
       <c r="S64" s="19">
-        <v>161680</v>
+        <v>184341</v>
       </c>
       <c r="T64" s="19">
-        <v>194874</v>
+        <v>149146</v>
       </c>
       <c r="U64" s="19">
-        <v>184341</v>
+        <v>265945</v>
       </c>
       <c r="V64" s="19">
-        <v>149146</v>
+        <v>193466</v>
       </c>
       <c r="W64" s="19">
-        <v>265945</v>
+        <v>274813</v>
       </c>
       <c r="X64" s="19">
-        <v>193466</v>
+        <v>265550</v>
       </c>
       <c r="Y64" s="19">
-        <v>274813</v>
+        <v>293262</v>
       </c>
       <c r="Z64" s="19">
-        <v>265550</v>
+        <v>231111</v>
       </c>
       <c r="AA64" s="19">
-        <v>293262</v>
+        <v>301316</v>
       </c>
       <c r="AB64" s="19">
-        <v>231111</v>
+        <v>365815</v>
       </c>
       <c r="AC64" s="19">
-        <v>301316</v>
+        <v>411731</v>
       </c>
       <c r="AD64" s="19">
-        <v>365815</v>
+        <v>420424</v>
       </c>
       <c r="AE64" s="19">
-        <v>411731</v>
+        <v>395370</v>
       </c>
       <c r="AF64" s="19">
-        <v>420424</v>
+        <v>260890</v>
       </c>
       <c r="AG64" s="19">
-        <v>395370</v>
+        <v>430237</v>
       </c>
       <c r="AH64" s="19">
-        <v>260890</v>
+        <v>415201</v>
       </c>
       <c r="AI64" s="19">
-        <v>430237</v>
+        <v>458149</v>
       </c>
       <c r="AJ64" s="19">
-        <v>415201</v>
+        <v>398505</v>
       </c>
       <c r="AK64" s="19">
-        <v>458149</v>
+        <v>550104</v>
       </c>
       <c r="AL64" s="19">
-        <v>398505</v>
+        <v>528705</v>
       </c>
       <c r="AM64" s="19">
-        <v>550104</v>
+        <v>657318</v>
       </c>
       <c r="AN64" s="19">
-        <v>528705</v>
+        <v>584716</v>
       </c>
       <c r="AO64" s="19">
-        <v>657318</v>
+        <v>555405</v>
       </c>
       <c r="AP64" s="19">
-        <v>584716</v>
+        <v>580443</v>
       </c>
       <c r="AQ64" s="19">
-        <v>555405</v>
+        <v>538427</v>
       </c>
       <c r="AR64" s="19">
-        <v>580443</v>
+        <v>339613</v>
       </c>
       <c r="AS64" s="19">
-        <v>538427</v>
+        <v>813234</v>
       </c>
       <c r="AT64" s="19">
-        <v>339613</v>
+        <v>1167883</v>
       </c>
       <c r="AU64" s="19">
-        <v>813234</v>
+        <v>1122958</v>
       </c>
       <c r="AV64" s="19">
-        <v>1167883</v>
+        <v>1118349</v>
       </c>
       <c r="AW64" s="19">
-        <v>1122958</v>
+        <v>1113482</v>
       </c>
       <c r="AX64" s="19">
-        <v>1118349</v>
+        <v>1114764</v>
       </c>
       <c r="AY64" s="19">
-        <v>1113482</v>
+        <v>1348347</v>
       </c>
       <c r="AZ64" s="19">
-        <v>1114764</v>
+        <v>1308884</v>
       </c>
       <c r="BA64" s="19">
-        <v>1348347</v>
+        <v>1320005</v>
       </c>
       <c r="BB64" s="19">
-        <v>1308884</v>
+        <v>993489</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8389,7 +8389,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8444,7 +8444,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8499,7 +8499,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>78</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8711,7 +8711,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>79</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -8777,157 +8777,157 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>101732034</v>
+        <v>97132075</v>
       </c>
       <c r="F71" s="11">
-        <v>103256068</v>
+        <v>95438263</v>
       </c>
       <c r="G71" s="11">
-        <v>97132075</v>
+        <v>97239199</v>
       </c>
       <c r="H71" s="11">
-        <v>95438263</v>
+        <v>102308989</v>
       </c>
       <c r="I71" s="11">
-        <v>97239199</v>
+        <v>101693407</v>
       </c>
       <c r="J71" s="11">
-        <v>102308989</v>
+        <v>112292781</v>
       </c>
       <c r="K71" s="11">
-        <v>101693407</v>
+        <v>115886731</v>
       </c>
       <c r="L71" s="11">
-        <v>112292781</v>
+        <v>115975322</v>
       </c>
       <c r="M71" s="11">
-        <v>115886731</v>
+        <v>115796480</v>
       </c>
       <c r="N71" s="11">
-        <v>115975322</v>
+        <v>115937835</v>
       </c>
       <c r="O71" s="11">
-        <v>115796480</v>
+        <v>115974529</v>
       </c>
       <c r="P71" s="11">
-        <v>115937835</v>
+        <v>115869006</v>
       </c>
       <c r="Q71" s="11">
-        <v>115974529</v>
+        <v>115796712</v>
       </c>
       <c r="R71" s="11">
-        <v>115869006</v>
+        <v>115894802</v>
       </c>
       <c r="S71" s="11">
-        <v>115796712</v>
+        <v>116005044</v>
       </c>
       <c r="T71" s="11">
-        <v>115894802</v>
+        <v>127685714</v>
       </c>
       <c r="U71" s="11">
-        <v>116005044</v>
+        <v>134732558</v>
       </c>
       <c r="V71" s="11">
-        <v>127685714</v>
+        <v>143414805</v>
       </c>
       <c r="W71" s="11">
-        <v>134732558</v>
+        <v>149918831</v>
       </c>
       <c r="X71" s="11">
-        <v>143414805</v>
+        <v>162729358</v>
       </c>
       <c r="Y71" s="11">
-        <v>149918831</v>
+        <v>175974763</v>
       </c>
       <c r="Z71" s="11">
-        <v>162729358</v>
+        <v>193852174</v>
       </c>
       <c r="AA71" s="11">
-        <v>175974763</v>
+        <v>203229873</v>
       </c>
       <c r="AB71" s="11">
-        <v>193852174</v>
+        <v>211308779</v>
       </c>
       <c r="AC71" s="11">
-        <v>203229873</v>
+        <v>204544898</v>
       </c>
       <c r="AD71" s="11">
-        <v>211308779</v>
+        <v>207073395</v>
       </c>
       <c r="AE71" s="11">
-        <v>204544898</v>
+        <v>215275618</v>
       </c>
       <c r="AF71" s="11">
-        <v>207073395</v>
+        <v>215452893</v>
       </c>
       <c r="AG71" s="11">
-        <v>215275618</v>
+        <v>252734694</v>
       </c>
       <c r="AH71" s="11">
-        <v>215452893</v>
+        <v>258374582</v>
       </c>
       <c r="AI71" s="11">
-        <v>252734694</v>
+        <v>258359184</v>
       </c>
       <c r="AJ71" s="11">
-        <v>258374582</v>
+        <v>258490632</v>
       </c>
       <c r="AK71" s="11">
-        <v>258359184</v>
+        <v>263061846</v>
       </c>
       <c r="AL71" s="11">
-        <v>258490632</v>
+        <v>290769317</v>
       </c>
       <c r="AM71" s="11">
-        <v>263061846</v>
+        <v>290593097</v>
       </c>
       <c r="AN71" s="11">
-        <v>290769317</v>
+        <v>290770814</v>
       </c>
       <c r="AO71" s="11">
-        <v>290593097</v>
+        <v>290533395</v>
       </c>
       <c r="AP71" s="11">
-        <v>290770814</v>
+        <v>295923295</v>
       </c>
       <c r="AQ71" s="11">
-        <v>290533395</v>
+        <v>312724895</v>
       </c>
       <c r="AR71" s="11">
-        <v>295923295</v>
+        <v>321364686</v>
       </c>
       <c r="AS71" s="11">
-        <v>312724895</v>
+        <v>456229989</v>
       </c>
       <c r="AT71" s="11">
-        <v>321364686</v>
+        <v>519155515</v>
       </c>
       <c r="AU71" s="11">
-        <v>456229989</v>
+        <v>513434599</v>
       </c>
       <c r="AV71" s="11">
-        <v>519155515</v>
+        <v>541654717</v>
       </c>
       <c r="AW71" s="11">
-        <v>513434599</v>
+        <v>541626692</v>
       </c>
       <c r="AX71" s="11">
-        <v>541654717</v>
+        <v>542124145</v>
       </c>
       <c r="AY71" s="11">
-        <v>541626692</v>
+        <v>576386282</v>
       </c>
       <c r="AZ71" s="11">
-        <v>542124145</v>
+        <v>576214156</v>
       </c>
       <c r="BA71" s="11">
-        <v>576386282</v>
+        <v>575966041</v>
       </c>
       <c r="BB71" s="11">
-        <v>576214156</v>
+        <v>576114259</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -8936,104 +8936,104 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>60010687</v>
+        <v>81167592</v>
       </c>
       <c r="F72" s="13">
-        <v>74043103</v>
+        <v>72963656</v>
       </c>
       <c r="G72" s="13">
-        <v>81167592</v>
+        <v>72319199</v>
       </c>
       <c r="H72" s="13">
-        <v>72963656</v>
+        <v>77699045</v>
       </c>
       <c r="I72" s="13">
-        <v>72319199</v>
+        <v>84903475</v>
       </c>
       <c r="J72" s="13">
-        <v>77699045</v>
+        <v>93840367</v>
       </c>
       <c r="K72" s="13">
-        <v>84903475</v>
+        <v>88471831</v>
       </c>
       <c r="L72" s="13">
-        <v>93840367</v>
+        <v>89794918</v>
       </c>
       <c r="M72" s="13">
-        <v>88471831</v>
+        <v>90213763</v>
       </c>
       <c r="N72" s="13">
-        <v>89794918</v>
+        <v>86354331</v>
       </c>
       <c r="O72" s="13">
-        <v>90213763</v>
+        <v>108656805</v>
       </c>
       <c r="P72" s="13">
-        <v>86354331</v>
+        <v>95042017</v>
       </c>
       <c r="Q72" s="13">
-        <v>108656805</v>
+        <v>92119548</v>
       </c>
       <c r="R72" s="13">
-        <v>95042017</v>
+        <v>88804569</v>
       </c>
       <c r="S72" s="13">
-        <v>92119548</v>
+        <v>91840782</v>
       </c>
       <c r="T72" s="13">
-        <v>88804569</v>
+        <v>95713741</v>
       </c>
       <c r="U72" s="13">
-        <v>91840782</v>
+        <v>110185053</v>
       </c>
       <c r="V72" s="13">
-        <v>95713741</v>
+        <v>113136449</v>
       </c>
       <c r="W72" s="13">
-        <v>110185053</v>
+        <v>125265806</v>
       </c>
       <c r="X72" s="13">
-        <v>113136449</v>
+        <v>133855244</v>
       </c>
       <c r="Y72" s="13">
-        <v>125265806</v>
+        <v>134317910</v>
       </c>
       <c r="Z72" s="13">
-        <v>133855244</v>
+        <v>165040214</v>
       </c>
       <c r="AA72" s="13">
-        <v>134317910</v>
+        <v>150108062</v>
       </c>
       <c r="AB72" s="13">
-        <v>165040214</v>
+        <v>143947368</v>
       </c>
       <c r="AC72" s="13">
-        <v>150108062</v>
+        <v>154664363</v>
       </c>
       <c r="AD72" s="13">
-        <v>143947368</v>
+        <v>163084778</v>
       </c>
       <c r="AE72" s="13">
-        <v>154664363</v>
+        <v>172743372</v>
       </c>
       <c r="AF72" s="13">
-        <v>163084778</v>
+        <v>159191057</v>
       </c>
       <c r="AG72" s="13">
-        <v>172743372</v>
+        <v>178202597</v>
       </c>
       <c r="AH72" s="13">
-        <v>159191057</v>
+        <v>173775076</v>
       </c>
       <c r="AI72" s="13">
-        <v>178202597</v>
-      </c>
-      <c r="AJ72" s="13">
-        <v>173775076</v>
-      </c>
-      <c r="AK72" s="13">
         <v>183614824</v>
       </c>
+      <c r="AJ72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK72" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL72" s="13" t="s">
         <v>58</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9095,22 +9095,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>96324324</v>
+        <v>91333333</v>
       </c>
       <c r="F73" s="11">
-        <v>92256637</v>
+        <v>93460000</v>
       </c>
       <c r="G73" s="11">
-        <v>91333333</v>
+        <v>91471429</v>
       </c>
       <c r="H73" s="11">
-        <v>93460000</v>
+        <v>94500000</v>
       </c>
       <c r="I73" s="11">
-        <v>91471429</v>
+        <v>0</v>
       </c>
       <c r="J73" s="11">
-        <v>94500000</v>
+        <v>0</v>
       </c>
       <c r="K73" s="11">
         <v>0</v>
@@ -9140,20 +9140,20 @@
         <v>0</v>
       </c>
       <c r="T73" s="11">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="U73" s="11">
-        <v>0</v>
+        <v>138782609</v>
       </c>
       <c r="V73" s="11">
-        <v>100000000</v>
-      </c>
-      <c r="W73" s="11">
-        <v>138782609</v>
-      </c>
-      <c r="X73" s="11">
         <v>71000000</v>
       </c>
+      <c r="W73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Y73" s="11" t="s">
         <v>58</v>
       </c>
@@ -9163,89 +9163,89 @@
       <c r="AA73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC73" s="11" t="s">
-        <v>58</v>
+      <c r="AB73" s="11">
+        <v>139000000</v>
+      </c>
+      <c r="AC73" s="11">
+        <v>184309091</v>
       </c>
       <c r="AD73" s="11">
-        <v>139000000</v>
+        <v>184693878</v>
       </c>
       <c r="AE73" s="11">
-        <v>184309091</v>
+        <v>184517857</v>
       </c>
       <c r="AF73" s="11">
-        <v>184693878</v>
+        <v>199052632</v>
       </c>
       <c r="AG73" s="11">
-        <v>184517857</v>
+        <v>229701031</v>
       </c>
       <c r="AH73" s="11">
-        <v>199052632</v>
+        <v>231200000</v>
       </c>
       <c r="AI73" s="11">
-        <v>229701031</v>
+        <v>225055556</v>
       </c>
       <c r="AJ73" s="11">
-        <v>231200000</v>
+        <v>231959459</v>
       </c>
       <c r="AK73" s="11">
-        <v>225055556</v>
+        <v>243763636</v>
       </c>
       <c r="AL73" s="11">
-        <v>231959459</v>
+        <v>266363636</v>
       </c>
       <c r="AM73" s="11">
-        <v>243763636</v>
+        <v>273677419</v>
       </c>
       <c r="AN73" s="11">
-        <v>266363636</v>
+        <v>275418605</v>
       </c>
       <c r="AO73" s="11">
-        <v>273677419</v>
+        <v>279564103</v>
       </c>
       <c r="AP73" s="11">
-        <v>275418605</v>
+        <v>275315789</v>
       </c>
       <c r="AQ73" s="11">
-        <v>279564103</v>
+        <v>277581395</v>
       </c>
       <c r="AR73" s="11">
-        <v>275315789</v>
+        <v>278660377</v>
       </c>
       <c r="AS73" s="11">
-        <v>277581395</v>
+        <v>505317757</v>
       </c>
       <c r="AT73" s="11">
-        <v>278660377</v>
+        <v>645522059</v>
       </c>
       <c r="AU73" s="11">
-        <v>505317757</v>
+        <v>614948718</v>
       </c>
       <c r="AV73" s="11">
-        <v>645522059</v>
+        <v>605433962</v>
       </c>
       <c r="AW73" s="11">
-        <v>614948718</v>
+        <v>608016393</v>
       </c>
       <c r="AX73" s="11">
-        <v>605433962</v>
+        <v>599011364</v>
       </c>
       <c r="AY73" s="11">
-        <v>608016393</v>
+        <v>605591304</v>
       </c>
       <c r="AZ73" s="11">
-        <v>599011364</v>
+        <v>579816327</v>
       </c>
       <c r="BA73" s="11">
-        <v>605591304</v>
+        <v>579867925</v>
       </c>
       <c r="BB73" s="11">
-        <v>579816327</v>
+        <v>579685185</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>60</v>
       </c>
@@ -9254,157 +9254,157 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>5998489</v>
+        <v>10003836</v>
       </c>
       <c r="F74" s="13">
-        <v>10002960</v>
+        <v>9992371</v>
       </c>
       <c r="G74" s="13">
-        <v>10003836</v>
+        <v>10005279</v>
       </c>
       <c r="H74" s="13">
-        <v>9992371</v>
+        <v>9997992</v>
       </c>
       <c r="I74" s="13">
-        <v>10005279</v>
+        <v>15000000</v>
       </c>
       <c r="J74" s="13">
-        <v>9997992</v>
+        <v>14996518</v>
       </c>
       <c r="K74" s="13">
+        <v>14998003</v>
+      </c>
+      <c r="L74" s="13">
         <v>15000000</v>
       </c>
-      <c r="L74" s="13">
-        <v>14996518</v>
-      </c>
       <c r="M74" s="13">
-        <v>14998003</v>
+        <v>15003367</v>
       </c>
       <c r="N74" s="13">
-        <v>15000000</v>
+        <v>14932697</v>
       </c>
       <c r="O74" s="13">
-        <v>15003367</v>
+        <v>15078857</v>
       </c>
       <c r="P74" s="13">
-        <v>14932697</v>
+        <v>14998792</v>
       </c>
       <c r="Q74" s="13">
-        <v>15078857</v>
+        <v>14989922</v>
       </c>
       <c r="R74" s="13">
-        <v>14998792</v>
+        <v>15007396</v>
       </c>
       <c r="S74" s="13">
-        <v>14989922</v>
+        <v>15152453</v>
       </c>
       <c r="T74" s="13">
-        <v>15007396</v>
+        <v>18004071</v>
       </c>
       <c r="U74" s="13">
-        <v>15152453</v>
+        <v>18000518</v>
       </c>
       <c r="V74" s="13">
-        <v>18004071</v>
+        <v>17996210</v>
       </c>
       <c r="W74" s="13">
-        <v>18000518</v>
+        <v>18000945</v>
       </c>
       <c r="X74" s="13">
-        <v>17996210</v>
+        <v>18001720</v>
       </c>
       <c r="Y74" s="13">
-        <v>18000945</v>
+        <v>17996819</v>
       </c>
       <c r="Z74" s="13">
-        <v>18001720</v>
+        <v>18003145</v>
       </c>
       <c r="AA74" s="13">
-        <v>17996819</v>
+        <v>18004579</v>
       </c>
       <c r="AB74" s="13">
-        <v>18003145</v>
+        <v>17995064</v>
       </c>
       <c r="AC74" s="13">
-        <v>18004579</v>
+        <v>17995551</v>
       </c>
       <c r="AD74" s="13">
-        <v>17995064</v>
+        <v>17994914</v>
       </c>
       <c r="AE74" s="13">
-        <v>17995551</v>
+        <v>18018048</v>
       </c>
       <c r="AF74" s="13">
-        <v>17994914</v>
+        <v>27995249</v>
       </c>
       <c r="AG74" s="13">
-        <v>18018048</v>
+        <v>27997527</v>
       </c>
       <c r="AH74" s="13">
-        <v>27995249</v>
+        <v>28006904</v>
       </c>
       <c r="AI74" s="13">
-        <v>27997527</v>
+        <v>28001813</v>
       </c>
       <c r="AJ74" s="13">
-        <v>28006904</v>
+        <v>27988583</v>
       </c>
       <c r="AK74" s="13">
-        <v>28001813</v>
+        <v>28009341</v>
       </c>
       <c r="AL74" s="13">
-        <v>27988583</v>
+        <v>27991150</v>
       </c>
       <c r="AM74" s="13">
-        <v>28009341</v>
+        <v>28007581</v>
       </c>
       <c r="AN74" s="13">
-        <v>27991150</v>
+        <v>27996782</v>
       </c>
       <c r="AO74" s="13">
-        <v>28007581</v>
+        <v>28006570</v>
       </c>
       <c r="AP74" s="13">
-        <v>27996782</v>
+        <v>27997907</v>
       </c>
       <c r="AQ74" s="13">
-        <v>28006570</v>
+        <v>27994908</v>
       </c>
       <c r="AR74" s="13">
-        <v>27997907</v>
+        <v>41020243</v>
       </c>
       <c r="AS74" s="13">
-        <v>27994908</v>
+        <v>40994805</v>
       </c>
       <c r="AT74" s="13">
-        <v>41020243</v>
+        <v>40991995</v>
       </c>
       <c r="AU74" s="13">
-        <v>40994805</v>
+        <v>40997193</v>
       </c>
       <c r="AV74" s="13">
-        <v>40991995</v>
+        <v>41010638</v>
       </c>
       <c r="AW74" s="13">
-        <v>40997193</v>
+        <v>41009715</v>
       </c>
       <c r="AX74" s="13">
-        <v>41010638</v>
+        <v>40976978</v>
       </c>
       <c r="AY74" s="13">
-        <v>41009715</v>
+        <v>41005693</v>
       </c>
       <c r="AZ74" s="13">
-        <v>40976978</v>
+        <v>41030649</v>
       </c>
       <c r="BA74" s="13">
-        <v>41005693</v>
+        <v>40984404</v>
       </c>
       <c r="BB74" s="13">
-        <v>41030649</v>
+        <v>40995908</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
@@ -9505,65 +9505,65 @@
       <c r="AI75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK75" s="11" t="s">
-        <v>58</v>
+      <c r="AJ75" s="11">
+        <v>162572727</v>
+      </c>
+      <c r="AK75" s="11">
+        <v>175571429</v>
       </c>
       <c r="AL75" s="11">
-        <v>162572727</v>
+        <v>184207048</v>
       </c>
       <c r="AM75" s="11">
-        <v>175571429</v>
+        <v>187982143</v>
       </c>
       <c r="AN75" s="11">
-        <v>184207048</v>
+        <v>181709030</v>
       </c>
       <c r="AO75" s="11">
-        <v>187982143</v>
+        <v>179615142</v>
       </c>
       <c r="AP75" s="11">
-        <v>181709030</v>
+        <v>196371212</v>
       </c>
       <c r="AQ75" s="11">
-        <v>179615142</v>
+        <v>186388235</v>
       </c>
       <c r="AR75" s="11">
-        <v>196371212</v>
+        <v>182708738</v>
       </c>
       <c r="AS75" s="11">
-        <v>186388235</v>
+        <v>350818182</v>
       </c>
       <c r="AT75" s="11">
-        <v>182708738</v>
+        <v>412710526</v>
       </c>
       <c r="AU75" s="11">
-        <v>350818182</v>
+        <v>444079137</v>
       </c>
       <c r="AV75" s="11">
-        <v>412710526</v>
+        <v>363837963</v>
       </c>
       <c r="AW75" s="11">
-        <v>444079137</v>
+        <v>390149068</v>
       </c>
       <c r="AX75" s="11">
-        <v>363837963</v>
+        <v>403048077</v>
       </c>
       <c r="AY75" s="11">
-        <v>390149068</v>
+        <v>468412037</v>
       </c>
       <c r="AZ75" s="11">
-        <v>403048077</v>
+        <v>469736111</v>
       </c>
       <c r="BA75" s="11">
-        <v>468412037</v>
+        <v>478314465</v>
       </c>
       <c r="BB75" s="11">
-        <v>469736111</v>
+        <v>465644068</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>62</v>
       </c>
@@ -9572,157 +9572,157 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
+        <v>150476190</v>
+      </c>
+      <c r="F76" s="13">
+        <v>160050000</v>
+      </c>
+      <c r="G76" s="13">
+        <v>156833333</v>
+      </c>
+      <c r="H76" s="13">
+        <v>161666667</v>
+      </c>
+      <c r="I76" s="13">
+        <v>142916667</v>
+      </c>
+      <c r="J76" s="13">
+        <v>173800000</v>
+      </c>
+      <c r="K76" s="13">
+        <v>154125000</v>
+      </c>
+      <c r="L76" s="13">
+        <v>150400000</v>
+      </c>
+      <c r="M76" s="13">
+        <v>129750000</v>
+      </c>
+      <c r="N76" s="13">
         <v>150333333</v>
       </c>
-      <c r="F76" s="13">
-        <v>160148148</v>
-      </c>
-      <c r="G76" s="13">
-        <v>150476190</v>
-      </c>
-      <c r="H76" s="13">
-        <v>160050000</v>
-      </c>
-      <c r="I76" s="13">
-        <v>156833333</v>
-      </c>
-      <c r="J76" s="13">
-        <v>161666667</v>
-      </c>
-      <c r="K76" s="13">
-        <v>142916667</v>
-      </c>
-      <c r="L76" s="13">
-        <v>173800000</v>
-      </c>
-      <c r="M76" s="13">
-        <v>154125000</v>
-      </c>
-      <c r="N76" s="13">
-        <v>150400000</v>
-      </c>
       <c r="O76" s="13">
-        <v>129750000</v>
+        <v>170000000</v>
       </c>
       <c r="P76" s="13">
-        <v>150333333</v>
+        <v>156600000</v>
       </c>
       <c r="Q76" s="13">
-        <v>170000000</v>
+        <v>139333333</v>
       </c>
       <c r="R76" s="13">
-        <v>156600000</v>
+        <v>163600000</v>
       </c>
       <c r="S76" s="13">
-        <v>139333333</v>
+        <v>130000000</v>
       </c>
       <c r="T76" s="13">
-        <v>163600000</v>
+        <v>150000000</v>
       </c>
       <c r="U76" s="13">
-        <v>130000000</v>
+        <v>208166667</v>
       </c>
       <c r="V76" s="13">
-        <v>150000000</v>
+        <v>188222222</v>
       </c>
       <c r="W76" s="13">
-        <v>208166667</v>
+        <v>223400000</v>
       </c>
       <c r="X76" s="13">
-        <v>188222222</v>
+        <v>204375000</v>
       </c>
       <c r="Y76" s="13">
-        <v>223400000</v>
+        <v>246875000</v>
       </c>
       <c r="Z76" s="13">
-        <v>204375000</v>
+        <v>292857143</v>
       </c>
       <c r="AA76" s="13">
-        <v>246875000</v>
+        <v>327571429</v>
       </c>
       <c r="AB76" s="13">
-        <v>292857143</v>
+        <v>441200000</v>
       </c>
       <c r="AC76" s="13">
-        <v>327571429</v>
+        <v>394400000</v>
       </c>
       <c r="AD76" s="13">
-        <v>441200000</v>
+        <v>399250000</v>
       </c>
       <c r="AE76" s="13">
-        <v>394400000</v>
+        <v>297571429</v>
       </c>
       <c r="AF76" s="13">
-        <v>399250000</v>
+        <v>433250000</v>
       </c>
       <c r="AG76" s="13">
-        <v>297571429</v>
+        <v>370750000</v>
       </c>
       <c r="AH76" s="13">
-        <v>433250000</v>
+        <v>480750000</v>
       </c>
       <c r="AI76" s="13">
-        <v>370750000</v>
+        <v>431000000</v>
       </c>
       <c r="AJ76" s="13">
-        <v>480750000</v>
+        <v>461800000</v>
       </c>
       <c r="AK76" s="13">
-        <v>431000000</v>
+        <v>464333333</v>
       </c>
       <c r="AL76" s="13">
-        <v>461800000</v>
+        <v>478000000</v>
       </c>
       <c r="AM76" s="13">
-        <v>464333333</v>
+        <v>448000000</v>
       </c>
       <c r="AN76" s="13">
-        <v>478000000</v>
+        <v>445857143</v>
       </c>
       <c r="AO76" s="13">
-        <v>448000000</v>
+        <v>480400000</v>
       </c>
       <c r="AP76" s="13">
-        <v>445857143</v>
+        <v>525750000</v>
       </c>
       <c r="AQ76" s="13">
-        <v>480400000</v>
+        <v>621600000</v>
       </c>
       <c r="AR76" s="13">
-        <v>525750000</v>
+        <v>462500000</v>
       </c>
       <c r="AS76" s="13">
-        <v>621600000</v>
+        <v>682500000</v>
       </c>
       <c r="AT76" s="13">
-        <v>462500000</v>
+        <v>793416667</v>
       </c>
       <c r="AU76" s="13">
-        <v>682500000</v>
+        <v>873000000</v>
       </c>
       <c r="AV76" s="13">
-        <v>793416667</v>
+        <v>683400000</v>
       </c>
       <c r="AW76" s="13">
-        <v>873000000</v>
+        <v>880285714</v>
       </c>
       <c r="AX76" s="13">
-        <v>683400000</v>
+        <v>861400000</v>
       </c>
       <c r="AY76" s="13">
-        <v>880285714</v>
+        <v>852555556</v>
       </c>
       <c r="AZ76" s="13">
-        <v>861400000</v>
+        <v>864333333</v>
       </c>
       <c r="BA76" s="13">
-        <v>852555556</v>
+        <v>855000000</v>
       </c>
       <c r="BB76" s="13">
-        <v>864333333</v>
+        <v>841500000</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
@@ -9823,65 +9823,65 @@
       <c r="AI77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK77" s="11" t="s">
-        <v>58</v>
+      <c r="AJ77" s="11">
+        <v>160691765</v>
+      </c>
+      <c r="AK77" s="11">
+        <v>183213675</v>
       </c>
       <c r="AL77" s="11">
-        <v>160691765</v>
+        <v>197549521</v>
       </c>
       <c r="AM77" s="11">
-        <v>183213675</v>
+        <v>203605536</v>
       </c>
       <c r="AN77" s="11">
-        <v>197549521</v>
+        <v>204370722</v>
       </c>
       <c r="AO77" s="11">
-        <v>203605536</v>
+        <v>201089054</v>
       </c>
       <c r="AP77" s="11">
-        <v>204370722</v>
+        <v>202562874</v>
       </c>
       <c r="AQ77" s="11">
-        <v>201089054</v>
+        <v>203483951</v>
       </c>
       <c r="AR77" s="11">
-        <v>202562874</v>
+        <v>210862944</v>
       </c>
       <c r="AS77" s="11">
-        <v>203483951</v>
+        <v>364757143</v>
       </c>
       <c r="AT77" s="11">
-        <v>210862944</v>
+        <v>469781955</v>
       </c>
       <c r="AU77" s="11">
-        <v>364757143</v>
+        <v>472473492</v>
       </c>
       <c r="AV77" s="11">
-        <v>469781955</v>
+        <v>461146947</v>
       </c>
       <c r="AW77" s="11">
-        <v>472473492</v>
+        <v>455791590</v>
       </c>
       <c r="AX77" s="11">
-        <v>461146947</v>
+        <v>460926357</v>
       </c>
       <c r="AY77" s="11">
-        <v>455791590</v>
+        <v>548768482</v>
       </c>
       <c r="AZ77" s="11">
-        <v>460926357</v>
+        <v>548442006</v>
       </c>
       <c r="BA77" s="11">
-        <v>548768482</v>
+        <v>544414634</v>
       </c>
       <c r="BB77" s="11">
-        <v>548442006</v>
+        <v>550629630</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
@@ -9988,59 +9988,59 @@
       <c r="AK78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM78" s="13" t="s">
-        <v>58</v>
+      <c r="AL78" s="13">
+        <v>187689655</v>
+      </c>
+      <c r="AM78" s="13">
+        <v>2000000</v>
       </c>
       <c r="AN78" s="13">
-        <v>187689655</v>
+        <v>207181818</v>
       </c>
       <c r="AO78" s="13">
-        <v>2000000</v>
+        <v>194900000</v>
       </c>
       <c r="AP78" s="13">
-        <v>207181818</v>
+        <v>207400000</v>
       </c>
       <c r="AQ78" s="13">
-        <v>194900000</v>
+        <v>193962963</v>
       </c>
       <c r="AR78" s="13">
-        <v>207400000</v>
-      </c>
-      <c r="AS78" s="13">
-        <v>193962963</v>
+        <v>213000000</v>
+      </c>
+      <c r="AS78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT78" s="13">
-        <v>213000000</v>
-      </c>
-      <c r="AU78" s="13" t="s">
-        <v>58</v>
+        <v>415065934</v>
+      </c>
+      <c r="AU78" s="13">
+        <v>406315789</v>
       </c>
       <c r="AV78" s="13">
-        <v>415065934</v>
+        <v>410530612</v>
       </c>
       <c r="AW78" s="13">
-        <v>406315789</v>
+        <v>395312500</v>
       </c>
       <c r="AX78" s="13">
-        <v>410530612</v>
+        <v>402537037</v>
       </c>
       <c r="AY78" s="13">
-        <v>395312500</v>
+        <v>412312500</v>
       </c>
       <c r="AZ78" s="13">
-        <v>402537037</v>
+        <v>419066667</v>
       </c>
       <c r="BA78" s="13">
-        <v>412312500</v>
+        <v>408577465</v>
       </c>
       <c r="BB78" s="13">
-        <v>419066667</v>
+        <v>415387097</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>65</v>
       </c>
@@ -10141,62 +10141,62 @@
       <c r="AI79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK79" s="11" t="s">
-        <v>58</v>
+      <c r="AJ79" s="11">
+        <v>323702128</v>
+      </c>
+      <c r="AK79" s="11">
+        <v>397982759</v>
       </c>
       <c r="AL79" s="11">
-        <v>323702128</v>
+        <v>396340909</v>
       </c>
       <c r="AM79" s="11">
-        <v>397982759</v>
+        <v>418305556</v>
       </c>
       <c r="AN79" s="11">
-        <v>396340909</v>
-      </c>
-      <c r="AO79" s="11">
-        <v>418305556</v>
+        <v>413275362</v>
+      </c>
+      <c r="AO79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP79" s="11">
-        <v>413275362</v>
-      </c>
-      <c r="AQ79" s="11" t="s">
-        <v>58</v>
+        <v>387112500</v>
+      </c>
+      <c r="AQ79" s="11">
+        <v>413176471</v>
       </c>
       <c r="AR79" s="11">
-        <v>387112500</v>
+        <v>435444444</v>
       </c>
       <c r="AS79" s="11">
-        <v>413176471</v>
+        <v>570670968</v>
       </c>
       <c r="AT79" s="11">
-        <v>435444444</v>
+        <v>681311927</v>
       </c>
       <c r="AU79" s="11">
-        <v>570670968</v>
+        <v>675009901</v>
       </c>
       <c r="AV79" s="11">
-        <v>681311927</v>
+        <v>651013158</v>
       </c>
       <c r="AW79" s="11">
-        <v>675009901</v>
+        <v>648550505</v>
       </c>
       <c r="AX79" s="11">
-        <v>651013158</v>
+        <v>649834532</v>
       </c>
       <c r="AY79" s="11">
-        <v>648550505</v>
+        <v>691302521</v>
       </c>
       <c r="AZ79" s="11">
-        <v>649834532</v>
+        <v>691239726</v>
       </c>
       <c r="BA79" s="11">
-        <v>691302521</v>
+        <v>692140271</v>
       </c>
       <c r="BB79" s="11">
-        <v>691239726</v>
+        <v>691636364</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghesalem/product/monthly.xlsx
+++ b/database/industries/ghaza/ghesalem/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="81">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3228,154 +3228,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>797</v>
+        <v>501</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>501</v>
+        <v>928</v>
       </c>
       <c r="H11" s="12" t="n">
+        <v>683</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>922</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>943</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>899</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>949</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>891</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>904</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>669</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>785</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>804</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>526</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>937</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>721</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>930</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>877</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>946</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>821</v>
+      </c>
+      <c r="Y11" s="12" t="n">
         <v>928</v>
       </c>
-      <c r="I11" s="12" t="n">
-        <v>683</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>922</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>943</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>899</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <v>949</v>
-      </c>
-      <c r="N11" s="12" t="n">
-        <v>891</v>
-      </c>
-      <c r="O11" s="12" t="n">
+      <c r="Z11" s="12" t="n">
+        <v>1001</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>983</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>972</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>857</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>601</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>910</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>898</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>999</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>879</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>1041</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
         <v>904</v>
       </c>
-      <c r="P11" s="12" t="n">
-        <v>669</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <v>785</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>804</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>526</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>937</v>
-      </c>
-      <c r="U11" s="12" t="n">
-        <v>721</v>
-      </c>
-      <c r="V11" s="12" t="n">
+      <c r="AK11" s="12" t="n">
+        <v>1088</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>1078</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>1051</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>956</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>556</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
         <v>930</v>
       </c>
-      <c r="W11" s="12" t="n">
-        <v>877</v>
-      </c>
-      <c r="X11" s="12" t="n">
-        <v>946</v>
-      </c>
-      <c r="Y11" s="12" t="n">
-        <v>821</v>
-      </c>
-      <c r="Z11" s="12" t="n">
-        <v>928</v>
-      </c>
-      <c r="AA11" s="12" t="n">
-        <v>1001</v>
-      </c>
-      <c r="AB11" s="12" t="n">
-        <v>983</v>
-      </c>
-      <c r="AC11" s="12" t="n">
-        <v>972</v>
-      </c>
-      <c r="AD11" s="12" t="n">
-        <v>857</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>601</v>
-      </c>
-      <c r="AF11" s="12" t="n">
-        <v>910</v>
-      </c>
-      <c r="AG11" s="12" t="n">
-        <v>898</v>
-      </c>
-      <c r="AH11" s="12" t="n">
-        <v>999</v>
-      </c>
-      <c r="AI11" s="12" t="n">
-        <v>879</v>
-      </c>
-      <c r="AJ11" s="12" t="n">
-        <v>1041</v>
-      </c>
-      <c r="AK11" s="12" t="n">
-        <v>904</v>
-      </c>
-      <c r="AL11" s="12" t="n">
-        <v>1088</v>
-      </c>
-      <c r="AM11" s="12" t="n">
-        <v>1078</v>
-      </c>
-      <c r="AN11" s="12" t="n">
-        <v>1084</v>
-      </c>
-      <c r="AO11" s="12" t="n">
-        <v>1051</v>
-      </c>
-      <c r="AP11" s="12" t="n">
-        <v>956</v>
-      </c>
-      <c r="AQ11" s="12" t="n">
-        <v>556</v>
-      </c>
       <c r="AR11" s="12" t="n">
-        <v>930</v>
+        <v>1113</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>1113</v>
+        <v>1169</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>1169</v>
+        <v>1056</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>1011</v>
+        <v>1130</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>1130</v>
+        <v>1096</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>1139</v>
+        <v>1068</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>1054</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,94 +3387,94 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>913</v>
+        <v>532</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>532</v>
+        <v>807</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>807</v>
+        <v>622</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>622</v>
+        <v>442</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>617</v>
+        <v>943</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>943</v>
+        <v>653</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>653</v>
+        <v>762</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>733</v>
+        <v>616</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>689</v>
+        <v>431</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>431</v>
+        <v>881</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>881</v>
+        <v>541</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>541</v>
+        <v>790</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>790</v>
+        <v>557</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>557</v>
+        <v>749</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>749</v>
+        <v>321</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>612</v>
+        <v>839</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>839</v>
+        <v>1112</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>1121</v>
+        <v>814</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>814</v>
+        <v>467</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>467</v>
+        <v>823</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>823</v>
+        <v>629</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>629</v>
-      </c>
-      <c r="AH12" s="14" t="n">
         <v>662</v>
+      </c>
+      <c r="AH12" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AI12" s="15" t="s">
         <v>58</v>
@@ -3546,154 +3546,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>70</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" s="12" t="n">
-        <v>70</v>
-      </c>
-      <c r="U13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12" t="n">
-        <v>0</v>
-      </c>
       <c r="AA13" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>117</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>83</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AH13" s="12" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>103</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>47</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>122</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>202</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV13" s="12" t="n">
         <v>110</v>
       </c>
-      <c r="AC13" s="12" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD13" s="12" t="n">
-        <v>109</v>
-      </c>
-      <c r="AE13" s="12" t="n">
-        <v>83</v>
-      </c>
-      <c r="AF13" s="12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG13" s="12" t="n">
-        <v>61</v>
-      </c>
-      <c r="AH13" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AW13" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="AX13" s="12" t="n">
         <v>87</v>
       </c>
-      <c r="AJ13" s="12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK13" s="12" t="n">
-        <v>103</v>
-      </c>
-      <c r="AL13" s="12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="12" t="n">
-        <v>47</v>
-      </c>
-      <c r="AO13" s="12" t="n">
-        <v>74</v>
-      </c>
-      <c r="AP13" s="12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AQ13" s="12" t="n">
-        <v>43</v>
-      </c>
-      <c r="AR13" s="12" t="n">
-        <v>122</v>
-      </c>
-      <c r="AS13" s="12" t="n">
-        <v>202</v>
-      </c>
-      <c r="AT13" s="12" t="n">
-        <v>73</v>
-      </c>
-      <c r="AU13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="12" t="n">
-        <v>84</v>
-      </c>
-      <c r="AW13" s="12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AX13" s="12" t="n">
-        <v>115</v>
-      </c>
       <c r="AY13" s="12" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,154 +3705,154 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>1611</v>
+        <v>1673</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>1673</v>
+        <v>1063</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>1063</v>
+        <v>2499</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>2499</v>
+        <v>1881</v>
       </c>
       <c r="I14" s="15" t="n">
-        <v>1881</v>
+        <v>2151</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>2151</v>
+        <v>2046</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>2046</v>
+        <v>1955</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>1955</v>
+        <v>2065</v>
       </c>
       <c r="M14" s="15" t="n">
-        <v>2065</v>
+        <v>1703</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>1703</v>
+        <v>1796</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>1796</v>
+        <v>1739</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>1739</v>
+        <v>1866</v>
       </c>
       <c r="Q14" s="15" t="n">
-        <v>1866</v>
+        <v>1792</v>
       </c>
       <c r="R14" s="15" t="n">
-        <v>1792</v>
+        <v>1348</v>
       </c>
       <c r="S14" s="15" t="n">
-        <v>1348</v>
+        <v>1898</v>
       </c>
       <c r="T14" s="15" t="n">
-        <v>1898</v>
+        <v>1744</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>1744</v>
+        <v>2150</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>2150</v>
+        <v>1805</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>1805</v>
+        <v>1566</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>1566</v>
+        <v>544</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>544</v>
+        <v>1210</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>1210</v>
+        <v>2007</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>2007</v>
+        <v>1870</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>1870</v>
+        <v>1694</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>1694</v>
+        <v>1474</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>1474</v>
+        <v>1261</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>1249</v>
+        <v>1717</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>1717</v>
+        <v>1804</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>1804</v>
+        <v>1356</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>1356</v>
+        <v>1757</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>1757</v>
+        <v>1308</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>1308</v>
+        <v>1651</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="AM14" s="15" t="n">
+        <v>2623</v>
+      </c>
+      <c r="AN14" s="15" t="n">
+        <v>1931</v>
+      </c>
+      <c r="AO14" s="15" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AP14" s="15" t="n">
+        <v>636</v>
+      </c>
+      <c r="AQ14" s="15" t="n">
+        <v>1450</v>
+      </c>
+      <c r="AR14" s="15" t="n">
+        <v>1692</v>
+      </c>
+      <c r="AS14" s="15" t="n">
+        <v>1715</v>
+      </c>
+      <c r="AT14" s="15" t="n">
+        <v>1742</v>
+      </c>
+      <c r="AU14" s="15" t="n">
+        <v>1625</v>
+      </c>
+      <c r="AV14" s="15" t="n">
         <v>1656</v>
       </c>
-      <c r="AN14" s="15" t="n">
-        <v>2623</v>
-      </c>
-      <c r="AO14" s="15" t="n">
-        <v>1931</v>
-      </c>
-      <c r="AP14" s="15" t="n">
-        <v>1670</v>
-      </c>
-      <c r="AQ14" s="15" t="n">
-        <v>636</v>
-      </c>
-      <c r="AR14" s="15" t="n">
-        <v>1450</v>
-      </c>
-      <c r="AS14" s="15" t="n">
-        <v>1692</v>
-      </c>
-      <c r="AT14" s="15" t="n">
-        <v>1715</v>
-      </c>
-      <c r="AU14" s="15" t="n">
-        <v>1742</v>
-      </c>
-      <c r="AV14" s="15" t="n">
-        <v>1625</v>
-      </c>
       <c r="AW14" s="15" t="n">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>1652</v>
+        <v>1452</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>1452</v>
+        <v>1493</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>1483</v>
+        <v>1780</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>1780</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,68 +3950,68 @@
       <c r="AG15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="16" t="s">
-        <v>58</v>
+      <c r="AH15" s="16" t="n">
+        <v>191</v>
       </c>
       <c r="AI15" s="16" t="n">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AJ15" s="16" t="n">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="AK15" s="16" t="n">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AL15" s="16" t="n">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="AM15" s="16" t="n">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="AN15" s="16" t="n">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AO15" s="16" t="n">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="AP15" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ15" s="16" t="n">
+        <v>102</v>
+      </c>
+      <c r="AR15" s="16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AS15" s="16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT15" s="16" t="n">
+        <v>193</v>
+      </c>
+      <c r="AU15" s="16" t="n">
+        <v>203</v>
+      </c>
+      <c r="AV15" s="16" t="n">
+        <v>231</v>
+      </c>
+      <c r="AW15" s="16" t="n">
+        <v>241</v>
+      </c>
+      <c r="AX15" s="16" t="n">
+        <v>97</v>
+      </c>
+      <c r="AY15" s="16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AZ15" s="16" t="n">
+        <v>185</v>
+      </c>
+      <c r="BA15" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="BB15" s="16" t="n">
         <v>68</v>
-      </c>
-      <c r="AQ15" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR15" s="16" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS15" s="16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AT15" s="16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AU15" s="16" t="n">
-        <v>193</v>
-      </c>
-      <c r="AV15" s="16" t="n">
-        <v>203</v>
-      </c>
-      <c r="AW15" s="16" t="n">
-        <v>231</v>
-      </c>
-      <c r="AX15" s="16" t="n">
-        <v>241</v>
-      </c>
-      <c r="AY15" s="16" t="n">
-        <v>97</v>
-      </c>
-      <c r="AZ15" s="16" t="n">
-        <v>160</v>
-      </c>
-      <c r="BA15" s="16" t="n">
-        <v>185</v>
-      </c>
-      <c r="BB15" s="16" t="n">
-        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,115 +4023,115 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F16" s="15" t="n">
         <v>9</v>
       </c>
       <c r="G16" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="H16" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="I16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="K16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="N16" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="P16" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="S16" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="W16" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="U16" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="V16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="15" t="n">
+      <c r="X16" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="X16" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="15" t="n">
         <v>8</v>
-      </c>
-      <c r="AB16" s="15" t="n">
-        <v>2</v>
       </c>
       <c r="AC16" s="15" t="n">
         <v>8</v>
       </c>
       <c r="AD16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AE16" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="AF16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AG16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="15" t="n">
+      <c r="AL16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="AK16" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL16" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM16" s="15" t="n">
-        <v>0</v>
-      </c>
       <c r="AN16" s="15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AO16" s="15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="15" t="n">
         <v>0</v>
@@ -4140,37 +4140,37 @@
         <v>0</v>
       </c>
       <c r="AR16" s="15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AS16" s="15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU16" s="15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW16" s="15" t="n">
         <v>9</v>
       </c>
       <c r="AX16" s="15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ16" s="15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB16" s="15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,68 +4268,68 @@
       <c r="AG17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="16" t="s">
-        <v>58</v>
+      <c r="AH17" s="16" t="n">
+        <v>478</v>
       </c>
       <c r="AI17" s="16" t="n">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="AJ17" s="16" t="n">
-        <v>559</v>
+        <v>696</v>
       </c>
       <c r="AK17" s="16" t="n">
-        <v>696</v>
+        <v>813</v>
       </c>
       <c r="AL17" s="16" t="n">
-        <v>813</v>
+        <v>1225</v>
       </c>
       <c r="AM17" s="16" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="16" t="n">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="AO17" s="16" t="n">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AP17" s="16" t="n">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="AQ17" s="16" t="n">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="AR17" s="16" t="n">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="AS17" s="16" t="n">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="AT17" s="16" t="n">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="AU17" s="16" t="n">
+        <v>470</v>
+      </c>
+      <c r="AV17" s="16" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW17" s="16" t="n">
         <v>524</v>
       </c>
-      <c r="AV17" s="16" t="n">
-        <v>470</v>
-      </c>
-      <c r="AW17" s="16" t="n">
-        <v>486</v>
-      </c>
       <c r="AX17" s="16" t="n">
-        <v>524</v>
+        <v>755</v>
       </c>
       <c r="AY17" s="16" t="n">
-        <v>755</v>
+        <v>438</v>
       </c>
       <c r="AZ17" s="16" t="n">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="BA17" s="16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BB17" s="16" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,68 +4427,68 @@
       <c r="AG18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="15" t="s">
-        <v>58</v>
+      <c r="AH18" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AI18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" s="15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK18" s="15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AM18" s="15" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AN18" s="15" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AO18" s="15" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AP18" s="15" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AS18" s="15" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AT18" s="15" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AU18" s="15" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AV18" s="15" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="AW18" s="15" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AX18" s="15" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY18" s="15" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AZ18" s="15" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="BA18" s="15" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="BB18" s="15" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,68 +4586,68 @@
       <c r="AG19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH19" s="16" t="s">
-        <v>58</v>
+      <c r="AH19" s="16" t="n">
+        <v>95</v>
       </c>
       <c r="AI19" s="16" t="n">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AJ19" s="16" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK19" s="16" t="n">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AL19" s="16" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AN19" s="16" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AO19" s="16" t="n">
+        <v>124</v>
+      </c>
+      <c r="AP19" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ19" s="16" t="n">
         <v>161</v>
       </c>
-      <c r="AP19" s="16" t="n">
+      <c r="AR19" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS19" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT19" s="16" t="n">
         <v>124</v>
       </c>
-      <c r="AQ19" s="16" t="n">
-        <v>57</v>
-      </c>
-      <c r="AR19" s="16" t="n">
-        <v>161</v>
-      </c>
-      <c r="AS19" s="16" t="n">
-        <v>136</v>
-      </c>
-      <c r="AT19" s="16" t="n">
-        <v>96</v>
-      </c>
       <c r="AU19" s="16" t="n">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="AV19" s="16" t="n">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="AW19" s="16" t="n">
+        <v>235</v>
+      </c>
+      <c r="AX19" s="16" t="n">
         <v>146</v>
       </c>
-      <c r="AX19" s="16" t="n">
-        <v>235</v>
-      </c>
       <c r="AY19" s="16" t="n">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AZ19" s="16" t="n">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="BA19" s="16" t="n">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="BB19" s="16" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,8 +4761,8 @@
       <c r="T21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="20" t="s">
-        <v>58</v>
+      <c r="U21" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="20" t="n">
         <v>0</v>
@@ -4871,154 +4871,154 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="n">
-        <v>3369</v>
+        <v>3399</v>
       </c>
       <c r="F22" s="22" t="n">
-        <v>3399</v>
+        <v>2105</v>
       </c>
       <c r="G22" s="22" t="n">
-        <v>2105</v>
+        <v>4247</v>
       </c>
       <c r="H22" s="22" t="n">
-        <v>4247</v>
+        <v>3186</v>
       </c>
       <c r="I22" s="22" t="n">
-        <v>3186</v>
+        <v>3530</v>
       </c>
       <c r="J22" s="22" t="n">
-        <v>3530</v>
+        <v>3538</v>
       </c>
       <c r="K22" s="22" t="n">
-        <v>3538</v>
+        <v>3471</v>
       </c>
       <c r="L22" s="22" t="n">
+        <v>3967</v>
+      </c>
+      <c r="M22" s="22" t="n">
+        <v>3247</v>
+      </c>
+      <c r="N22" s="22" t="n">
         <v>3471</v>
       </c>
-      <c r="M22" s="22" t="n">
-        <v>3967</v>
-      </c>
-      <c r="N22" s="22" t="n">
+      <c r="O22" s="22" t="n">
+        <v>3146</v>
+      </c>
+      <c r="P22" s="22" t="n">
+        <v>3267</v>
+      </c>
+      <c r="Q22" s="22" t="n">
+        <v>3294</v>
+      </c>
+      <c r="R22" s="22" t="n">
+        <v>2307</v>
+      </c>
+      <c r="S22" s="22" t="n">
+        <v>3795</v>
+      </c>
+      <c r="T22" s="22" t="n">
+        <v>3017</v>
+      </c>
+      <c r="U22" s="22" t="n">
+        <v>3870</v>
+      </c>
+      <c r="V22" s="22" t="n">
         <v>3247</v>
       </c>
-      <c r="O22" s="22" t="n">
-        <v>3471</v>
-      </c>
-      <c r="P22" s="22" t="n">
-        <v>3146</v>
-      </c>
-      <c r="Q22" s="22" t="n">
-        <v>3267</v>
-      </c>
-      <c r="R22" s="22" t="n">
-        <v>3294</v>
-      </c>
-      <c r="S22" s="22" t="n">
-        <v>2307</v>
-      </c>
-      <c r="T22" s="22" t="n">
-        <v>3795</v>
-      </c>
-      <c r="U22" s="22" t="n">
-        <v>3017</v>
-      </c>
-      <c r="V22" s="22" t="n">
-        <v>3870</v>
-      </c>
       <c r="W22" s="22" t="n">
-        <v>3247</v>
+        <v>3270</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>3270</v>
+        <v>1700</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>1700</v>
+        <v>2750</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>2750</v>
+        <v>3862</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>3862</v>
+        <v>4077</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>4077</v>
+        <v>3912</v>
       </c>
       <c r="AC22" s="22" t="n">
-        <v>3912</v>
+        <v>3262</v>
       </c>
       <c r="AD22" s="22" t="n">
-        <v>3262</v>
+        <v>2412</v>
       </c>
       <c r="AE22" s="22" t="n">
-        <v>2412</v>
+        <v>3090</v>
       </c>
       <c r="AF22" s="22" t="n">
-        <v>3090</v>
+        <v>3305</v>
       </c>
       <c r="AG22" s="22" t="n">
-        <v>3305</v>
+        <v>3485</v>
       </c>
       <c r="AH22" s="22" t="n">
-        <v>3485</v>
+        <v>3086</v>
       </c>
       <c r="AI22" s="22" t="n">
-        <v>3086</v>
+        <v>3834</v>
       </c>
       <c r="AJ22" s="22" t="n">
-        <v>3834</v>
+        <v>3361</v>
       </c>
       <c r="AK22" s="22" t="n">
-        <v>3361</v>
+        <v>4120</v>
       </c>
       <c r="AL22" s="22" t="n">
-        <v>4120</v>
+        <v>4320</v>
       </c>
       <c r="AM22" s="22" t="n">
-        <v>4320</v>
+        <v>3971</v>
       </c>
       <c r="AN22" s="22" t="n">
-        <v>3971</v>
+        <v>3892</v>
       </c>
       <c r="AO22" s="22" t="n">
-        <v>3892</v>
+        <v>3298</v>
       </c>
       <c r="AP22" s="22" t="n">
-        <v>3298</v>
+        <v>1444</v>
       </c>
       <c r="AQ22" s="22" t="n">
-        <v>1444</v>
+        <v>3352</v>
       </c>
       <c r="AR22" s="22" t="n">
-        <v>3352</v>
+        <v>4144</v>
       </c>
       <c r="AS22" s="22" t="n">
-        <v>4144</v>
+        <v>3754</v>
       </c>
       <c r="AT22" s="22" t="n">
-        <v>3754</v>
+        <v>3686</v>
       </c>
       <c r="AU22" s="22" t="n">
-        <v>3686</v>
+        <v>3643</v>
       </c>
       <c r="AV22" s="22" t="n">
-        <v>3643</v>
+        <v>3713</v>
       </c>
       <c r="AW22" s="22" t="n">
-        <v>3713</v>
+        <v>3968</v>
       </c>
       <c r="AX22" s="22" t="n">
-        <v>3968</v>
+        <v>3693</v>
       </c>
       <c r="AY22" s="22" t="n">
-        <v>3693</v>
+        <v>3503</v>
       </c>
       <c r="AZ22" s="22" t="n">
-        <v>3503</v>
+        <v>3236</v>
       </c>
       <c r="BA22" s="22" t="n">
-        <v>3236</v>
+        <v>3570</v>
       </c>
       <c r="BB22" s="22" t="n">
-        <v>3570</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,154 +5464,154 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>737</v>
+        <v>949</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>949</v>
+        <v>534</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>534</v>
+        <v>910</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>910</v>
+        <v>748</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>748</v>
+        <v>927</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="K29" s="16" t="n">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="N29" s="16" t="n">
-        <v>903</v>
+        <v>855</v>
       </c>
       <c r="O29" s="16" t="n">
-        <v>855</v>
+        <v>669</v>
       </c>
       <c r="P29" s="16" t="n">
-        <v>669</v>
+        <v>808</v>
       </c>
       <c r="Q29" s="16" t="n">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="R29" s="16" t="n">
-        <v>793</v>
+        <v>560</v>
       </c>
       <c r="S29" s="16" t="n">
-        <v>560</v>
+        <v>946</v>
       </c>
       <c r="T29" s="16" t="n">
-        <v>946</v>
+        <v>716</v>
       </c>
       <c r="U29" s="16" t="n">
-        <v>716</v>
+        <v>924</v>
       </c>
       <c r="V29" s="16" t="n">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="W29" s="16" t="n">
-        <v>872</v>
+        <v>951</v>
       </c>
       <c r="X29" s="16" t="n">
-        <v>951</v>
+        <v>805</v>
       </c>
       <c r="Y29" s="16" t="n">
-        <v>805</v>
+        <v>944</v>
       </c>
       <c r="Z29" s="16" t="n">
-        <v>944</v>
+        <v>991</v>
       </c>
       <c r="AA29" s="16" t="n">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="AB29" s="16" t="n">
+        <v>981</v>
+      </c>
+      <c r="AC29" s="16" t="n">
+        <v>849</v>
+      </c>
+      <c r="AD29" s="16" t="n">
+        <v>605</v>
+      </c>
+      <c r="AE29" s="16" t="n">
+        <v>931</v>
+      </c>
+      <c r="AF29" s="16" t="n">
+        <v>897</v>
+      </c>
+      <c r="AG29" s="16" t="n">
         <v>980</v>
       </c>
-      <c r="AC29" s="16" t="n">
-        <v>981</v>
-      </c>
-      <c r="AD29" s="16" t="n">
-        <v>849</v>
-      </c>
-      <c r="AE29" s="16" t="n">
-        <v>605</v>
-      </c>
-      <c r="AF29" s="16" t="n">
-        <v>931</v>
-      </c>
-      <c r="AG29" s="16" t="n">
-        <v>897</v>
-      </c>
       <c r="AH29" s="16" t="n">
-        <v>980</v>
+        <v>854</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>854</v>
+        <v>1051</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>1051</v>
+        <v>893</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>893</v>
+        <v>1101</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>1056</v>
+        <v>956</v>
       </c>
       <c r="AP29" s="16" t="n">
-        <v>956</v>
+        <v>606</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>606</v>
+        <v>887</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>887</v>
+        <v>1106</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>1106</v>
+        <v>1185</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>1185</v>
+        <v>1060</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>1023</v>
+        <v>1108</v>
       </c>
       <c r="AX29" s="16" t="n">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>1102</v>
+        <v>1119</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>1119</v>
+        <v>1059</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>1061</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,94 +5623,94 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="n">
-        <v>908</v>
+        <v>849</v>
       </c>
       <c r="F30" s="15" t="n">
-        <v>849</v>
+        <v>628</v>
       </c>
       <c r="G30" s="15" t="n">
-        <v>628</v>
+        <v>777</v>
       </c>
       <c r="H30" s="15" t="n">
-        <v>777</v>
+        <v>545</v>
       </c>
       <c r="I30" s="15" t="n">
-        <v>545</v>
+        <v>426</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>426</v>
+        <v>551</v>
       </c>
       <c r="K30" s="15" t="n">
-        <v>551</v>
+        <v>683</v>
       </c>
       <c r="L30" s="15" t="n">
-        <v>683</v>
+        <v>889</v>
       </c>
       <c r="M30" s="15" t="n">
-        <v>889</v>
+        <v>676</v>
       </c>
       <c r="N30" s="15" t="n">
-        <v>676</v>
+        <v>595</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="P30" s="15" t="n">
-        <v>619</v>
+        <v>788</v>
       </c>
       <c r="Q30" s="15" t="n">
-        <v>788</v>
+        <v>716</v>
       </c>
       <c r="R30" s="15" t="n">
-        <v>716</v>
+        <v>524</v>
       </c>
       <c r="S30" s="15" t="n">
-        <v>524</v>
+        <v>843</v>
       </c>
       <c r="T30" s="15" t="n">
-        <v>843</v>
+        <v>535</v>
       </c>
       <c r="U30" s="15" t="n">
-        <v>535</v>
+        <v>775</v>
       </c>
       <c r="V30" s="15" t="n">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="W30" s="15" t="n">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="X30" s="15" t="n">
-        <v>670</v>
+        <v>373</v>
       </c>
       <c r="Y30" s="15" t="n">
-        <v>373</v>
+        <v>583</v>
       </c>
       <c r="Z30" s="15" t="n">
-        <v>583</v>
+        <v>817</v>
       </c>
       <c r="AA30" s="15" t="n">
-        <v>817</v>
+        <v>1013</v>
       </c>
       <c r="AB30" s="15" t="n">
-        <v>1013</v>
+        <v>1038</v>
       </c>
       <c r="AC30" s="15" t="n">
-        <v>1038</v>
+        <v>943</v>
       </c>
       <c r="AD30" s="15" t="n">
-        <v>943</v>
+        <v>492</v>
       </c>
       <c r="AE30" s="15" t="n">
-        <v>492</v>
+        <v>770</v>
       </c>
       <c r="AF30" s="15" t="n">
-        <v>770</v>
+        <v>658</v>
       </c>
       <c r="AG30" s="15" t="n">
-        <v>658</v>
-      </c>
-      <c r="AH30" s="15" t="n">
         <v>823</v>
+      </c>
+      <c r="AH30" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AI30" s="15" t="s">
         <v>58</v>
@@ -5782,13 +5782,13 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F31" s="16" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="G31" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H31" s="16" t="n">
         <v>0</v>
@@ -5821,115 +5821,115 @@
         <v>0</v>
       </c>
       <c r="R31" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="16" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="T31" s="16" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="U31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="V31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA31" s="16" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AB31" s="16" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC31" s="16" t="n">
+        <v>112</v>
+      </c>
+      <c r="AD31" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="16" t="n">
+        <v>97</v>
+      </c>
+      <c r="AF31" s="16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG31" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH31" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI31" s="16" t="n">
         <v>110</v>
       </c>
-      <c r="AC31" s="16" t="n">
+      <c r="AJ31" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="AK31" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL31" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM31" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN31" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="AO31" s="16" t="n">
+        <v>86</v>
+      </c>
+      <c r="AP31" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="16" t="n">
+        <v>107</v>
+      </c>
+      <c r="AR31" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS31" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="AT31" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AU31" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AV31" s="16" t="n">
+        <v>88</v>
+      </c>
+      <c r="AW31" s="16" t="n">
+        <v>115</v>
+      </c>
+      <c r="AX31" s="16" t="n">
         <v>98</v>
       </c>
-      <c r="AD31" s="16" t="n">
-        <v>112</v>
-      </c>
-      <c r="AE31" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="AF31" s="16" t="n">
-        <v>97</v>
-      </c>
-      <c r="AG31" s="16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH31" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI31" s="16" t="n">
-        <v>74</v>
-      </c>
-      <c r="AJ31" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK31" s="16" t="n">
-        <v>77</v>
-      </c>
-      <c r="AL31" s="16" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM31" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AN31" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO31" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="AP31" s="16" t="n">
-        <v>86</v>
-      </c>
-      <c r="AQ31" s="16" t="n">
+      <c r="AY31" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="AR31" s="16" t="n">
+      <c r="AZ31" s="16" t="n">
+        <v>54</v>
+      </c>
+      <c r="BA31" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="AS31" s="16" t="n">
-        <v>136</v>
-      </c>
-      <c r="AT31" s="16" t="n">
-        <v>78</v>
-      </c>
-      <c r="AU31" s="16" t="n">
-        <v>53</v>
-      </c>
-      <c r="AV31" s="16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW31" s="16" t="n">
-        <v>88</v>
-      </c>
-      <c r="AX31" s="16" t="n">
-        <v>115</v>
-      </c>
-      <c r="AY31" s="16" t="n">
-        <v>98</v>
-      </c>
-      <c r="AZ31" s="16" t="n">
-        <v>53</v>
-      </c>
-      <c r="BA31" s="16" t="n">
-        <v>54</v>
-      </c>
       <c r="BB31" s="16" t="n">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,154 +5941,154 @@
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="n">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="F32" s="15" t="n">
-        <v>1705</v>
+        <v>996</v>
       </c>
       <c r="G32" s="15" t="n">
-        <v>996</v>
+        <v>2424</v>
       </c>
       <c r="H32" s="15" t="n">
-        <v>2424</v>
+        <v>1723</v>
       </c>
       <c r="I32" s="15" t="n">
-        <v>1723</v>
+        <v>2003</v>
       </c>
       <c r="J32" s="15" t="n">
-        <v>2003</v>
+        <v>2089</v>
       </c>
       <c r="K32" s="15" t="n">
-        <v>2089</v>
+        <v>2079</v>
       </c>
       <c r="L32" s="15" t="n">
-        <v>2079</v>
+        <v>1991</v>
       </c>
       <c r="M32" s="15" t="n">
-        <v>1991</v>
+        <v>1750</v>
       </c>
       <c r="N32" s="15" t="n">
-        <v>1750</v>
+        <v>1655</v>
       </c>
       <c r="O32" s="15" t="n">
+        <v>1786</v>
+      </c>
+      <c r="P32" s="15" t="n">
+        <v>2028</v>
+      </c>
+      <c r="Q32" s="15" t="n">
+        <v>1712</v>
+      </c>
+      <c r="R32" s="15" t="n">
+        <v>1474</v>
+      </c>
+      <c r="S32" s="15" t="n">
+        <v>1932</v>
+      </c>
+      <c r="T32" s="15" t="n">
+        <v>1583</v>
+      </c>
+      <c r="U32" s="15" t="n">
+        <v>2116</v>
+      </c>
+      <c r="V32" s="15" t="n">
+        <v>1744</v>
+      </c>
+      <c r="W32" s="15" t="n">
+        <v>1886</v>
+      </c>
+      <c r="X32" s="15" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y32" s="15" t="n">
+        <v>1092</v>
+      </c>
+      <c r="Z32" s="15" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AA32" s="15" t="n">
+        <v>1798</v>
+      </c>
+      <c r="AB32" s="15" t="n">
+        <v>1573</v>
+      </c>
+      <c r="AC32" s="15" t="n">
+        <v>1496</v>
+      </c>
+      <c r="AD32" s="15" t="n">
+        <v>1263</v>
+      </c>
+      <c r="AE32" s="15" t="n">
+        <v>1213</v>
+      </c>
+      <c r="AF32" s="15" t="n">
+        <v>1738</v>
+      </c>
+      <c r="AG32" s="15" t="n">
         <v>1655</v>
       </c>
-      <c r="P32" s="15" t="n">
-        <v>1786</v>
-      </c>
-      <c r="Q32" s="15" t="n">
-        <v>2028</v>
-      </c>
-      <c r="R32" s="15" t="n">
-        <v>1712</v>
-      </c>
-      <c r="S32" s="15" t="n">
-        <v>1474</v>
-      </c>
-      <c r="T32" s="15" t="n">
-        <v>1932</v>
-      </c>
-      <c r="U32" s="15" t="n">
-        <v>1583</v>
-      </c>
-      <c r="V32" s="15" t="n">
-        <v>2116</v>
-      </c>
-      <c r="W32" s="15" t="n">
-        <v>1744</v>
-      </c>
-      <c r="X32" s="15" t="n">
-        <v>1886</v>
-      </c>
-      <c r="Y32" s="15" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z32" s="15" t="n">
-        <v>1092</v>
-      </c>
-      <c r="AA32" s="15" t="n">
-        <v>2026</v>
-      </c>
-      <c r="AB32" s="15" t="n">
-        <v>1798</v>
-      </c>
-      <c r="AC32" s="15" t="n">
-        <v>1573</v>
-      </c>
-      <c r="AD32" s="15" t="n">
-        <v>1496</v>
-      </c>
-      <c r="AE32" s="15" t="n">
-        <v>1263</v>
-      </c>
-      <c r="AF32" s="15" t="n">
-        <v>1213</v>
-      </c>
-      <c r="AG32" s="15" t="n">
-        <v>1738</v>
-      </c>
       <c r="AH32" s="15" t="n">
-        <v>1655</v>
+        <v>1489</v>
       </c>
       <c r="AI32" s="15" t="n">
-        <v>1489</v>
+        <v>1927</v>
       </c>
       <c r="AJ32" s="15" t="n">
-        <v>1927</v>
+        <v>1356</v>
       </c>
       <c r="AK32" s="15" t="n">
-        <v>1356</v>
+        <v>1451</v>
       </c>
       <c r="AL32" s="15" t="n">
-        <v>1451</v>
+        <v>2175</v>
       </c>
       <c r="AM32" s="15" t="n">
-        <v>2175</v>
+        <v>2131</v>
       </c>
       <c r="AN32" s="15" t="n">
-        <v>2131</v>
+        <v>1911</v>
       </c>
       <c r="AO32" s="15" t="n">
-        <v>1911</v>
+        <v>1571</v>
       </c>
       <c r="AP32" s="15" t="n">
-        <v>1571</v>
+        <v>988</v>
       </c>
       <c r="AQ32" s="15" t="n">
-        <v>988</v>
+        <v>1155</v>
       </c>
       <c r="AR32" s="15" t="n">
-        <v>1155</v>
+        <v>1749</v>
       </c>
       <c r="AS32" s="15" t="n">
-        <v>1749</v>
+        <v>1425</v>
       </c>
       <c r="AT32" s="15" t="n">
-        <v>1425</v>
+        <v>1692</v>
       </c>
       <c r="AU32" s="15" t="n">
-        <v>1692</v>
+        <v>1544</v>
       </c>
       <c r="AV32" s="15" t="n">
-        <v>1544</v>
+        <v>1694</v>
       </c>
       <c r="AW32" s="15" t="n">
-        <v>1694</v>
+        <v>1581</v>
       </c>
       <c r="AX32" s="15" t="n">
-        <v>1581</v>
+        <v>1664</v>
       </c>
       <c r="AY32" s="15" t="n">
-        <v>1664</v>
+        <v>1603</v>
       </c>
       <c r="AZ32" s="15" t="n">
-        <v>1603</v>
+        <v>1222</v>
       </c>
       <c r="BA32" s="15" t="n">
-        <v>1222</v>
+        <v>1621</v>
       </c>
       <c r="BB32" s="15" t="n">
-        <v>1621</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,68 +6186,68 @@
       <c r="AG33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH33" s="16" t="s">
-        <v>58</v>
+      <c r="AH33" s="16" t="n">
+        <v>110</v>
       </c>
       <c r="AI33" s="16" t="n">
+        <v>217</v>
+      </c>
+      <c r="AJ33" s="16" t="n">
+        <v>227</v>
+      </c>
+      <c r="AK33" s="16" t="n">
+        <v>224</v>
+      </c>
+      <c r="AL33" s="16" t="n">
+        <v>299</v>
+      </c>
+      <c r="AM33" s="16" t="n">
+        <v>317</v>
+      </c>
+      <c r="AN33" s="16" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO33" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP33" s="16" t="n">
+        <v>103</v>
+      </c>
+      <c r="AQ33" s="16" t="n">
         <v>110</v>
       </c>
-      <c r="AJ33" s="16" t="n">
-        <v>217</v>
-      </c>
-      <c r="AK33" s="16" t="n">
-        <v>227</v>
-      </c>
-      <c r="AL33" s="16" t="n">
-        <v>224</v>
-      </c>
-      <c r="AM33" s="16" t="n">
-        <v>299</v>
-      </c>
-      <c r="AN33" s="16" t="n">
-        <v>317</v>
-      </c>
-      <c r="AO33" s="16" t="n">
-        <v>132</v>
-      </c>
-      <c r="AP33" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AQ33" s="16" t="n">
-        <v>103</v>
-      </c>
       <c r="AR33" s="16" t="n">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="AU33" s="16" t="n">
+        <v>161</v>
+      </c>
+      <c r="AV33" s="16" t="n">
+        <v>208</v>
+      </c>
+      <c r="AW33" s="16" t="n">
         <v>216</v>
       </c>
-      <c r="AV33" s="16" t="n">
-        <v>161</v>
-      </c>
-      <c r="AW33" s="16" t="n">
-        <v>208</v>
-      </c>
       <c r="AX33" s="16" t="n">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,40 +6259,40 @@
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" s="15" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G34" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="H34" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="I34" s="15" t="n">
+      <c r="M34" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="J34" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K34" s="15" t="n">
+      <c r="O34" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="15" t="n">
         <v>5</v>
-      </c>
-      <c r="L34" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="N34" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O34" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P34" s="15" t="n">
-        <v>3</v>
       </c>
       <c r="Q34" s="15" t="n">
         <v>5</v>
@@ -6301,40 +6301,40 @@
         <v>5</v>
       </c>
       <c r="S34" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="T34" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="U34" s="15" t="n">
-        <v>9</v>
-      </c>
       <c r="V34" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W34" s="15" t="n">
         <v>8</v>
       </c>
       <c r="X34" s="15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y34" s="15" t="n">
         <v>7</v>
       </c>
       <c r="Z34" s="15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA34" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AB34" s="15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC34" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD34" s="15" t="n">
         <v>4</v>
-      </c>
-      <c r="AD34" s="15" t="n">
-        <v>7</v>
       </c>
       <c r="AE34" s="15" t="n">
         <v>4</v>
@@ -6343,70 +6343,70 @@
         <v>4</v>
       </c>
       <c r="AG34" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH34" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI34" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK34" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM34" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN34" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AH34" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI34" s="15" t="n">
+      <c r="AO34" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AJ34" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK34" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL34" s="15" t="n">
+      <c r="AP34" s="15" t="n">
         <v>2</v>
-      </c>
-      <c r="AM34" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN34" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO34" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP34" s="15" t="n">
-        <v>5</v>
       </c>
       <c r="AQ34" s="15" t="n">
         <v>2</v>
       </c>
       <c r="AR34" s="15" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AS34" s="15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AT34" s="15" t="n">
         <v>5</v>
       </c>
       <c r="AU34" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV34" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AV34" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="AW34" s="15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX34" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY34" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ34" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA34" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB34" s="15" t="n">
         <v>9</v>
-      </c>
-      <c r="AY34" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ34" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA34" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB34" s="15" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,68 +6504,68 @@
       <c r="AG35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH35" s="16" t="s">
-        <v>58</v>
+      <c r="AH35" s="16" t="n">
+        <v>425</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>425</v>
+        <v>585</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>626</v>
+        <v>867</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>867</v>
+        <v>526</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>197</v>
+        <v>490</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AT35" s="16" t="n">
+        <v>524</v>
+      </c>
+      <c r="AU35" s="16" t="n">
         <v>547</v>
       </c>
-      <c r="AU35" s="16" t="n">
-        <v>524</v>
-      </c>
       <c r="AV35" s="16" t="n">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>514</v>
+        <v>638</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>574</v>
+        <v>162</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,68 +6663,68 @@
       <c r="AG36" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="15" t="s">
-        <v>58</v>
+      <c r="AH36" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AI36" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AJ36" s="15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK36" s="15" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="15" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AM36" s="15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN36" s="15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO36" s="15" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AP36" s="15" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AQ36" s="15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="15" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AS36" s="15" t="n">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AT36" s="15" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AU36" s="15" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AV36" s="15" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="AW36" s="15" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AX36" s="15" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AY36" s="15" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AZ36" s="15" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="BA36" s="15" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="BB36" s="15" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,68 +6822,68 @@
       <c r="AG37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH37" s="16" t="s">
-        <v>58</v>
+      <c r="AH37" s="16" t="n">
+        <v>94</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AJ37" s="16" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK37" s="16" t="n">
+        <v>144</v>
+      </c>
+      <c r="AL37" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM37" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO37" s="16" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP37" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ37" s="16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AR37" s="16" t="n">
+        <v>109</v>
+      </c>
+      <c r="AS37" s="16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT37" s="16" t="n">
+        <v>152</v>
+      </c>
+      <c r="AU37" s="16" t="n">
+        <v>198</v>
+      </c>
+      <c r="AV37" s="16" t="n">
+        <v>139</v>
+      </c>
+      <c r="AW37" s="16" t="n">
+        <v>238</v>
+      </c>
+      <c r="AX37" s="16" t="n">
+        <v>146</v>
+      </c>
+      <c r="AY37" s="16" t="n">
+        <v>221</v>
+      </c>
+      <c r="AZ37" s="16" t="n">
+        <v>165</v>
+      </c>
+      <c r="BA37" s="16" t="n">
+        <v>118</v>
+      </c>
+      <c r="BB37" s="16" t="n">
         <v>116</v>
-      </c>
-      <c r="AK37" s="16" t="n">
-        <v>88</v>
-      </c>
-      <c r="AL37" s="16" t="n">
-        <v>144</v>
-      </c>
-      <c r="AM37" s="16" t="n">
-        <v>69</v>
-      </c>
-      <c r="AN37" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AP37" s="16" t="n">
-        <v>119</v>
-      </c>
-      <c r="AQ37" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AR37" s="16" t="n">
-        <v>155</v>
-      </c>
-      <c r="AS37" s="16" t="n">
-        <v>109</v>
-      </c>
-      <c r="AT37" s="16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AU37" s="16" t="n">
-        <v>152</v>
-      </c>
-      <c r="AV37" s="16" t="n">
-        <v>198</v>
-      </c>
-      <c r="AW37" s="16" t="n">
-        <v>139</v>
-      </c>
-      <c r="AX37" s="16" t="n">
-        <v>238</v>
-      </c>
-      <c r="AY37" s="16" t="n">
-        <v>146</v>
-      </c>
-      <c r="AZ37" s="16" t="n">
-        <v>221</v>
-      </c>
-      <c r="BA37" s="16" t="n">
-        <v>165</v>
-      </c>
-      <c r="BB37" s="16" t="n">
-        <v>118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6997,8 +6997,8 @@
       <c r="T39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="20" t="s">
-        <v>58</v>
+      <c r="U39" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="20" t="n">
         <v>0</v>
@@ -7211,8 +7211,8 @@
       <c r="T41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="20" t="s">
-        <v>58</v>
+      <c r="U41" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="20" t="n">
         <v>0</v>
@@ -7321,154 +7321,154 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="n">
-        <v>3419</v>
+        <v>3591</v>
       </c>
       <c r="F42" s="22" t="n">
-        <v>3591</v>
+        <v>2170</v>
       </c>
       <c r="G42" s="22" t="n">
-        <v>2170</v>
+        <v>4123</v>
       </c>
       <c r="H42" s="22" t="n">
-        <v>4123</v>
+        <v>3021</v>
       </c>
       <c r="I42" s="22" t="n">
-        <v>3021</v>
+        <v>3364</v>
       </c>
       <c r="J42" s="22" t="n">
-        <v>3364</v>
+        <v>3577</v>
       </c>
       <c r="K42" s="22" t="n">
-        <v>3577</v>
+        <v>3675</v>
       </c>
       <c r="L42" s="22" t="n">
-        <v>3675</v>
+        <v>3819</v>
       </c>
       <c r="M42" s="22" t="n">
-        <v>3819</v>
+        <v>3332</v>
       </c>
       <c r="N42" s="22" t="n">
-        <v>3332</v>
+        <v>3110</v>
       </c>
       <c r="O42" s="22" t="n">
-        <v>3110</v>
+        <v>3077</v>
       </c>
       <c r="P42" s="22" t="n">
-        <v>3077</v>
+        <v>3629</v>
       </c>
       <c r="Q42" s="22" t="n">
-        <v>3629</v>
+        <v>3226</v>
       </c>
       <c r="R42" s="22" t="n">
-        <v>3226</v>
+        <v>2565</v>
       </c>
       <c r="S42" s="22" t="n">
-        <v>2565</v>
+        <v>3796</v>
       </c>
       <c r="T42" s="22" t="n">
-        <v>3796</v>
+        <v>2844</v>
       </c>
       <c r="U42" s="22" t="n">
-        <v>2844</v>
+        <v>3820</v>
       </c>
       <c r="V42" s="22" t="n">
-        <v>3820</v>
+        <v>3301</v>
       </c>
       <c r="W42" s="22" t="n">
-        <v>3301</v>
+        <v>3515</v>
       </c>
       <c r="X42" s="22" t="n">
-        <v>3515</v>
+        <v>1821</v>
       </c>
       <c r="Y42" s="22" t="n">
-        <v>1821</v>
+        <v>2626</v>
       </c>
       <c r="Z42" s="22" t="n">
-        <v>2626</v>
+        <v>3840</v>
       </c>
       <c r="AA42" s="22" t="n">
-        <v>3840</v>
+        <v>3906</v>
       </c>
       <c r="AB42" s="22" t="n">
-        <v>3906</v>
+        <v>3694</v>
       </c>
       <c r="AC42" s="22" t="n">
-        <v>3694</v>
+        <v>3407</v>
       </c>
       <c r="AD42" s="22" t="n">
-        <v>3407</v>
+        <v>2440</v>
       </c>
       <c r="AE42" s="22" t="n">
-        <v>2440</v>
+        <v>3015</v>
       </c>
       <c r="AF42" s="22" t="n">
-        <v>3015</v>
+        <v>3377</v>
       </c>
       <c r="AG42" s="22" t="n">
-        <v>3377</v>
+        <v>3484</v>
       </c>
       <c r="AH42" s="22" t="n">
-        <v>3484</v>
+        <v>3051</v>
       </c>
       <c r="AI42" s="22" t="n">
-        <v>3051</v>
+        <v>4009</v>
       </c>
       <c r="AJ42" s="22" t="n">
-        <v>4009</v>
+        <v>3306</v>
       </c>
       <c r="AK42" s="22" t="n">
-        <v>3306</v>
+        <v>3852</v>
       </c>
       <c r="AL42" s="22" t="n">
-        <v>3852</v>
+        <v>4217</v>
       </c>
       <c r="AM42" s="22" t="n">
-        <v>4217</v>
+        <v>4129</v>
       </c>
       <c r="AN42" s="22" t="n">
-        <v>4129</v>
+        <v>3850</v>
       </c>
       <c r="AO42" s="22" t="n">
-        <v>3850</v>
+        <v>3339</v>
       </c>
       <c r="AP42" s="22" t="n">
-        <v>3339</v>
+        <v>2016</v>
       </c>
       <c r="AQ42" s="22" t="n">
-        <v>2016</v>
+        <v>2906</v>
       </c>
       <c r="AR42" s="22" t="n">
-        <v>2906</v>
+        <v>3887</v>
       </c>
       <c r="AS42" s="22" t="n">
-        <v>3887</v>
+        <v>3518</v>
       </c>
       <c r="AT42" s="22" t="n">
-        <v>3518</v>
+        <v>3751</v>
       </c>
       <c r="AU42" s="22" t="n">
-        <v>3751</v>
+        <v>3568</v>
       </c>
       <c r="AV42" s="22" t="n">
-        <v>3568</v>
+        <v>3727</v>
       </c>
       <c r="AW42" s="22" t="n">
-        <v>3727</v>
+        <v>3829</v>
       </c>
       <c r="AX42" s="22" t="n">
-        <v>3829</v>
+        <v>3858</v>
       </c>
       <c r="AY42" s="22" t="n">
-        <v>3858</v>
+        <v>3810</v>
       </c>
       <c r="AZ42" s="22" t="n">
-        <v>3810</v>
+        <v>2874</v>
       </c>
       <c r="BA42" s="22" t="n">
-        <v>2874</v>
+        <v>3357</v>
       </c>
       <c r="BB42" s="22" t="n">
-        <v>3357</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,154 +7914,154 @@
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16" t="n">
-        <v>70338</v>
+        <v>92280</v>
       </c>
       <c r="F49" s="16" t="n">
-        <v>92280</v>
+        <v>54633</v>
       </c>
       <c r="G49" s="16" t="n">
-        <v>54633</v>
+        <v>92541</v>
       </c>
       <c r="H49" s="16" t="n">
-        <v>92541</v>
+        <v>83995</v>
       </c>
       <c r="I49" s="16" t="n">
-        <v>83995</v>
+        <v>107427</v>
       </c>
       <c r="J49" s="16" t="n">
-        <v>107427</v>
+        <v>108089</v>
       </c>
       <c r="K49" s="16" t="n">
-        <v>108089</v>
+        <v>105259</v>
       </c>
       <c r="L49" s="16" t="n">
-        <v>105259</v>
+        <v>108170</v>
       </c>
       <c r="M49" s="16" t="n">
-        <v>108170</v>
+        <v>104725</v>
       </c>
       <c r="N49" s="16" t="n">
-        <v>104725</v>
+        <v>99068</v>
       </c>
       <c r="O49" s="16" t="n">
-        <v>99068</v>
+        <v>77468</v>
       </c>
       <c r="P49" s="16" t="n">
-        <v>77468</v>
+        <v>93643</v>
       </c>
       <c r="Q49" s="16" t="n">
-        <v>93643</v>
+        <v>91992</v>
       </c>
       <c r="R49" s="16" t="n">
-        <v>91992</v>
+        <v>71504</v>
       </c>
       <c r="S49" s="16" t="n">
-        <v>71504</v>
+        <v>127457</v>
       </c>
       <c r="T49" s="16" t="n">
-        <v>127457</v>
+        <v>102685</v>
       </c>
       <c r="U49" s="16" t="n">
-        <v>102685</v>
+        <v>138525</v>
       </c>
       <c r="V49" s="16" t="n">
-        <v>138525</v>
+        <v>141900</v>
       </c>
       <c r="W49" s="16" t="n">
-        <v>141900</v>
+        <v>167352</v>
       </c>
       <c r="X49" s="16" t="n">
-        <v>167352</v>
+        <v>156051</v>
       </c>
       <c r="Y49" s="16" t="n">
-        <v>156051</v>
+        <v>191849</v>
       </c>
       <c r="Z49" s="16" t="n">
-        <v>191849</v>
+        <v>209407</v>
       </c>
       <c r="AA49" s="16" t="n">
-        <v>209407</v>
+        <v>200454</v>
       </c>
       <c r="AB49" s="16" t="n">
-        <v>200454</v>
+        <v>203139</v>
       </c>
       <c r="AC49" s="16" t="n">
-        <v>203139</v>
+        <v>182769</v>
       </c>
       <c r="AD49" s="16" t="n">
-        <v>182769</v>
+        <v>130349</v>
       </c>
       <c r="AE49" s="16" t="n">
-        <v>130349</v>
+        <v>235296</v>
       </c>
       <c r="AF49" s="16" t="n">
-        <v>235296</v>
+        <v>231762</v>
       </c>
       <c r="AG49" s="16" t="n">
-        <v>231762</v>
+        <v>253192</v>
       </c>
       <c r="AH49" s="16" t="n">
-        <v>253192</v>
+        <v>220751</v>
       </c>
       <c r="AI49" s="16" t="n">
-        <v>220751</v>
+        <v>276478</v>
       </c>
       <c r="AJ49" s="16" t="n">
-        <v>276478</v>
+        <v>259657</v>
       </c>
       <c r="AK49" s="16" t="n">
-        <v>259657</v>
+        <v>319943</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>319943</v>
+        <v>310834</v>
       </c>
       <c r="AM49" s="16" t="n">
-        <v>310834</v>
+        <v>313195</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>313195</v>
+        <v>312495</v>
       </c>
       <c r="AO49" s="16" t="n">
-        <v>312495</v>
+        <v>298965</v>
       </c>
       <c r="AP49" s="16" t="n">
-        <v>298965</v>
+        <v>194747</v>
       </c>
       <c r="AQ49" s="16" t="n">
-        <v>194747</v>
+        <v>404676</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>404676</v>
+        <v>574186</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>574186</v>
+        <v>608420</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>608420</v>
+        <v>574154</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>574154</v>
+        <v>560042</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>560042</v>
+        <v>554593</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>554593</v>
+        <v>638636</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>638636</v>
+        <v>634988</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>634988</v>
+        <v>644506</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>644506</v>
+        <v>610105</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>610105</v>
+        <v>611416</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>611416</v>
+        <v>420061</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8073,94 +8073,94 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="n">
-        <v>66251</v>
+        <v>61399</v>
       </c>
       <c r="F50" s="15" t="n">
-        <v>61399</v>
+        <v>48795</v>
       </c>
       <c r="G50" s="15" t="n">
-        <v>48795</v>
+        <v>65970</v>
       </c>
       <c r="H50" s="15" t="n">
-        <v>65970</v>
+        <v>51143</v>
       </c>
       <c r="I50" s="15" t="n">
-        <v>51143</v>
+        <v>37689</v>
       </c>
       <c r="J50" s="15" t="n">
-        <v>37689</v>
+        <v>49477</v>
       </c>
       <c r="K50" s="15" t="n">
-        <v>49477</v>
+        <v>61616</v>
       </c>
       <c r="L50" s="15" t="n">
-        <v>61616</v>
+        <v>76769</v>
       </c>
       <c r="M50" s="15" t="n">
-        <v>76769</v>
+        <v>73452</v>
       </c>
       <c r="N50" s="15" t="n">
-        <v>73452</v>
+        <v>56550</v>
       </c>
       <c r="O50" s="15" t="n">
-        <v>56550</v>
+        <v>57022</v>
       </c>
       <c r="P50" s="15" t="n">
-        <v>57022</v>
+        <v>69978</v>
       </c>
       <c r="Q50" s="15" t="n">
-        <v>69978</v>
+        <v>65758</v>
       </c>
       <c r="R50" s="15" t="n">
-        <v>65758</v>
+        <v>50154</v>
       </c>
       <c r="S50" s="15" t="n">
-        <v>50154</v>
+        <v>92886</v>
       </c>
       <c r="T50" s="15" t="n">
-        <v>92886</v>
+        <v>60528</v>
       </c>
       <c r="U50" s="15" t="n">
-        <v>60528</v>
+        <v>97081</v>
       </c>
       <c r="V50" s="15" t="n">
-        <v>97081</v>
+        <v>90620</v>
       </c>
       <c r="W50" s="15" t="n">
-        <v>90620</v>
+        <v>89993</v>
       </c>
       <c r="X50" s="15" t="n">
-        <v>89993</v>
+        <v>61560</v>
       </c>
       <c r="Y50" s="15" t="n">
-        <v>61560</v>
+        <v>87513</v>
       </c>
       <c r="Z50" s="15" t="n">
-        <v>87513</v>
+        <v>117605</v>
       </c>
       <c r="AA50" s="15" t="n">
-        <v>117605</v>
+        <v>156675</v>
       </c>
       <c r="AB50" s="15" t="n">
-        <v>156675</v>
+        <v>169282</v>
       </c>
       <c r="AC50" s="15" t="n">
-        <v>169282</v>
+        <v>162897</v>
       </c>
       <c r="AD50" s="15" t="n">
-        <v>162897</v>
+        <v>78322</v>
       </c>
       <c r="AE50" s="15" t="n">
-        <v>78322</v>
+        <v>137216</v>
       </c>
       <c r="AF50" s="15" t="n">
-        <v>137216</v>
+        <v>114344</v>
       </c>
       <c r="AG50" s="15" t="n">
-        <v>114344</v>
-      </c>
-      <c r="AH50" s="15" t="n">
         <v>151115</v>
+      </c>
+      <c r="AH50" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AI50" s="15" t="s">
         <v>58</v>
@@ -8232,13 +8232,13 @@
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16" t="n">
-        <v>4673</v>
+        <v>6403</v>
       </c>
       <c r="F51" s="16" t="n">
-        <v>6403</v>
+        <v>567</v>
       </c>
       <c r="G51" s="16" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="H51" s="16" t="n">
         <v>0</v>
@@ -8271,16 +8271,16 @@
         <v>0</v>
       </c>
       <c r="R51" s="16" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S51" s="16" t="n">
-        <v>200</v>
+        <v>9576</v>
       </c>
       <c r="T51" s="16" t="n">
-        <v>9576</v>
+        <v>71</v>
       </c>
       <c r="U51" s="16" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="V51" s="16" t="n">
         <v>0</v>
@@ -8295,91 +8295,91 @@
         <v>0</v>
       </c>
       <c r="Z51" s="16" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AA51" s="16" t="n">
-        <v>139</v>
+        <v>20274</v>
       </c>
       <c r="AB51" s="16" t="n">
-        <v>20274</v>
+        <v>18100</v>
       </c>
       <c r="AC51" s="16" t="n">
-        <v>18100</v>
+        <v>20666</v>
       </c>
       <c r="AD51" s="16" t="n">
-        <v>20666</v>
+        <v>15128</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>15128</v>
+        <v>22281</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>22281</v>
+        <v>18496</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>18496</v>
+        <v>4051</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>4051</v>
+        <v>17165</v>
       </c>
       <c r="AI51" s="16" t="n">
-        <v>17165</v>
+        <v>26814</v>
       </c>
       <c r="AJ51" s="16" t="n">
-        <v>26814</v>
+        <v>20510</v>
       </c>
       <c r="AK51" s="16" t="n">
-        <v>20510</v>
+        <v>16968</v>
       </c>
       <c r="AL51" s="16" t="n">
-        <v>16968</v>
+        <v>11843</v>
       </c>
       <c r="AM51" s="16" t="n">
-        <v>11843</v>
+        <v>10903</v>
       </c>
       <c r="AN51" s="16" t="n">
-        <v>10903</v>
+        <v>20924</v>
       </c>
       <c r="AO51" s="16" t="n">
-        <v>20924</v>
+        <v>23872</v>
       </c>
       <c r="AP51" s="16" t="n">
-        <v>23872</v>
+        <v>14769</v>
       </c>
       <c r="AQ51" s="16" t="n">
-        <v>14769</v>
+        <v>54069</v>
       </c>
       <c r="AR51" s="16" t="n">
-        <v>54069</v>
+        <v>87791</v>
       </c>
       <c r="AS51" s="16" t="n">
-        <v>87791</v>
+        <v>47966</v>
       </c>
       <c r="AT51" s="16" t="n">
-        <v>47966</v>
+        <v>32088</v>
       </c>
       <c r="AU51" s="16" t="n">
-        <v>32088</v>
+        <v>37089</v>
       </c>
       <c r="AV51" s="16" t="n">
-        <v>37089</v>
+        <v>52713</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>52713</v>
+        <v>69643</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>69643</v>
+        <v>56822</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>56822</v>
+        <v>30733</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>30733</v>
+        <v>31303</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>31303</v>
+        <v>61549</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>61549</v>
+        <v>20187</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8391,154 +8391,154 @@
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="n">
-        <v>17027</v>
+        <v>17059</v>
       </c>
       <c r="F52" s="15" t="n">
-        <v>17059</v>
+        <v>9958</v>
       </c>
       <c r="G52" s="15" t="n">
-        <v>9958</v>
+        <v>36360</v>
       </c>
       <c r="H52" s="15" t="n">
-        <v>36360</v>
+        <v>25839</v>
       </c>
       <c r="I52" s="15" t="n">
-        <v>25839</v>
+        <v>30041</v>
       </c>
       <c r="J52" s="15" t="n">
-        <v>30041</v>
+        <v>31335</v>
       </c>
       <c r="K52" s="15" t="n">
-        <v>31335</v>
+        <v>31192</v>
       </c>
       <c r="L52" s="15" t="n">
-        <v>31192</v>
+        <v>29731</v>
       </c>
       <c r="M52" s="15" t="n">
-        <v>29731</v>
+        <v>26388</v>
       </c>
       <c r="N52" s="15" t="n">
-        <v>26388</v>
+        <v>24823</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>24823</v>
+        <v>26772</v>
       </c>
       <c r="P52" s="15" t="n">
-        <v>26772</v>
+        <v>30435</v>
       </c>
       <c r="Q52" s="15" t="n">
-        <v>30435</v>
+        <v>25941</v>
       </c>
       <c r="R52" s="15" t="n">
-        <v>25941</v>
+        <v>26538</v>
       </c>
       <c r="S52" s="15" t="n">
-        <v>26538</v>
+        <v>34777</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>34777</v>
+        <v>28488</v>
       </c>
       <c r="U52" s="15" t="n">
-        <v>28488</v>
+        <v>38090</v>
       </c>
       <c r="V52" s="15" t="n">
-        <v>38090</v>
+        <v>31395</v>
       </c>
       <c r="W52" s="15" t="n">
-        <v>31395</v>
+        <v>33942</v>
       </c>
       <c r="X52" s="15" t="n">
-        <v>33942</v>
+        <v>11450</v>
       </c>
       <c r="Y52" s="15" t="n">
-        <v>11450</v>
+        <v>19661</v>
       </c>
       <c r="Z52" s="15" t="n">
-        <v>19661</v>
+        <v>36458</v>
       </c>
       <c r="AA52" s="15" t="n">
-        <v>36458</v>
+        <v>32356</v>
       </c>
       <c r="AB52" s="15" t="n">
-        <v>32356</v>
+        <v>28306</v>
       </c>
       <c r="AC52" s="15" t="n">
-        <v>28306</v>
+        <v>26955</v>
       </c>
       <c r="AD52" s="15" t="n">
-        <v>26955</v>
+        <v>35358</v>
       </c>
       <c r="AE52" s="15" t="n">
-        <v>35358</v>
+        <v>33961</v>
       </c>
       <c r="AF52" s="15" t="n">
-        <v>33961</v>
+        <v>48676</v>
       </c>
       <c r="AG52" s="15" t="n">
-        <v>48676</v>
+        <v>46343</v>
       </c>
       <c r="AH52" s="15" t="n">
-        <v>46343</v>
+        <v>41675</v>
       </c>
       <c r="AI52" s="15" t="n">
-        <v>41675</v>
+        <v>53974</v>
       </c>
       <c r="AJ52" s="15" t="n">
-        <v>53974</v>
+        <v>37956</v>
       </c>
       <c r="AK52" s="15" t="n">
-        <v>37956</v>
+        <v>40639</v>
       </c>
       <c r="AL52" s="15" t="n">
-        <v>40639</v>
+        <v>60893</v>
       </c>
       <c r="AM52" s="15" t="n">
-        <v>60893</v>
+        <v>59682</v>
       </c>
       <c r="AN52" s="15" t="n">
-        <v>59682</v>
+        <v>53504</v>
       </c>
       <c r="AO52" s="15" t="n">
-        <v>53504</v>
+        <v>43980</v>
       </c>
       <c r="AP52" s="15" t="n">
-        <v>43980</v>
+        <v>40528</v>
       </c>
       <c r="AQ52" s="15" t="n">
-        <v>40528</v>
+        <v>47349</v>
       </c>
       <c r="AR52" s="15" t="n">
-        <v>47349</v>
+        <v>71695</v>
       </c>
       <c r="AS52" s="15" t="n">
-        <v>71695</v>
+        <v>58421</v>
       </c>
       <c r="AT52" s="15" t="n">
-        <v>58421</v>
+        <v>69390</v>
       </c>
       <c r="AU52" s="15" t="n">
-        <v>69390</v>
+        <v>63319</v>
       </c>
       <c r="AV52" s="15" t="n">
-        <v>63319</v>
+        <v>69415</v>
       </c>
       <c r="AW52" s="15" t="n">
-        <v>69415</v>
+        <v>64830</v>
       </c>
       <c r="AX52" s="15" t="n">
-        <v>64830</v>
+        <v>68275</v>
       </c>
       <c r="AY52" s="15" t="n">
-        <v>68275</v>
+        <v>65698</v>
       </c>
       <c r="AZ52" s="15" t="n">
-        <v>65698</v>
+        <v>50097</v>
       </c>
       <c r="BA52" s="15" t="n">
-        <v>50097</v>
+        <v>66467</v>
       </c>
       <c r="BB52" s="15" t="n">
-        <v>66467</v>
+        <v>70124</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8636,68 +8636,68 @@
       <c r="AG53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH53" s="16" t="s">
-        <v>58</v>
+      <c r="AH53" s="16" t="n">
+        <v>17883</v>
       </c>
       <c r="AI53" s="16" t="n">
-        <v>17883</v>
+        <v>38099</v>
       </c>
       <c r="AJ53" s="16" t="n">
-        <v>38099</v>
+        <v>41815</v>
       </c>
       <c r="AK53" s="16" t="n">
-        <v>41815</v>
+        <v>42108</v>
       </c>
       <c r="AL53" s="16" t="n">
-        <v>42108</v>
+        <v>54331</v>
       </c>
       <c r="AM53" s="16" t="n">
-        <v>54331</v>
+        <v>56938</v>
       </c>
       <c r="AN53" s="16" t="n">
-        <v>56938</v>
+        <v>25921</v>
       </c>
       <c r="AO53" s="16" t="n">
-        <v>25921</v>
+        <v>31686</v>
       </c>
       <c r="AP53" s="16" t="n">
-        <v>31686</v>
+        <v>18819</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>18819</v>
+        <v>38590</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>38590</v>
+        <v>62732</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>62732</v>
+        <v>61727</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>61727</v>
+        <v>78589</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>78589</v>
+        <v>62814</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>62814</v>
+        <v>83834</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>83834</v>
+        <v>101177</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>101177</v>
+        <v>67642</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>67642</v>
+        <v>76052</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>76052</v>
+        <v>82419</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>82419</v>
+        <v>56970</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>56970</v>
+        <v>40616</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,154 +8709,154 @@
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="n">
-        <v>3201</v>
+        <v>2823</v>
       </c>
       <c r="F54" s="15" t="n">
-        <v>2823</v>
+        <v>970</v>
       </c>
       <c r="G54" s="15" t="n">
-        <v>970</v>
+        <v>1715</v>
       </c>
       <c r="H54" s="15" t="n">
-        <v>1715</v>
+        <v>869</v>
       </c>
       <c r="I54" s="15" t="n">
-        <v>869</v>
+        <v>1233</v>
       </c>
       <c r="J54" s="15" t="n">
-        <v>1233</v>
+        <v>752</v>
       </c>
       <c r="K54" s="15" t="n">
-        <v>752</v>
+        <v>519</v>
       </c>
       <c r="L54" s="15" t="n">
-        <v>519</v>
+        <v>902</v>
       </c>
       <c r="M54" s="15" t="n">
-        <v>902</v>
+        <v>510</v>
       </c>
       <c r="N54" s="15" t="n">
-        <v>510</v>
+        <v>783</v>
       </c>
       <c r="O54" s="15" t="n">
-        <v>783</v>
+        <v>418</v>
       </c>
       <c r="P54" s="15" t="n">
-        <v>418</v>
+        <v>818</v>
       </c>
       <c r="Q54" s="15" t="n">
-        <v>818</v>
+        <v>650</v>
       </c>
       <c r="R54" s="15" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="S54" s="15" t="n">
-        <v>750</v>
+        <v>1249</v>
       </c>
       <c r="T54" s="15" t="n">
-        <v>1249</v>
+        <v>1694</v>
       </c>
       <c r="U54" s="15" t="n">
-        <v>1694</v>
+        <v>1117</v>
       </c>
       <c r="V54" s="15" t="n">
-        <v>1117</v>
+        <v>1635</v>
       </c>
       <c r="W54" s="15" t="n">
-        <v>1635</v>
+        <v>1975</v>
       </c>
       <c r="X54" s="15" t="n">
-        <v>1975</v>
+        <v>2050</v>
       </c>
       <c r="Y54" s="15" t="n">
-        <v>2050</v>
+        <v>2293</v>
       </c>
       <c r="Z54" s="15" t="n">
-        <v>2293</v>
+        <v>2206</v>
       </c>
       <c r="AA54" s="15" t="n">
-        <v>2206</v>
+        <v>1972</v>
       </c>
       <c r="AB54" s="15" t="n">
-        <v>1972</v>
+        <v>1597</v>
       </c>
       <c r="AC54" s="15" t="n">
-        <v>1597</v>
+        <v>2083</v>
       </c>
       <c r="AD54" s="15" t="n">
-        <v>2083</v>
+        <v>1733</v>
       </c>
       <c r="AE54" s="15" t="n">
-        <v>1733</v>
+        <v>1483</v>
       </c>
       <c r="AF54" s="15" t="n">
-        <v>1483</v>
+        <v>1923</v>
       </c>
       <c r="AG54" s="15" t="n">
-        <v>1923</v>
+        <v>3448</v>
       </c>
       <c r="AH54" s="15" t="n">
-        <v>3448</v>
+        <v>2309</v>
       </c>
       <c r="AI54" s="15" t="n">
-        <v>2309</v>
+        <v>1393</v>
       </c>
       <c r="AJ54" s="15" t="n">
-        <v>1393</v>
+        <v>4780</v>
       </c>
       <c r="AK54" s="15" t="n">
-        <v>4780</v>
+        <v>896</v>
       </c>
       <c r="AL54" s="15" t="n">
-        <v>896</v>
+        <v>6242</v>
       </c>
       <c r="AM54" s="15" t="n">
-        <v>6242</v>
+        <v>2402</v>
       </c>
       <c r="AN54" s="15" t="n">
-        <v>2402</v>
+        <v>2103</v>
       </c>
       <c r="AO54" s="15" t="n">
-        <v>2103</v>
+        <v>3108</v>
       </c>
       <c r="AP54" s="15" t="n">
-        <v>3108</v>
+        <v>925</v>
       </c>
       <c r="AQ54" s="15" t="n">
-        <v>925</v>
+        <v>1365</v>
       </c>
       <c r="AR54" s="15" t="n">
-        <v>1365</v>
+        <v>9521</v>
       </c>
       <c r="AS54" s="15" t="n">
-        <v>9521</v>
+        <v>4365</v>
       </c>
       <c r="AT54" s="15" t="n">
-        <v>4365</v>
+        <v>3417</v>
       </c>
       <c r="AU54" s="15" t="n">
-        <v>3417</v>
+        <v>6162</v>
       </c>
       <c r="AV54" s="15" t="n">
-        <v>6162</v>
+        <v>4307</v>
       </c>
       <c r="AW54" s="15" t="n">
-        <v>4307</v>
+        <v>7673</v>
       </c>
       <c r="AX54" s="15" t="n">
-        <v>7673</v>
+        <v>5186</v>
       </c>
       <c r="AY54" s="15" t="n">
-        <v>5186</v>
+        <v>8550</v>
       </c>
       <c r="AZ54" s="15" t="n">
-        <v>8550</v>
+        <v>3366</v>
       </c>
       <c r="BA54" s="15" t="n">
-        <v>3366</v>
+        <v>1948</v>
       </c>
       <c r="BB54" s="15" t="n">
-        <v>1948</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8954,68 +8954,68 @@
       <c r="AG55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="16" t="s">
-        <v>58</v>
+      <c r="AH55" s="16" t="n">
+        <v>68294</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>68294</v>
+        <v>107180</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>107180</v>
+        <v>123666</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>123666</v>
+        <v>176526</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>176526</v>
+        <v>107499</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>107499</v>
+        <v>108387</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>108387</v>
+        <v>101484</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>101484</v>
+        <v>82411</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>82411</v>
+        <v>41540</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>41540</v>
+        <v>178731</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>178731</v>
+        <v>249924</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>249924</v>
+        <v>258443</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>258443</v>
+        <v>241641</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>241641</v>
+        <v>249318</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>249318</v>
+        <v>237838</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>237838</v>
+        <v>282067</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>282067</v>
+        <v>349906</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>349906</v>
+        <v>312494</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>312494</v>
+        <v>89202</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>89202</v>
+        <v>156820</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>156820</v>
+        <v>140462</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9113,68 +9113,68 @@
       <c r="AG56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH56" s="15" t="s">
-        <v>58</v>
+      <c r="AH56" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AI56" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AJ56" s="15" t="n">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AK56" s="15" t="n">
-        <v>5443</v>
+        <v>2</v>
       </c>
       <c r="AL56" s="15" t="n">
-        <v>2</v>
+        <v>4558</v>
       </c>
       <c r="AM56" s="15" t="n">
-        <v>4558</v>
+        <v>3898</v>
       </c>
       <c r="AN56" s="15" t="n">
-        <v>3898</v>
+        <v>2074</v>
       </c>
       <c r="AO56" s="15" t="n">
-        <v>2074</v>
+        <v>5237</v>
       </c>
       <c r="AP56" s="15" t="n">
-        <v>5237</v>
+        <v>852</v>
       </c>
       <c r="AQ56" s="15" t="n">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="15" t="n">
-        <v>0</v>
+        <v>37771</v>
       </c>
       <c r="AS56" s="15" t="n">
-        <v>37771</v>
+        <v>15440</v>
       </c>
       <c r="AT56" s="15" t="n">
-        <v>15440</v>
+        <v>20116</v>
       </c>
       <c r="AU56" s="15" t="n">
-        <v>20116</v>
+        <v>6325</v>
       </c>
       <c r="AV56" s="15" t="n">
-        <v>6325</v>
+        <v>21737</v>
       </c>
       <c r="AW56" s="15" t="n">
-        <v>21737</v>
+        <v>19791</v>
       </c>
       <c r="AX56" s="15" t="n">
-        <v>19791</v>
+        <v>25144</v>
       </c>
       <c r="AY56" s="15" t="n">
-        <v>25144</v>
+        <v>29009</v>
       </c>
       <c r="AZ56" s="15" t="n">
-        <v>29009</v>
+        <v>12877</v>
       </c>
       <c r="BA56" s="15" t="n">
-        <v>12877</v>
+        <v>16563</v>
       </c>
       <c r="BB56" s="15" t="n">
-        <v>16563</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9272,68 +9272,68 @@
       <c r="AG57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH57" s="16" t="s">
-        <v>58</v>
+      <c r="AH57" s="16" t="n">
+        <v>30428</v>
       </c>
       <c r="AI57" s="16" t="n">
-        <v>30428</v>
+        <v>46166</v>
       </c>
       <c r="AJ57" s="16" t="n">
-        <v>46166</v>
+        <v>34878</v>
       </c>
       <c r="AK57" s="16" t="n">
-        <v>34878</v>
+        <v>60236</v>
       </c>
       <c r="AL57" s="16" t="n">
-        <v>60236</v>
+        <v>28516</v>
       </c>
       <c r="AM57" s="16" t="n">
-        <v>28516</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="16" t="n">
-        <v>0</v>
+        <v>61938</v>
       </c>
       <c r="AO57" s="16" t="n">
-        <v>61938</v>
+        <v>49168</v>
       </c>
       <c r="AP57" s="16" t="n">
-        <v>49168</v>
+        <v>27433</v>
       </c>
       <c r="AQ57" s="16" t="n">
-        <v>27433</v>
+        <v>88454</v>
       </c>
       <c r="AR57" s="16" t="n">
-        <v>88454</v>
+        <v>74263</v>
       </c>
       <c r="AS57" s="16" t="n">
-        <v>74263</v>
+        <v>68176</v>
       </c>
       <c r="AT57" s="16" t="n">
-        <v>68176</v>
+        <v>98954</v>
       </c>
       <c r="AU57" s="16" t="n">
-        <v>98954</v>
+        <v>128413</v>
       </c>
       <c r="AV57" s="16" t="n">
-        <v>128413</v>
+        <v>90327</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>90327</v>
+        <v>164530</v>
       </c>
       <c r="AX57" s="16" t="n">
-        <v>164530</v>
+        <v>100921</v>
       </c>
       <c r="AY57" s="16" t="n">
-        <v>100921</v>
+        <v>152963</v>
       </c>
       <c r="AZ57" s="16" t="n">
-        <v>152963</v>
+        <v>114120</v>
       </c>
       <c r="BA57" s="16" t="n">
-        <v>114120</v>
+        <v>80898</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>80898</v>
+        <v>79921</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,8 +9449,8 @@
       <c r="T59" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="20" t="s">
-        <v>58</v>
+      <c r="U59" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="23" t="n">
         <v>0</v>
@@ -9665,8 +9665,8 @@
       <c r="T61" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="20" t="s">
-        <v>58</v>
+      <c r="U61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="23" t="n">
         <v>0</v>
@@ -9881,8 +9881,8 @@
       <c r="T63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>58</v>
+      <c r="U63" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="16" t="n">
         <v>0</v>
@@ -9991,154 +9991,154 @@
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="n">
-        <v>161490</v>
+        <v>179964</v>
       </c>
       <c r="F64" s="22" t="n">
-        <v>179964</v>
+        <v>114923</v>
       </c>
       <c r="G64" s="22" t="n">
-        <v>114923</v>
+        <v>196586</v>
       </c>
       <c r="H64" s="22" t="n">
-        <v>196586</v>
+        <v>161846</v>
       </c>
       <c r="I64" s="22" t="n">
-        <v>161846</v>
+        <v>176390</v>
       </c>
       <c r="J64" s="22" t="n">
-        <v>176390</v>
+        <v>189653</v>
       </c>
       <c r="K64" s="22" t="n">
-        <v>189653</v>
+        <v>198586</v>
       </c>
       <c r="L64" s="22" t="n">
-        <v>198586</v>
+        <v>215572</v>
       </c>
       <c r="M64" s="22" t="n">
-        <v>215572</v>
+        <v>205075</v>
       </c>
       <c r="N64" s="22" t="n">
-        <v>205075</v>
+        <v>181224</v>
       </c>
       <c r="O64" s="22" t="n">
-        <v>181224</v>
+        <v>161680</v>
       </c>
       <c r="P64" s="22" t="n">
-        <v>161680</v>
+        <v>194874</v>
       </c>
       <c r="Q64" s="22" t="n">
-        <v>194874</v>
+        <v>184341</v>
       </c>
       <c r="R64" s="22" t="n">
-        <v>184341</v>
+        <v>149146</v>
       </c>
       <c r="S64" s="22" t="n">
-        <v>149146</v>
+        <v>265945</v>
       </c>
       <c r="T64" s="22" t="n">
-        <v>265945</v>
+        <v>193466</v>
       </c>
       <c r="U64" s="22" t="n">
-        <v>193466</v>
+        <v>274813</v>
       </c>
       <c r="V64" s="22" t="n">
-        <v>274813</v>
+        <v>265550</v>
       </c>
       <c r="W64" s="22" t="n">
-        <v>265550</v>
+        <v>293262</v>
       </c>
       <c r="X64" s="22" t="n">
-        <v>293262</v>
+        <v>231111</v>
       </c>
       <c r="Y64" s="22" t="n">
-        <v>231111</v>
+        <v>301316</v>
       </c>
       <c r="Z64" s="22" t="n">
-        <v>301316</v>
+        <v>365815</v>
       </c>
       <c r="AA64" s="22" t="n">
-        <v>365815</v>
+        <v>411731</v>
       </c>
       <c r="AB64" s="22" t="n">
-        <v>411731</v>
+        <v>420424</v>
       </c>
       <c r="AC64" s="22" t="n">
-        <v>420424</v>
+        <v>395370</v>
       </c>
       <c r="AD64" s="22" t="n">
-        <v>395370</v>
+        <v>260890</v>
       </c>
       <c r="AE64" s="22" t="n">
-        <v>260890</v>
+        <v>430237</v>
       </c>
       <c r="AF64" s="22" t="n">
-        <v>430237</v>
+        <v>415201</v>
       </c>
       <c r="AG64" s="22" t="n">
-        <v>415201</v>
+        <v>458149</v>
       </c>
       <c r="AH64" s="22" t="n">
-        <v>458149</v>
+        <v>398505</v>
       </c>
       <c r="AI64" s="22" t="n">
-        <v>398505</v>
+        <v>550104</v>
       </c>
       <c r="AJ64" s="22" t="n">
-        <v>550104</v>
+        <v>528705</v>
       </c>
       <c r="AK64" s="22" t="n">
-        <v>528705</v>
+        <v>657318</v>
       </c>
       <c r="AL64" s="22" t="n">
-        <v>657318</v>
+        <v>584716</v>
       </c>
       <c r="AM64" s="22" t="n">
-        <v>584716</v>
+        <v>555405</v>
       </c>
       <c r="AN64" s="22" t="n">
-        <v>555405</v>
+        <v>580443</v>
       </c>
       <c r="AO64" s="22" t="n">
-        <v>580443</v>
+        <v>538427</v>
       </c>
       <c r="AP64" s="22" t="n">
-        <v>538427</v>
+        <v>339613</v>
       </c>
       <c r="AQ64" s="22" t="n">
-        <v>339613</v>
+        <v>813234</v>
       </c>
       <c r="AR64" s="22" t="n">
-        <v>813234</v>
+        <v>1167883</v>
       </c>
       <c r="AS64" s="22" t="n">
-        <v>1167883</v>
+        <v>1122958</v>
       </c>
       <c r="AT64" s="22" t="n">
-        <v>1122958</v>
+        <v>1118349</v>
       </c>
       <c r="AU64" s="22" t="n">
-        <v>1118349</v>
+        <v>1113482</v>
       </c>
       <c r="AV64" s="22" t="n">
-        <v>1113482</v>
+        <v>1114764</v>
       </c>
       <c r="AW64" s="22" t="n">
-        <v>1114764</v>
+        <v>1348347</v>
       </c>
       <c r="AX64" s="22" t="n">
-        <v>1348347</v>
+        <v>1308884</v>
       </c>
       <c r="AY64" s="22" t="n">
-        <v>1308884</v>
+        <v>1320005</v>
       </c>
       <c r="AZ64" s="22" t="n">
-        <v>1320005</v>
+        <v>993489</v>
       </c>
       <c r="BA64" s="22" t="n">
-        <v>993489</v>
+        <v>1052631</v>
       </c>
       <c r="BB64" s="22" t="n">
-        <v>1052631</v>
+        <v>788957</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10584,154 +10584,154 @@
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="n">
-        <v>95438263</v>
+        <v>97239199</v>
       </c>
       <c r="F71" s="16" t="n">
-        <v>97239199</v>
+        <v>102308989</v>
       </c>
       <c r="G71" s="16" t="n">
-        <v>102308989</v>
+        <v>101693407</v>
       </c>
       <c r="H71" s="16" t="n">
-        <v>101693407</v>
+        <v>112292781</v>
       </c>
       <c r="I71" s="16" t="n">
-        <v>112292781</v>
+        <v>115886731</v>
       </c>
       <c r="J71" s="16" t="n">
-        <v>115886731</v>
+        <v>115975322</v>
       </c>
       <c r="K71" s="16" t="n">
-        <v>115975322</v>
+        <v>115796480</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>115796480</v>
+        <v>115937835</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>115937835</v>
+        <v>115974529</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>115974529</v>
+        <v>115869006</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>115869006</v>
+        <v>115796712</v>
       </c>
       <c r="P71" s="16" t="n">
-        <v>115796712</v>
+        <v>115894802</v>
       </c>
       <c r="Q71" s="16" t="n">
-        <v>115894802</v>
+        <v>116005044</v>
       </c>
       <c r="R71" s="16" t="n">
-        <v>116005044</v>
+        <v>127685714</v>
       </c>
       <c r="S71" s="16" t="n">
-        <v>127685714</v>
+        <v>134732558</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>134732558</v>
+        <v>143414805</v>
       </c>
       <c r="U71" s="16" t="n">
-        <v>143414805</v>
+        <v>149918831</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>149918831</v>
+        <v>162729358</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>162729358</v>
+        <v>175974763</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>175974763</v>
+        <v>193852174</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>193852174</v>
+        <v>203229873</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>203229873</v>
+        <v>211308779</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>211308779</v>
+        <v>204544898</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>204544898</v>
+        <v>207073395</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>207073395</v>
+        <v>215275618</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>215275618</v>
+        <v>215452893</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>215452893</v>
+        <v>252734694</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>252734694</v>
+        <v>258374582</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>258374582</v>
+        <v>258359184</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>258359184</v>
+        <v>258490632</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>258490632</v>
+        <v>263061846</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>263061846</v>
+        <v>290769317</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>290769317</v>
+        <v>290593097</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>290593097</v>
+        <v>290770814</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>290770814</v>
+        <v>290533395</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>290533395</v>
+        <v>295923295</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>295923295</v>
+        <v>312724895</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>312724895</v>
+        <v>321364686</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>321364686</v>
+        <v>456229989</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>456229989</v>
+        <v>519155515</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>519155515</v>
+        <v>513434599</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>513434599</v>
+        <v>541654717</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>541654717</v>
+        <v>541626692</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>541626692</v>
+        <v>542124145</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>542124145</v>
+        <v>576386282</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>576386282</v>
+        <v>576214156</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>576214156</v>
+        <v>575966041</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>575966041</v>
+        <v>576114259</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>576114259</v>
+        <v>576263902</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>576263902</v>
+        <v>576215364</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10743,94 +10743,94 @@
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="n">
-        <v>72963656</v>
+        <v>72319199</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>72319199</v>
+        <v>77699045</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>77699045</v>
+        <v>84903475</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>84903475</v>
+        <v>93840367</v>
       </c>
       <c r="I72" s="15" t="n">
-        <v>93840367</v>
+        <v>88471831</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>88471831</v>
+        <v>89794918</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>89794918</v>
+        <v>90213763</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>90213763</v>
+        <v>86354331</v>
       </c>
       <c r="M72" s="15" t="n">
-        <v>86354331</v>
+        <v>108656805</v>
       </c>
       <c r="N72" s="15" t="n">
-        <v>108656805</v>
+        <v>95042017</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>95042017</v>
+        <v>92119548</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>92119548</v>
+        <v>88804569</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>88804569</v>
+        <v>91840782</v>
       </c>
       <c r="R72" s="15" t="n">
-        <v>91840782</v>
+        <v>95713741</v>
       </c>
       <c r="S72" s="15" t="n">
-        <v>95713741</v>
+        <v>110185053</v>
       </c>
       <c r="T72" s="15" t="n">
-        <v>110185053</v>
+        <v>113136449</v>
       </c>
       <c r="U72" s="15" t="n">
-        <v>113136449</v>
+        <v>125265806</v>
       </c>
       <c r="V72" s="15" t="n">
-        <v>125265806</v>
+        <v>133855244</v>
       </c>
       <c r="W72" s="15" t="n">
-        <v>133855244</v>
+        <v>134317910</v>
       </c>
       <c r="X72" s="15" t="n">
-        <v>134317910</v>
+        <v>165040214</v>
       </c>
       <c r="Y72" s="15" t="n">
-        <v>165040214</v>
+        <v>150108062</v>
       </c>
       <c r="Z72" s="15" t="n">
-        <v>150108062</v>
+        <v>143947368</v>
       </c>
       <c r="AA72" s="15" t="n">
-        <v>143947368</v>
+        <v>154664363</v>
       </c>
       <c r="AB72" s="15" t="n">
-        <v>154664363</v>
+        <v>163084778</v>
       </c>
       <c r="AC72" s="15" t="n">
-        <v>163084778</v>
+        <v>172743372</v>
       </c>
       <c r="AD72" s="15" t="n">
-        <v>172743372</v>
+        <v>159191057</v>
       </c>
       <c r="AE72" s="15" t="n">
-        <v>159191057</v>
+        <v>178202597</v>
       </c>
       <c r="AF72" s="15" t="n">
-        <v>178202597</v>
+        <v>173775076</v>
       </c>
       <c r="AG72" s="15" t="n">
-        <v>173775076</v>
-      </c>
-      <c r="AH72" s="15" t="n">
         <v>183614824</v>
+      </c>
+      <c r="AH72" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AI72" s="15" t="s">
         <v>58</v>
@@ -10902,13 +10902,13 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="n">
-        <v>93460000</v>
+        <v>91471429</v>
       </c>
       <c r="F73" s="16" t="n">
-        <v>91471429</v>
+        <v>94500000</v>
       </c>
       <c r="G73" s="16" t="n">
-        <v>94500000</v>
+        <v>0</v>
       </c>
       <c r="H73" s="16" t="n">
         <v>0</v>
@@ -10941,17 +10941,17 @@
         <v>0</v>
       </c>
       <c r="R73" s="16" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="S73" s="16" t="n">
-        <v>100000000</v>
+        <v>138782609</v>
       </c>
       <c r="T73" s="16" t="n">
-        <v>138782609</v>
-      </c>
-      <c r="U73" s="16" t="n">
         <v>71000000</v>
       </c>
+      <c r="U73" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V73" s="16" t="s">
         <v>58</v>
       </c>
@@ -10964,92 +10964,92 @@
       <c r="Y73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z73" s="16" t="s">
-        <v>58</v>
+      <c r="Z73" s="16" t="n">
+        <v>139000000</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>139000000</v>
+        <v>184309091</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>184309091</v>
+        <v>184693878</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>184693878</v>
+        <v>184517857</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>184517857</v>
+        <v>199052632</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>199052632</v>
+        <v>229701031</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>229701031</v>
+        <v>231200000</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>231200000</v>
+        <v>225055556</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>225055556</v>
+        <v>231959459</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>231959459</v>
+        <v>243763636</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>243763636</v>
+        <v>266363636</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>266363636</v>
+        <v>273677419</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>273677419</v>
+        <v>275418605</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>275418605</v>
+        <v>279564103</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>279564103</v>
+        <v>275315789</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>275315789</v>
+        <v>277581395</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>277581395</v>
+        <v>278660377</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>278660377</v>
+        <v>505317757</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>505317757</v>
+        <v>645522059</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>645522059</v>
+        <v>614948718</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>614948718</v>
+        <v>605433962</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>605433962</v>
+        <v>608016393</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>608016393</v>
+        <v>599011364</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>599011364</v>
+        <v>605591304</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>605591304</v>
+        <v>579816327</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>579816327</v>
+        <v>579867925</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>579867925</v>
+        <v>579685185</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>579685185</v>
+        <v>575224299</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>575224299</v>
+        <v>576771429</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,154 +11061,154 @@
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="n">
-        <v>9992371</v>
+        <v>10005279</v>
       </c>
       <c r="F74" s="15" t="n">
-        <v>10005279</v>
+        <v>9997992</v>
       </c>
       <c r="G74" s="15" t="n">
-        <v>9997992</v>
+        <v>15000000</v>
       </c>
       <c r="H74" s="15" t="n">
+        <v>14996518</v>
+      </c>
+      <c r="I74" s="15" t="n">
+        <v>14998003</v>
+      </c>
+      <c r="J74" s="15" t="n">
         <v>15000000</v>
       </c>
-      <c r="I74" s="15" t="n">
-        <v>14996518</v>
-      </c>
-      <c r="J74" s="15" t="n">
-        <v>14998003</v>
-      </c>
       <c r="K74" s="15" t="n">
-        <v>15000000</v>
+        <v>15003367</v>
       </c>
       <c r="L74" s="15" t="n">
-        <v>15003367</v>
+        <v>14932697</v>
       </c>
       <c r="M74" s="15" t="n">
-        <v>14932697</v>
+        <v>15078857</v>
       </c>
       <c r="N74" s="15" t="n">
-        <v>15078857</v>
+        <v>14998792</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>14998792</v>
+        <v>14989922</v>
       </c>
       <c r="P74" s="15" t="n">
-        <v>14989922</v>
+        <v>15007396</v>
       </c>
       <c r="Q74" s="15" t="n">
-        <v>15007396</v>
+        <v>15152453</v>
       </c>
       <c r="R74" s="15" t="n">
-        <v>15152453</v>
+        <v>18004071</v>
       </c>
       <c r="S74" s="15" t="n">
-        <v>18004071</v>
+        <v>18000518</v>
       </c>
       <c r="T74" s="15" t="n">
-        <v>18000518</v>
+        <v>17996210</v>
       </c>
       <c r="U74" s="15" t="n">
-        <v>17996210</v>
+        <v>18000945</v>
       </c>
       <c r="V74" s="15" t="n">
-        <v>18000945</v>
+        <v>18001720</v>
       </c>
       <c r="W74" s="15" t="n">
-        <v>18001720</v>
+        <v>17996819</v>
       </c>
       <c r="X74" s="15" t="n">
-        <v>17996819</v>
+        <v>18003145</v>
       </c>
       <c r="Y74" s="15" t="n">
-        <v>18003145</v>
+        <v>18004579</v>
       </c>
       <c r="Z74" s="15" t="n">
-        <v>18004579</v>
+        <v>17995064</v>
       </c>
       <c r="AA74" s="15" t="n">
-        <v>17995064</v>
+        <v>17995551</v>
       </c>
       <c r="AB74" s="15" t="n">
-        <v>17995551</v>
+        <v>17994914</v>
       </c>
       <c r="AC74" s="15" t="n">
-        <v>17994914</v>
+        <v>18018048</v>
       </c>
       <c r="AD74" s="15" t="n">
-        <v>18018048</v>
+        <v>27995249</v>
       </c>
       <c r="AE74" s="15" t="n">
-        <v>27995249</v>
+        <v>27997527</v>
       </c>
       <c r="AF74" s="15" t="n">
-        <v>27997527</v>
+        <v>28006904</v>
       </c>
       <c r="AG74" s="15" t="n">
-        <v>28006904</v>
+        <v>28001813</v>
       </c>
       <c r="AH74" s="15" t="n">
-        <v>28001813</v>
+        <v>27988583</v>
       </c>
       <c r="AI74" s="15" t="n">
-        <v>27988583</v>
+        <v>28009341</v>
       </c>
       <c r="AJ74" s="15" t="n">
-        <v>28009341</v>
+        <v>27991150</v>
       </c>
       <c r="AK74" s="15" t="n">
-        <v>27991150</v>
+        <v>28007581</v>
       </c>
       <c r="AL74" s="15" t="n">
-        <v>28007581</v>
+        <v>27996782</v>
       </c>
       <c r="AM74" s="15" t="n">
-        <v>27996782</v>
+        <v>28006570</v>
       </c>
       <c r="AN74" s="15" t="n">
-        <v>28006570</v>
+        <v>27997907</v>
       </c>
       <c r="AO74" s="15" t="n">
-        <v>27997907</v>
+        <v>27994908</v>
       </c>
       <c r="AP74" s="15" t="n">
-        <v>27994908</v>
+        <v>41020243</v>
       </c>
       <c r="AQ74" s="15" t="n">
-        <v>41020243</v>
+        <v>40994805</v>
       </c>
       <c r="AR74" s="15" t="n">
-        <v>40994805</v>
+        <v>40991995</v>
       </c>
       <c r="AS74" s="15" t="n">
-        <v>40991995</v>
+        <v>40997193</v>
       </c>
       <c r="AT74" s="15" t="n">
-        <v>40997193</v>
+        <v>41010638</v>
       </c>
       <c r="AU74" s="15" t="n">
-        <v>41010638</v>
+        <v>41009715</v>
       </c>
       <c r="AV74" s="15" t="n">
-        <v>41009715</v>
+        <v>40976978</v>
       </c>
       <c r="AW74" s="15" t="n">
-        <v>40976978</v>
+        <v>41005693</v>
       </c>
       <c r="AX74" s="15" t="n">
-        <v>41005693</v>
+        <v>41030649</v>
       </c>
       <c r="AY74" s="15" t="n">
-        <v>41030649</v>
+        <v>40984404</v>
       </c>
       <c r="AZ74" s="15" t="n">
-        <v>40984404</v>
+        <v>40995908</v>
       </c>
       <c r="BA74" s="15" t="n">
-        <v>40995908</v>
+        <v>41003701</v>
       </c>
       <c r="BB74" s="15" t="n">
-        <v>41003701</v>
+        <v>51982209</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11306,68 +11306,68 @@
       <c r="AG75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH75" s="16" t="s">
-        <v>58</v>
+      <c r="AH75" s="16" t="n">
+        <v>162572727</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>162572727</v>
+        <v>175571429</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>175571429</v>
+        <v>184207048</v>
       </c>
       <c r="AK75" s="16" t="n">
-        <v>184207048</v>
+        <v>187982143</v>
       </c>
       <c r="AL75" s="16" t="n">
-        <v>187982143</v>
+        <v>181709030</v>
       </c>
       <c r="AM75" s="16" t="n">
-        <v>181709030</v>
+        <v>179615142</v>
       </c>
       <c r="AN75" s="16" t="n">
-        <v>179615142</v>
+        <v>196371212</v>
       </c>
       <c r="AO75" s="16" t="n">
-        <v>196371212</v>
+        <v>186388235</v>
       </c>
       <c r="AP75" s="16" t="n">
-        <v>186388235</v>
+        <v>182708738</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>182708738</v>
+        <v>350818182</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>350818182</v>
+        <v>412710526</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>412710526</v>
+        <v>444079137</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>444079137</v>
+        <v>363837963</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>363837963</v>
+        <v>390149068</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>390149068</v>
+        <v>403048077</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>403048077</v>
+        <v>468412037</v>
       </c>
       <c r="AX75" s="16" t="n">
-        <v>468412037</v>
+        <v>469736111</v>
       </c>
       <c r="AY75" s="16" t="n">
-        <v>469736111</v>
+        <v>478314465</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>478314465</v>
+        <v>465644068</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>465644068</v>
+        <v>466967213</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>466967213</v>
+        <v>483523810</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11379,154 +11379,154 @@
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="n">
-        <v>160050000</v>
+        <v>156833333</v>
       </c>
       <c r="F76" s="15" t="n">
-        <v>156833333</v>
+        <v>161666667</v>
       </c>
       <c r="G76" s="15" t="n">
-        <v>161666667</v>
+        <v>142916667</v>
       </c>
       <c r="H76" s="15" t="n">
-        <v>142916667</v>
+        <v>173800000</v>
       </c>
       <c r="I76" s="15" t="n">
-        <v>173800000</v>
+        <v>154125000</v>
       </c>
       <c r="J76" s="15" t="n">
-        <v>154125000</v>
+        <v>150400000</v>
       </c>
       <c r="K76" s="15" t="n">
-        <v>150400000</v>
+        <v>129750000</v>
       </c>
       <c r="L76" s="15" t="n">
-        <v>129750000</v>
+        <v>150333333</v>
       </c>
       <c r="M76" s="15" t="n">
-        <v>150333333</v>
+        <v>170000000</v>
       </c>
       <c r="N76" s="15" t="n">
-        <v>170000000</v>
+        <v>156600000</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>156600000</v>
+        <v>139333333</v>
       </c>
       <c r="P76" s="15" t="n">
-        <v>139333333</v>
+        <v>163600000</v>
       </c>
       <c r="Q76" s="15" t="n">
-        <v>163600000</v>
+        <v>130000000</v>
       </c>
       <c r="R76" s="15" t="n">
-        <v>130000000</v>
+        <v>150000000</v>
       </c>
       <c r="S76" s="15" t="n">
-        <v>150000000</v>
+        <v>208166667</v>
       </c>
       <c r="T76" s="15" t="n">
-        <v>208166667</v>
+        <v>188222222</v>
       </c>
       <c r="U76" s="15" t="n">
-        <v>188222222</v>
+        <v>223400000</v>
       </c>
       <c r="V76" s="15" t="n">
-        <v>223400000</v>
+        <v>204375000</v>
       </c>
       <c r="W76" s="15" t="n">
-        <v>204375000</v>
+        <v>246875000</v>
       </c>
       <c r="X76" s="15" t="n">
-        <v>246875000</v>
+        <v>292857143</v>
       </c>
       <c r="Y76" s="15" t="n">
-        <v>292857143</v>
+        <v>327571429</v>
       </c>
       <c r="Z76" s="15" t="n">
-        <v>327571429</v>
+        <v>441200000</v>
       </c>
       <c r="AA76" s="15" t="n">
-        <v>441200000</v>
+        <v>394400000</v>
       </c>
       <c r="AB76" s="15" t="n">
-        <v>394400000</v>
+        <v>399250000</v>
       </c>
       <c r="AC76" s="15" t="n">
-        <v>399250000</v>
+        <v>297571429</v>
       </c>
       <c r="AD76" s="15" t="n">
-        <v>297571429</v>
+        <v>433250000</v>
       </c>
       <c r="AE76" s="15" t="n">
-        <v>433250000</v>
+        <v>370750000</v>
       </c>
       <c r="AF76" s="15" t="n">
-        <v>370750000</v>
+        <v>480750000</v>
       </c>
       <c r="AG76" s="15" t="n">
-        <v>480750000</v>
+        <v>431000000</v>
       </c>
       <c r="AH76" s="15" t="n">
-        <v>431000000</v>
+        <v>461800000</v>
       </c>
       <c r="AI76" s="15" t="n">
-        <v>461800000</v>
+        <v>464333333</v>
       </c>
       <c r="AJ76" s="15" t="n">
-        <v>464333333</v>
+        <v>478000000</v>
       </c>
       <c r="AK76" s="15" t="n">
-        <v>478000000</v>
+        <v>448000000</v>
       </c>
       <c r="AL76" s="15" t="n">
-        <v>448000000</v>
+        <v>445857143</v>
       </c>
       <c r="AM76" s="15" t="n">
-        <v>445857143</v>
+        <v>480400000</v>
       </c>
       <c r="AN76" s="15" t="n">
-        <v>480400000</v>
+        <v>525750000</v>
       </c>
       <c r="AO76" s="15" t="n">
-        <v>525750000</v>
+        <v>621600000</v>
       </c>
       <c r="AP76" s="15" t="n">
-        <v>621600000</v>
+        <v>462500000</v>
       </c>
       <c r="AQ76" s="15" t="n">
-        <v>462500000</v>
+        <v>682500000</v>
       </c>
       <c r="AR76" s="15" t="n">
-        <v>682500000</v>
+        <v>793416667</v>
       </c>
       <c r="AS76" s="15" t="n">
-        <v>793416667</v>
+        <v>873000000</v>
       </c>
       <c r="AT76" s="15" t="n">
-        <v>873000000</v>
+        <v>683400000</v>
       </c>
       <c r="AU76" s="15" t="n">
-        <v>683400000</v>
+        <v>880285714</v>
       </c>
       <c r="AV76" s="15" t="n">
-        <v>880285714</v>
+        <v>861400000</v>
       </c>
       <c r="AW76" s="15" t="n">
-        <v>861400000</v>
+        <v>852555556</v>
       </c>
       <c r="AX76" s="15" t="n">
-        <v>852555556</v>
+        <v>864333333</v>
       </c>
       <c r="AY76" s="15" t="n">
-        <v>864333333</v>
+        <v>855000000</v>
       </c>
       <c r="AZ76" s="15" t="n">
-        <v>855000000</v>
+        <v>841500000</v>
       </c>
       <c r="BA76" s="15" t="n">
-        <v>841500000</v>
+        <v>974000000</v>
       </c>
       <c r="BB76" s="15" t="n">
-        <v>974000000</v>
+        <v>827222222</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,68 +11624,68 @@
       <c r="AG77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH77" s="16" t="s">
-        <v>58</v>
+      <c r="AH77" s="16" t="n">
+        <v>160691765</v>
       </c>
       <c r="AI77" s="16" t="n">
-        <v>160691765</v>
+        <v>183213675</v>
       </c>
       <c r="AJ77" s="16" t="n">
-        <v>183213675</v>
+        <v>197549521</v>
       </c>
       <c r="AK77" s="16" t="n">
-        <v>197549521</v>
+        <v>203605536</v>
       </c>
       <c r="AL77" s="16" t="n">
-        <v>203605536</v>
+        <v>204370722</v>
       </c>
       <c r="AM77" s="16" t="n">
-        <v>204370722</v>
+        <v>201089054</v>
       </c>
       <c r="AN77" s="16" t="n">
-        <v>201089054</v>
+        <v>202562874</v>
       </c>
       <c r="AO77" s="16" t="n">
-        <v>202562874</v>
+        <v>203483951</v>
       </c>
       <c r="AP77" s="16" t="n">
-        <v>203483951</v>
+        <v>210862944</v>
       </c>
       <c r="AQ77" s="16" t="n">
-        <v>210862944</v>
+        <v>364757143</v>
       </c>
       <c r="AR77" s="16" t="n">
-        <v>364757143</v>
+        <v>469781955</v>
       </c>
       <c r="AS77" s="16" t="n">
-        <v>469781955</v>
+        <v>472473492</v>
       </c>
       <c r="AT77" s="16" t="n">
-        <v>472473492</v>
+        <v>461146947</v>
       </c>
       <c r="AU77" s="16" t="n">
-        <v>461146947</v>
+        <v>455791590</v>
       </c>
       <c r="AV77" s="16" t="n">
-        <v>455791590</v>
+        <v>460926357</v>
       </c>
       <c r="AW77" s="16" t="n">
-        <v>460926357</v>
+        <v>548768482</v>
       </c>
       <c r="AX77" s="16" t="n">
-        <v>548768482</v>
+        <v>548442006</v>
       </c>
       <c r="AY77" s="16" t="n">
-        <v>548442006</v>
+        <v>544414634</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>544414634</v>
+        <v>550629630</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>550629630</v>
+        <v>548321678</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>548321678</v>
+        <v>548679688</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11789,62 +11789,62 @@
       <c r="AI78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AJ78" s="15" t="s">
-        <v>58</v>
+      <c r="AJ78" s="15" t="n">
+        <v>187689655</v>
       </c>
       <c r="AK78" s="15" t="n">
-        <v>187689655</v>
+        <v>2000000</v>
       </c>
       <c r="AL78" s="15" t="n">
-        <v>2000000</v>
+        <v>207181818</v>
       </c>
       <c r="AM78" s="15" t="n">
-        <v>207181818</v>
+        <v>194900000</v>
       </c>
       <c r="AN78" s="15" t="n">
-        <v>194900000</v>
+        <v>207400000</v>
       </c>
       <c r="AO78" s="15" t="n">
-        <v>207400000</v>
+        <v>193962963</v>
       </c>
       <c r="AP78" s="15" t="n">
-        <v>193962963</v>
-      </c>
-      <c r="AQ78" s="15" t="n">
         <v>213000000</v>
       </c>
-      <c r="AR78" s="15" t="s">
-        <v>58</v>
+      <c r="AQ78" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR78" s="15" t="n">
+        <v>415065934</v>
       </c>
       <c r="AS78" s="15" t="n">
-        <v>415065934</v>
+        <v>406315789</v>
       </c>
       <c r="AT78" s="15" t="n">
-        <v>406315789</v>
+        <v>410530612</v>
       </c>
       <c r="AU78" s="15" t="n">
-        <v>410530612</v>
+        <v>395312500</v>
       </c>
       <c r="AV78" s="15" t="n">
-        <v>395312500</v>
+        <v>402537037</v>
       </c>
       <c r="AW78" s="15" t="n">
-        <v>402537037</v>
+        <v>412312500</v>
       </c>
       <c r="AX78" s="15" t="n">
-        <v>412312500</v>
+        <v>419066667</v>
       </c>
       <c r="AY78" s="15" t="n">
-        <v>419066667</v>
+        <v>408577465</v>
       </c>
       <c r="AZ78" s="15" t="n">
-        <v>408577465</v>
+        <v>415387097</v>
       </c>
       <c r="BA78" s="15" t="n">
-        <v>415387097</v>
+        <v>414075000</v>
       </c>
       <c r="BB78" s="15" t="n">
-        <v>414075000</v>
+        <v>422541667</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11942,68 +11942,68 @@
       <c r="AG79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH79" s="16" t="s">
-        <v>58</v>
+      <c r="AH79" s="16" t="n">
+        <v>323702128</v>
       </c>
       <c r="AI79" s="16" t="n">
-        <v>323702128</v>
+        <v>397982759</v>
       </c>
       <c r="AJ79" s="16" t="n">
-        <v>397982759</v>
+        <v>396340909</v>
       </c>
       <c r="AK79" s="16" t="n">
-        <v>396340909</v>
+        <v>418305556</v>
       </c>
       <c r="AL79" s="16" t="n">
-        <v>418305556</v>
-      </c>
-      <c r="AM79" s="16" t="n">
         <v>413275362</v>
       </c>
-      <c r="AN79" s="16" t="s">
-        <v>58</v>
+      <c r="AM79" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN79" s="16" t="n">
+        <v>387112500</v>
       </c>
       <c r="AO79" s="16" t="n">
-        <v>387112500</v>
+        <v>413176471</v>
       </c>
       <c r="AP79" s="16" t="n">
-        <v>413176471</v>
+        <v>435444444</v>
       </c>
       <c r="AQ79" s="16" t="n">
-        <v>435444444</v>
+        <v>570670968</v>
       </c>
       <c r="AR79" s="16" t="n">
-        <v>570670968</v>
+        <v>681311927</v>
       </c>
       <c r="AS79" s="16" t="n">
-        <v>681311927</v>
+        <v>675009901</v>
       </c>
       <c r="AT79" s="16" t="n">
-        <v>675009901</v>
+        <v>651013158</v>
       </c>
       <c r="AU79" s="16" t="n">
-        <v>651013158</v>
+        <v>648550505</v>
       </c>
       <c r="AV79" s="16" t="n">
-        <v>648550505</v>
+        <v>649834532</v>
       </c>
       <c r="AW79" s="16" t="n">
-        <v>649834532</v>
+        <v>691302521</v>
       </c>
       <c r="AX79" s="16" t="n">
-        <v>691302521</v>
+        <v>691239726</v>
       </c>
       <c r="AY79" s="16" t="n">
-        <v>691239726</v>
+        <v>692140271</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>692140271</v>
+        <v>691636364</v>
       </c>
       <c r="BA79" s="16" t="n">
-        <v>691636364</v>
+        <v>685576271</v>
       </c>
       <c r="BB79" s="16" t="n">
-        <v>685576271</v>
+        <v>688974138</v>
       </c>
     </row>
   </sheetData>
